--- a/input/reg_health_mental.xlsx
+++ b/input/reg_health_mental.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\andy_local\SimPaths project files\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CAAE0F-C79D-450E-ACEA-9E2AF93D6301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D179F5-C628-4575-84B9-9FD17F5D5FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="27000" windowHeight="14100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27000" windowHeight="14100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="UK_HM1_C" sheetId="7" r:id="rId3"/>
     <sheet name="UK_HM2_Males_C" sheetId="8" r:id="rId4"/>
     <sheet name="UK_HM2_Females_C" sheetId="9" r:id="rId5"/>
-    <sheet name="UK_HM1_L" sheetId="13" r:id="rId6"/>
-    <sheet name="UK_HM2_Males_L" sheetId="14" r:id="rId7"/>
-    <sheet name="UK_HM2_Females_L" sheetId="15" r:id="rId8"/>
+    <sheet name="UK_HM1_L" sheetId="16" r:id="rId6"/>
+    <sheet name="UK_HM2_Males_L" sheetId="17" r:id="rId7"/>
+    <sheet name="UK_HM2_Females_L" sheetId="18" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4326,7 +4326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83C27E0-FA2B-440E-9BE2-866FFC98D161}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4757,14 +4757,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3203A6-DA5F-4B51-8074-D30044B6B769}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA65DFE-C60F-4D4D-8008-9FC7A3FF9E6E}">
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="30.7109375" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -4870,97 +4871,97 @@
         <v>34</v>
       </c>
       <c r="B2" s="8">
-        <v>0.18952543247051801</v>
+        <v>0.21548707218562399</v>
       </c>
       <c r="C2" s="8">
-        <v>1.6610316565265201E-3</v>
+        <v>1.25374527274403E-3</v>
       </c>
       <c r="D2" s="8">
-        <v>-2.2452002236969702E-5</v>
+        <v>-2.4394791244791601E-5</v>
       </c>
       <c r="E2" s="8">
-        <v>4.3007103477225698E-4</v>
+        <v>2.93026348970292E-4</v>
       </c>
       <c r="F2" s="8">
-        <v>1.18020264249732E-4</v>
+        <v>9.9212587927633903E-5</v>
       </c>
       <c r="G2" s="8">
-        <v>2.62284068317879E-5</v>
+        <v>1.15170236347298E-5</v>
       </c>
       <c r="H2" s="8">
-        <v>7.3528749218372406E-5</v>
+        <v>3.5957899469002198E-5</v>
       </c>
       <c r="I2" s="8">
-        <v>-1.02248353012786E-4</v>
+        <v>-3.3624695957226197E-5</v>
       </c>
       <c r="J2" s="8">
-        <v>-1.16399598403884E-4</v>
+        <v>-5.6980063456238399E-5</v>
       </c>
       <c r="K2" s="8">
-        <v>-9.4741592403615603E-5</v>
+        <v>-3.3140607190495601E-5</v>
       </c>
       <c r="L2" s="8">
-        <v>-5.4350626647645903E-5</v>
+        <v>-3.6026752548505101E-6</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.03792828150084E-5</v>
+        <v>-5.8135899523151103E-6</v>
       </c>
       <c r="N2" s="8">
-        <v>-2.63902686176086E-6</v>
+        <v>2.6292523201600701E-5</v>
       </c>
       <c r="O2" s="8">
-        <v>-9.9363622412932599E-5</v>
+        <v>-3.1916735306552297E-5</v>
       </c>
       <c r="P2" s="8">
-        <v>-5.9207400570414001E-5</v>
+        <v>-1.3920141205489E-5</v>
       </c>
       <c r="Q2" s="8">
-        <v>1.8828056144282501E-5</v>
+        <v>7.0784726374946501E-6</v>
       </c>
       <c r="R2" s="8">
-        <v>-1.1829564444302599E-4</v>
+        <v>-5.1913341417064199E-5</v>
       </c>
       <c r="S2" s="8">
-        <v>-3.8159597474569099E-5</v>
+        <v>9.0654499959562297E-7</v>
       </c>
       <c r="T2" s="8">
-        <v>-2.1242328967870799E-4</v>
+        <v>-1.7042693690025399E-4</v>
       </c>
       <c r="U2" s="8">
-        <v>-1.28929979797121E-4</v>
+        <v>-1.06933575513096E-4</v>
       </c>
       <c r="V2" s="8">
-        <v>1.1912362644709499E-5</v>
+        <v>1.91159661513898E-6</v>
       </c>
       <c r="W2" s="8">
-        <v>1.6869150462134699E-4</v>
+        <v>1.17173090250836E-4</v>
       </c>
       <c r="X2" s="8">
-        <v>3.5420281375932698E-4</v>
+        <v>2.5661305439669699E-4</v>
       </c>
       <c r="Y2" s="8">
-        <v>-3.2704333110136102E-4</v>
+        <v>-2.2776585886313499E-4</v>
       </c>
       <c r="Z2" s="8">
-        <v>2.5770534110842701E-5</v>
+        <v>1.7418917226673301E-5</v>
       </c>
       <c r="AA2" s="8">
-        <v>4.9960856219291698E-5</v>
+        <v>3.8277125207519503E-5</v>
       </c>
       <c r="AB2" s="8">
-        <v>-5.9271209308084304E-7</v>
+        <v>-4.4866372998640298E-7</v>
       </c>
       <c r="AC2" s="8">
-        <v>1.9537367433311E-7</v>
+        <v>-2.0624941559523401E-6</v>
       </c>
       <c r="AD2" s="8">
-        <v>-2.2478727004080199E-7</v>
+        <v>-9.5378344862199601E-8</v>
       </c>
       <c r="AE2" s="8">
-        <v>3.4765388771384202E-5</v>
+        <v>3.56806776970703E-5</v>
       </c>
       <c r="AF2" s="8">
-        <v>-2.4542698855680098E-3</v>
+        <v>-1.8331472171509999E-3</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -4968,97 +4969,97 @@
         <v>35</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.32651727558283</v>
+        <v>-0.32346937051376501</v>
       </c>
       <c r="C3" s="8">
-        <v>-2.2452002236969702E-5</v>
+        <v>-2.4394791244791601E-5</v>
       </c>
       <c r="D3" s="8">
-        <v>2.6465598070934898E-3</v>
+        <v>1.9635982758812302E-3</v>
       </c>
       <c r="E3" s="8">
-        <v>-2.56272857333913E-5</v>
+        <v>-6.0324293385774998E-5</v>
       </c>
       <c r="F3" s="8">
-        <v>3.0798305403642102E-4</v>
+        <v>2.1159106935589601E-4</v>
       </c>
       <c r="G3" s="8">
-        <v>1.41750967245019E-4</v>
+        <v>5.6513115539546002E-5</v>
       </c>
       <c r="H3" s="8">
-        <v>3.9896911344732E-4</v>
+        <v>2.4743138940388798E-4</v>
       </c>
       <c r="I3" s="8">
-        <v>-5.2016872557828495E-4</v>
+        <v>-3.20603147445324E-4</v>
       </c>
       <c r="J3" s="8">
-        <v>-7.1231702273110396E-4</v>
+        <v>-4.4830984460138702E-4</v>
       </c>
       <c r="K3" s="8">
-        <v>-4.14376837020491E-4</v>
+        <v>-2.2976425546571001E-4</v>
       </c>
       <c r="L3" s="8">
-        <v>-5.5623871038439098E-4</v>
+        <v>-3.5132083779069502E-4</v>
       </c>
       <c r="M3" s="8">
-        <v>-6.7266191752578502E-4</v>
+        <v>-4.6152293938123498E-4</v>
       </c>
       <c r="N3" s="8">
-        <v>-5.2397664131760004E-4</v>
+        <v>-3.5275221770223402E-4</v>
       </c>
       <c r="O3" s="8">
-        <v>-5.5506112148713397E-4</v>
+        <v>-3.5054121855327601E-4</v>
       </c>
       <c r="P3" s="8">
-        <v>-6.0942872218548499E-4</v>
+        <v>-3.9440505676415898E-4</v>
       </c>
       <c r="Q3" s="8">
-        <v>-8.0115066736729905E-4</v>
+        <v>-6.1019892780987499E-4</v>
       </c>
       <c r="R3" s="8">
-        <v>-6.6449482002627297E-4</v>
+        <v>-4.2531167881112899E-4</v>
       </c>
       <c r="S3" s="8">
-        <v>-8.4574341081580697E-4</v>
+        <v>-5.4483268097545504E-4</v>
       </c>
       <c r="T3" s="8">
-        <v>-2.44476234846575E-4</v>
+        <v>-1.5726936471822299E-4</v>
       </c>
       <c r="U3" s="8">
-        <v>2.5523831405678999E-5</v>
+        <v>-1.7628097143113999E-5</v>
       </c>
       <c r="V3" s="8">
-        <v>-2.6638431963693399E-4</v>
+        <v>-2.35190709147246E-4</v>
       </c>
       <c r="W3" s="8">
-        <v>-4.60062817506805E-4</v>
+        <v>-3.9707618216626098E-4</v>
       </c>
       <c r="X3" s="8">
-        <v>-5.7627961049298404E-4</v>
+        <v>-4.6418451004554001E-4</v>
       </c>
       <c r="Y3" s="8">
-        <v>8.5721246069600998E-4</v>
+        <v>6.2970740391318899E-4</v>
       </c>
       <c r="Z3" s="8">
-        <v>-2.4265473526926501E-5</v>
+        <v>-2.1762751755166099E-5</v>
       </c>
       <c r="AA3" s="8">
-        <v>-2.8996706449829501E-5</v>
+        <v>-2.26315833790098E-5</v>
       </c>
       <c r="AB3" s="8">
-        <v>1.4044594011223399E-7</v>
+        <v>1.12089594352502E-7</v>
       </c>
       <c r="AC3" s="8">
-        <v>2.8337035697823298E-5</v>
+        <v>1.7858610406278699E-5</v>
       </c>
       <c r="AD3" s="8">
-        <v>-7.3764160587729402E-6</v>
+        <v>-5.1376684707118898E-6</v>
       </c>
       <c r="AE3" s="8">
-        <v>2.4381918286106602E-5</v>
+        <v>3.2141074307096401E-5</v>
       </c>
       <c r="AF3" s="8">
-        <v>2.7313052606342701E-5</v>
+        <v>1.3314311295563701E-4</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -5066,97 +5067,97 @@
         <v>21</v>
       </c>
       <c r="B4" s="8">
-        <v>0.22590766188670799</v>
+        <v>0.17451599165659101</v>
       </c>
       <c r="C4" s="8">
-        <v>4.3007103477225698E-4</v>
+        <v>2.93026348970292E-4</v>
       </c>
       <c r="D4" s="8">
-        <v>-2.56272857333913E-5</v>
+        <v>-6.0324293385774998E-5</v>
       </c>
       <c r="E4" s="8">
-        <v>4.2488655663507199E-3</v>
+        <v>3.21459864438333E-3</v>
       </c>
       <c r="F4" s="8">
-        <v>3.3026037937025301E-4</v>
+        <v>2.6698399105957901E-4</v>
       </c>
       <c r="G4" s="8">
-        <v>-1.3915370431770199E-4</v>
+        <v>-1.10100194163848E-4</v>
       </c>
       <c r="H4" s="8">
-        <v>1.1683660262775099E-5</v>
+        <v>-1.1781781138685E-5</v>
       </c>
       <c r="I4" s="8">
-        <v>2.8994594986839802E-4</v>
+        <v>2.3294998669425401E-4</v>
       </c>
       <c r="J4" s="8">
-        <v>3.7760747091908001E-4</v>
+        <v>2.0684718294199599E-4</v>
       </c>
       <c r="K4" s="8">
-        <v>2.4763768093902E-4</v>
+        <v>2.3005346791499999E-4</v>
       </c>
       <c r="L4" s="8">
-        <v>4.3657464900601198E-4</v>
+        <v>3.11404916713212E-4</v>
       </c>
       <c r="M4" s="8">
-        <v>5.8783018712168101E-4</v>
+        <v>3.4570204999660303E-4</v>
       </c>
       <c r="N4" s="8">
-        <v>4.4859149736028699E-4</v>
+        <v>2.9448154059105697E-4</v>
       </c>
       <c r="O4" s="8">
-        <v>4.0677706934950599E-4</v>
+        <v>2.6739695011598902E-4</v>
       </c>
       <c r="P4" s="8">
-        <v>4.5665169764451001E-4</v>
+        <v>3.22114963046491E-4</v>
       </c>
       <c r="Q4" s="8">
-        <v>7.7475942359961001E-4</v>
+        <v>6.5435228250584204E-4</v>
       </c>
       <c r="R4" s="8">
-        <v>3.6196407345823E-4</v>
+        <v>1.8643456883649201E-4</v>
       </c>
       <c r="S4" s="8">
-        <v>2.89766996693161E-4</v>
+        <v>1.5896051790660899E-4</v>
       </c>
       <c r="T4" s="8">
-        <v>-2.0946537737323801E-4</v>
+        <v>-2.12827260295729E-4</v>
       </c>
       <c r="U4" s="8">
-        <v>1.9055926048402099E-4</v>
+        <v>1.3180405573850801E-4</v>
       </c>
       <c r="V4" s="8">
-        <v>3.2630455617718398E-4</v>
+        <v>2.8501890220112902E-4</v>
       </c>
       <c r="W4" s="8">
-        <v>4.2819227027188499E-4</v>
+        <v>3.6482712876218898E-4</v>
       </c>
       <c r="X4" s="8">
-        <v>4.2022039204532298E-4</v>
+        <v>3.4535045012430802E-4</v>
       </c>
       <c r="Y4" s="8">
-        <v>-1.89962332863713E-4</v>
+        <v>-2.0417905428785099E-4</v>
       </c>
       <c r="Z4" s="8">
-        <v>-9.91938982984867E-6</v>
+        <v>1.7149527807957399E-6</v>
       </c>
       <c r="AA4" s="8">
-        <v>2.1523857111346501E-4</v>
+        <v>1.68765660797707E-4</v>
       </c>
       <c r="AB4" s="8">
-        <v>-1.8168299274073099E-6</v>
+        <v>-1.42675270740487E-6</v>
       </c>
       <c r="AC4" s="8">
-        <v>-1.84771376259494E-5</v>
+        <v>-1.3072422088211801E-5</v>
       </c>
       <c r="AD4" s="8">
-        <v>-7.7207431865631299E-7</v>
+        <v>-5.4949633685124295E-7</v>
       </c>
       <c r="AE4" s="8">
-        <v>5.6212547344424101E-5</v>
+        <v>4.0434918179314501E-5</v>
       </c>
       <c r="AF4" s="8">
-        <v>-6.9135954020958096E-3</v>
+        <v>-5.4429747032758297E-3</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -5164,97 +5165,97 @@
         <v>22</v>
       </c>
       <c r="B5" s="8">
-        <v>0.19469523141464901</v>
+        <v>0.194320104787508</v>
       </c>
       <c r="C5" s="8">
-        <v>1.18020264249732E-4</v>
+        <v>9.9212587927633903E-5</v>
       </c>
       <c r="D5" s="8">
-        <v>3.0798305403642102E-4</v>
+        <v>2.1159106935589601E-4</v>
       </c>
       <c r="E5" s="8">
-        <v>3.3026037937025301E-4</v>
+        <v>2.6698399105957901E-4</v>
       </c>
       <c r="F5" s="8">
-        <v>2.9801614049548698E-3</v>
+        <v>2.4386117152754298E-3</v>
       </c>
       <c r="G5" s="8">
-        <v>-8.4580165128951698E-5</v>
+        <v>-5.1872043583856699E-5</v>
       </c>
       <c r="H5" s="8">
-        <v>-5.5944857527943103E-5</v>
+        <v>-2.6790636926445599E-5</v>
       </c>
       <c r="I5" s="8">
-        <v>1.9704315613348899E-4</v>
+        <v>1.4147586472680501E-4</v>
       </c>
       <c r="J5" s="8">
-        <v>-1.95094305549042E-4</v>
+        <v>-1.26285813992448E-4</v>
       </c>
       <c r="K5" s="8">
-        <v>-1.3353489737905601E-4</v>
+        <v>-5.5232721570482302E-5</v>
       </c>
       <c r="L5" s="8">
-        <v>-1.5390064258914599E-5</v>
+        <v>-1.07577635217511E-5</v>
       </c>
       <c r="M5" s="8">
-        <v>8.0183589488082006E-5</v>
+        <v>8.6543257663103203E-5</v>
       </c>
       <c r="N5" s="8">
-        <v>-4.6229899146876597E-5</v>
+        <v>2.2338614595099699E-5</v>
       </c>
       <c r="O5" s="8">
-        <v>-1.03273264004224E-4</v>
+        <v>-4.2191481593052299E-5</v>
       </c>
       <c r="P5" s="8">
-        <v>-9.8782636777001602E-5</v>
+        <v>-4.8724689555940298E-5</v>
       </c>
       <c r="Q5" s="8">
-        <v>1.9345962453120899E-4</v>
+        <v>1.5903834510351401E-4</v>
       </c>
       <c r="R5" s="8">
-        <v>-2.7882665247920199E-4</v>
+        <v>-1.48122627785236E-4</v>
       </c>
       <c r="S5" s="8">
-        <v>-2.7584955475909499E-4</v>
+        <v>-1.61917970891495E-4</v>
       </c>
       <c r="T5" s="8">
-        <v>-3.9731775296312199E-5</v>
+        <v>-2.7993404341663698E-5</v>
       </c>
       <c r="U5" s="8">
-        <v>5.81332560639315E-5</v>
+        <v>3.1765119593700298E-5</v>
       </c>
       <c r="V5" s="8">
-        <v>1.7026975078599099E-4</v>
+        <v>1.1021180503455699E-4</v>
       </c>
       <c r="W5" s="8">
-        <v>2.1032483690185401E-4</v>
+        <v>1.75757031507802E-4</v>
       </c>
       <c r="X5" s="8">
-        <v>2.7891371757865702E-4</v>
+        <v>2.32170272959106E-4</v>
       </c>
       <c r="Y5" s="8">
-        <v>-6.20921941204557E-5</v>
+        <v>-1.03556653835802E-4</v>
       </c>
       <c r="Z5" s="8">
-        <v>7.8306114194152597E-6</v>
+        <v>3.1585411834741901E-6</v>
       </c>
       <c r="AA5" s="8">
-        <v>2.8670363005618002E-5</v>
+        <v>2.2092207183286601E-5</v>
       </c>
       <c r="AB5" s="8">
-        <v>-4.47720382063782E-7</v>
+        <v>-3.50618630472197E-7</v>
       </c>
       <c r="AC5" s="8">
-        <v>-9.4755087277608297E-6</v>
+        <v>-9.7764234897121507E-6</v>
       </c>
       <c r="AD5" s="8">
-        <v>3.8557142933592896E-6</v>
+        <v>3.3160001429759501E-6</v>
       </c>
       <c r="AE5" s="8">
-        <v>2.2053885031994599E-4</v>
+        <v>1.58240065566467E-4</v>
       </c>
       <c r="AF5" s="8">
-        <v>-1.2890159632446599E-3</v>
+        <v>-9.6146032241205097E-4</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -5262,97 +5263,97 @@
         <v>19</v>
       </c>
       <c r="B6" s="8">
-        <v>2.5458165929038001E-2</v>
+        <v>4.6885140752195298E-2</v>
       </c>
       <c r="C6" s="8">
-        <v>2.62284068317879E-5</v>
+        <v>1.15170236347298E-5</v>
       </c>
       <c r="D6" s="8">
-        <v>1.41750967245019E-4</v>
+        <v>5.6513115539546002E-5</v>
       </c>
       <c r="E6" s="8">
-        <v>-1.3915370431770199E-4</v>
+        <v>-1.10100194163848E-4</v>
       </c>
       <c r="F6" s="8">
-        <v>-8.4580165128951698E-5</v>
+        <v>-5.1872043583856699E-5</v>
       </c>
       <c r="G6" s="8">
-        <v>1.84660986008461E-3</v>
+        <v>1.4954878314086301E-3</v>
       </c>
       <c r="H6" s="8">
-        <v>1.3273442897852501E-3</v>
+        <v>1.0901954247889E-3</v>
       </c>
       <c r="I6" s="8">
-        <v>-6.6207627846813499E-4</v>
+        <v>-5.1403577458328101E-4</v>
       </c>
       <c r="J6" s="8">
-        <v>-6.0221942485362903E-4</v>
+        <v>-4.5895451737053901E-4</v>
       </c>
       <c r="K6" s="8">
-        <v>-5.2754163679131398E-4</v>
+        <v>-3.8567926345713999E-4</v>
       </c>
       <c r="L6" s="8">
-        <v>-6.8903916357526695E-4</v>
+        <v>-5.2028759380593999E-4</v>
       </c>
       <c r="M6" s="8">
-        <v>-7.8366353885107301E-4</v>
+        <v>-5.6973404853032604E-4</v>
       </c>
       <c r="N6" s="8">
-        <v>-5.2772343135743102E-4</v>
+        <v>-4.2316898859286298E-4</v>
       </c>
       <c r="O6" s="8">
-        <v>-5.4675858160080002E-4</v>
+        <v>-4.2519474578210702E-4</v>
       </c>
       <c r="P6" s="8">
-        <v>-5.5763362677569101E-4</v>
+        <v>-4.5651480665931599E-4</v>
       </c>
       <c r="Q6" s="8">
-        <v>-5.3898399279217696E-4</v>
+        <v>-3.9053190811033298E-4</v>
       </c>
       <c r="R6" s="8">
-        <v>-4.1045282850515598E-4</v>
+        <v>-3.40608746747858E-4</v>
       </c>
       <c r="S6" s="8">
-        <v>-5.0834864668053198E-4</v>
+        <v>-3.8424220541903001E-4</v>
       </c>
       <c r="T6" s="8">
-        <v>-2.2342855962618501E-4</v>
+        <v>-1.90048164124522E-4</v>
       </c>
       <c r="U6" s="8">
-        <v>-1.04632177757973E-4</v>
+        <v>-8.0763238596518396E-5</v>
       </c>
       <c r="V6" s="8">
-        <v>-4.2819949118650899E-5</v>
+        <v>-3.1488974456466399E-5</v>
       </c>
       <c r="W6" s="8">
-        <v>1.26938335667565E-5</v>
+        <v>2.8661231781060401E-5</v>
       </c>
       <c r="X6" s="8">
-        <v>2.9569886621756702E-4</v>
+        <v>2.5053514890331402E-4</v>
       </c>
       <c r="Y6" s="8">
-        <v>-1.9854278345841201E-4</v>
+        <v>-1.3187972664026299E-4</v>
       </c>
       <c r="Z6" s="8">
-        <v>2.4286068127837401E-5</v>
+        <v>2.04754450575988E-5</v>
       </c>
       <c r="AA6" s="8">
-        <v>-1.311447909988E-5</v>
+        <v>-3.2191950471297599E-6</v>
       </c>
       <c r="AB6" s="8">
-        <v>7.7556325408841003E-8</v>
+        <v>-2.4461453760613501E-9</v>
       </c>
       <c r="AC6" s="8">
-        <v>3.2520195486707897E-5</v>
+        <v>2.1714595934536899E-5</v>
       </c>
       <c r="AD6" s="8">
-        <v>6.8154745404337501E-6</v>
+        <v>5.0993407326699696E-6</v>
       </c>
       <c r="AE6" s="8">
-        <v>-5.2204729394408401E-5</v>
+        <v>-3.59681661507263E-5</v>
       </c>
       <c r="AF6" s="8">
-        <v>-1.3619116532863601E-3</v>
+        <v>-1.2169697293377901E-3</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -5360,97 +5361,97 @@
         <v>20</v>
       </c>
       <c r="B7" s="8">
-        <v>2.7384835178281702E-2</v>
+        <v>7.0931200431388702E-2</v>
       </c>
       <c r="C7" s="8">
-        <v>7.3528749218372406E-5</v>
+        <v>3.5957899469002198E-5</v>
       </c>
       <c r="D7" s="8">
-        <v>3.9896911344732E-4</v>
+        <v>2.4743138940388798E-4</v>
       </c>
       <c r="E7" s="8">
-        <v>1.1683660262775099E-5</v>
+        <v>-1.1781781138685E-5</v>
       </c>
       <c r="F7" s="8">
-        <v>-5.5944857527943103E-5</v>
+        <v>-2.6790636926445599E-5</v>
       </c>
       <c r="G7" s="8">
-        <v>1.3273442897852501E-3</v>
+        <v>1.0901954247889E-3</v>
       </c>
       <c r="H7" s="8">
-        <v>3.6063625311437701E-3</v>
+        <v>2.8726830479096901E-3</v>
       </c>
       <c r="I7" s="8">
-        <v>-6.6509592731976296E-4</v>
+        <v>-5.74949288102367E-4</v>
       </c>
       <c r="J7" s="8">
-        <v>-3.7353833085214302E-4</v>
+        <v>-3.70604266139672E-4</v>
       </c>
       <c r="K7" s="8">
-        <v>-3.8067009212457397E-4</v>
+        <v>-3.33217203581994E-4</v>
       </c>
       <c r="L7" s="8">
-        <v>-4.8632167939121002E-4</v>
+        <v>-4.6890013442667E-4</v>
       </c>
       <c r="M7" s="8">
-        <v>-6.8660318474704398E-4</v>
+        <v>-5.8122075101469902E-4</v>
       </c>
       <c r="N7" s="8">
-        <v>-4.86744667460091E-4</v>
+        <v>-4.4318131596151499E-4</v>
       </c>
       <c r="O7" s="8">
-        <v>-3.8040131403236602E-4</v>
+        <v>-3.4991666551239397E-4</v>
       </c>
       <c r="P7" s="8">
-        <v>-3.1228086118793603E-4</v>
+        <v>-3.4582868039585799E-4</v>
       </c>
       <c r="Q7" s="8">
-        <v>-4.3244966480001702E-4</v>
+        <v>-4.19041373455933E-4</v>
       </c>
       <c r="R7" s="8">
-        <v>-1.5628089169628399E-4</v>
+        <v>-1.8354713762818101E-4</v>
       </c>
       <c r="S7" s="8">
-        <v>-7.3661028076579197E-4</v>
+        <v>-6.1258261392858502E-4</v>
       </c>
       <c r="T7" s="8">
-        <v>-1.3655058035892299E-4</v>
+        <v>-1.2664173552619299E-4</v>
       </c>
       <c r="U7" s="8">
-        <v>-3.9061091234269703E-5</v>
+        <v>-1.3357685690987399E-5</v>
       </c>
       <c r="V7" s="8">
-        <v>1.36876311242743E-4</v>
+        <v>1.4670503203129001E-4</v>
       </c>
       <c r="W7" s="8">
-        <v>2.8534020577091802E-4</v>
+        <v>3.0335887083627803E-4</v>
       </c>
       <c r="X7" s="8">
-        <v>6.5824210999291003E-4</v>
+        <v>5.6827631859252003E-4</v>
       </c>
       <c r="Y7" s="8">
-        <v>-1.26608064496211E-4</v>
+        <v>-9.2684217219427404E-5</v>
       </c>
       <c r="Z7" s="8">
-        <v>5.4445328476127101E-5</v>
+        <v>4.91463903769168E-5</v>
       </c>
       <c r="AA7" s="8">
-        <v>2.2964596690976501E-5</v>
+        <v>1.36824618717904E-5</v>
       </c>
       <c r="AB7" s="8">
-        <v>-4.59798533174453E-7</v>
+        <v>-3.2391900034712001E-7</v>
       </c>
       <c r="AC7" s="8">
-        <v>2.7340167579836E-5</v>
+        <v>1.5800251116395101E-5</v>
       </c>
       <c r="AD7" s="8">
-        <v>8.6260049450565798E-6</v>
+        <v>7.1121667669341403E-6</v>
       </c>
       <c r="AE7" s="8">
-        <v>8.1975869074248398E-5</v>
+        <v>1.9493443158649301E-5</v>
       </c>
       <c r="AF7" s="8">
-        <v>-2.9328679580843601E-3</v>
+        <v>-2.16736343368281E-3</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -5458,97 +5459,97 @@
         <v>23</v>
       </c>
       <c r="B8" s="8">
-        <v>5.8772725881794897E-3</v>
+        <v>-1.3656295529287399E-2</v>
       </c>
       <c r="C8" s="8">
-        <v>-1.02248353012786E-4</v>
+        <v>-3.3624695957226197E-5</v>
       </c>
       <c r="D8" s="8">
-        <v>-5.2016872557828495E-4</v>
+        <v>-3.20603147445324E-4</v>
       </c>
       <c r="E8" s="8">
-        <v>2.8994594986839802E-4</v>
+        <v>2.3294998669425401E-4</v>
       </c>
       <c r="F8" s="8">
-        <v>1.9704315613348899E-4</v>
+        <v>1.4147586472680501E-4</v>
       </c>
       <c r="G8" s="8">
-        <v>-6.6207627846813499E-4</v>
+        <v>-5.1403577458328101E-4</v>
       </c>
       <c r="H8" s="8">
-        <v>-6.6509592731976296E-4</v>
+        <v>-5.74949288102367E-4</v>
       </c>
       <c r="I8" s="8">
-        <v>1.2910651726133799E-2</v>
+        <v>1.00676309778432E-2</v>
       </c>
       <c r="J8" s="8">
-        <v>4.91706013151852E-3</v>
+        <v>3.6743190023038599E-3</v>
       </c>
       <c r="K8" s="8">
-        <v>4.8906783378952802E-3</v>
+        <v>3.6653930960894999E-3</v>
       </c>
       <c r="L8" s="8">
-        <v>4.9296372906032998E-3</v>
+        <v>3.6962821497148199E-3</v>
       </c>
       <c r="M8" s="8">
-        <v>4.9603592623371599E-3</v>
+        <v>3.7101042049958901E-3</v>
       </c>
       <c r="N8" s="8">
-        <v>4.8257283805805398E-3</v>
+        <v>3.6277547096365201E-3</v>
       </c>
       <c r="O8" s="8">
-        <v>4.8206825441132802E-3</v>
+        <v>3.61994904942705E-3</v>
       </c>
       <c r="P8" s="8">
-        <v>4.8964733226890596E-3</v>
+        <v>3.6836307067628399E-3</v>
       </c>
       <c r="Q8" s="8">
-        <v>4.9517664405205998E-3</v>
+        <v>3.7382734277256399E-3</v>
       </c>
       <c r="R8" s="8">
-        <v>4.8654779778767301E-3</v>
+        <v>3.6405002404529302E-3</v>
       </c>
       <c r="S8" s="8">
-        <v>4.96790978681477E-3</v>
+        <v>3.70394096792992E-3</v>
       </c>
       <c r="T8" s="8">
-        <v>1.17868670194528E-4</v>
+        <v>7.0466721665522601E-5</v>
       </c>
       <c r="U8" s="8">
-        <v>-2.2691896974959399E-4</v>
+        <v>-1.65054953361904E-4</v>
       </c>
       <c r="V8" s="8">
-        <v>1.0507616215266E-4</v>
+        <v>-7.9536277947409296E-6</v>
       </c>
       <c r="W8" s="8">
-        <v>5.6208338789648999E-5</v>
+        <v>-6.18982082022266E-5</v>
       </c>
       <c r="X8" s="8">
-        <v>2.9904107335018302E-4</v>
+        <v>1.5629925725029999E-4</v>
       </c>
       <c r="Y8" s="8">
-        <v>-6.9781884904758496E-4</v>
+        <v>-5.4451905858729597E-4</v>
       </c>
       <c r="Z8" s="8">
-        <v>-3.7919712922618801E-5</v>
+        <v>-3.3986104429208902E-5</v>
       </c>
       <c r="AA8" s="8">
-        <v>1.5377625981489099E-5</v>
+        <v>7.1549796684478098E-6</v>
       </c>
       <c r="AB8" s="8">
-        <v>-1.3942838193155E-7</v>
+        <v>-6.9358125359632595E-8</v>
       </c>
       <c r="AC8" s="8">
-        <v>5.5429808852070404E-6</v>
+        <v>6.6583969087507302E-6</v>
       </c>
       <c r="AD8" s="8">
-        <v>-6.2674598652166803E-7</v>
+        <v>1.15372813028391E-6</v>
       </c>
       <c r="AE8" s="8">
-        <v>1.29370215620344E-4</v>
+        <v>9.4318092781603798E-5</v>
       </c>
       <c r="AF8" s="8">
-        <v>-3.9674796296594204E-3</v>
+        <v>-2.9119904647221199E-3</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -5556,97 +5557,97 @@
         <v>24</v>
       </c>
       <c r="B9" s="8">
-        <v>-7.1333019055259697E-2</v>
+        <v>-9.1136194334055204E-2</v>
       </c>
       <c r="C9" s="8">
-        <v>-1.16399598403884E-4</v>
+        <v>-5.6980063456238399E-5</v>
       </c>
       <c r="D9" s="8">
-        <v>-7.1231702273110396E-4</v>
+        <v>-4.4830984460138702E-4</v>
       </c>
       <c r="E9" s="8">
-        <v>3.7760747091908001E-4</v>
+        <v>2.0684718294199599E-4</v>
       </c>
       <c r="F9" s="8">
-        <v>-1.95094305549042E-4</v>
+        <v>-1.26285813992448E-4</v>
       </c>
       <c r="G9" s="8">
-        <v>-6.0221942485362903E-4</v>
+        <v>-4.5895451737053901E-4</v>
       </c>
       <c r="H9" s="8">
-        <v>-3.7353833085214302E-4</v>
+        <v>-3.70604266139672E-4</v>
       </c>
       <c r="I9" s="8">
-        <v>4.91706013151852E-3</v>
+        <v>3.6743190023038599E-3</v>
       </c>
       <c r="J9" s="8">
-        <v>7.7503179272565099E-3</v>
+        <v>5.8380388692748199E-3</v>
       </c>
       <c r="K9" s="8">
-        <v>4.8689232574635902E-3</v>
+        <v>3.6286156919623099E-3</v>
       </c>
       <c r="L9" s="8">
-        <v>4.9528222594198501E-3</v>
+        <v>3.6939218645868199E-3</v>
       </c>
       <c r="M9" s="8">
-        <v>4.9521212570981998E-3</v>
+        <v>3.6827497016285698E-3</v>
       </c>
       <c r="N9" s="8">
-        <v>4.79494238950954E-3</v>
+        <v>3.5904634475434302E-3</v>
       </c>
       <c r="O9" s="8">
-        <v>4.8196695716159798E-3</v>
+        <v>3.60305834835293E-3</v>
       </c>
       <c r="P9" s="8">
-        <v>4.88484648727322E-3</v>
+        <v>3.65240242553975E-3</v>
       </c>
       <c r="Q9" s="8">
-        <v>4.9464809206393803E-3</v>
+        <v>3.7008193299294099E-3</v>
       </c>
       <c r="R9" s="8">
-        <v>4.8760135961763897E-3</v>
+        <v>3.63079531134627E-3</v>
       </c>
       <c r="S9" s="8">
-        <v>4.9552445051715696E-3</v>
+        <v>3.6831324902577402E-3</v>
       </c>
       <c r="T9" s="8">
-        <v>3.4138618187333399E-4</v>
+        <v>2.9058430210802402E-4</v>
       </c>
       <c r="U9" s="8">
-        <v>2.7338272605515599E-5</v>
+        <v>-5.4928564757134402E-5</v>
       </c>
       <c r="V9" s="8">
-        <v>1.8501383716637001E-4</v>
+        <v>-2.8397989314200902E-6</v>
       </c>
       <c r="W9" s="8">
-        <v>1.2949505733784501E-4</v>
+        <v>-7.4528524240565999E-5</v>
       </c>
       <c r="X9" s="8">
-        <v>3.9706571421062602E-4</v>
+        <v>1.72442626212721E-4</v>
       </c>
       <c r="Y9" s="8">
-        <v>-7.1183901819658901E-4</v>
+        <v>-5.2613947803580301E-4</v>
       </c>
       <c r="Z9" s="8">
-        <v>-3.3634668775093298E-5</v>
+        <v>-2.9128536744634601E-5</v>
       </c>
       <c r="AA9" s="8">
-        <v>4.4795847847080399E-5</v>
+        <v>2.4342448627462001E-5</v>
       </c>
       <c r="AB9" s="8">
-        <v>-3.5386117864702402E-7</v>
+        <v>-1.83799025828355E-7</v>
       </c>
       <c r="AC9" s="8">
-        <v>-3.9788094929477201E-5</v>
+        <v>-2.1884028565649699E-5</v>
       </c>
       <c r="AD9" s="8">
-        <v>-2.47507421196567E-6</v>
+        <v>-9.6443425739680201E-7</v>
       </c>
       <c r="AE9" s="8">
-        <v>1.5554310311606301E-4</v>
+        <v>1.2351654348261799E-4</v>
       </c>
       <c r="AF9" s="8">
-        <v>-4.3283767875363704E-3</v>
+        <v>-3.0405545572973602E-3</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -5654,97 +5655,97 @@
         <v>25</v>
       </c>
       <c r="B10" s="8">
-        <v>-7.2435709640927798E-2</v>
+        <v>-2.7195450519272399E-2</v>
       </c>
       <c r="C10" s="8">
-        <v>-9.4741592403615603E-5</v>
+        <v>-3.3140607190495601E-5</v>
       </c>
       <c r="D10" s="8">
-        <v>-4.14376837020491E-4</v>
+        <v>-2.2976425546571001E-4</v>
       </c>
       <c r="E10" s="8">
-        <v>2.4763768093902E-4</v>
+        <v>2.3005346791499999E-4</v>
       </c>
       <c r="F10" s="8">
-        <v>-1.3353489737905601E-4</v>
+        <v>-5.5232721570482302E-5</v>
       </c>
       <c r="G10" s="8">
-        <v>-5.2754163679131398E-4</v>
+        <v>-3.8567926345713999E-4</v>
       </c>
       <c r="H10" s="8">
-        <v>-3.8067009212457397E-4</v>
+        <v>-3.33217203581994E-4</v>
       </c>
       <c r="I10" s="8">
-        <v>4.8906783378952802E-3</v>
+        <v>3.6653930960894999E-3</v>
       </c>
       <c r="J10" s="8">
-        <v>4.8689232574635902E-3</v>
+        <v>3.6286156919623099E-3</v>
       </c>
       <c r="K10" s="8">
-        <v>9.4965814870183792E-3</v>
+        <v>7.4416296907672801E-3</v>
       </c>
       <c r="L10" s="8">
-        <v>4.8692863814200201E-3</v>
+        <v>3.6377904707281801E-3</v>
       </c>
       <c r="M10" s="8">
-        <v>4.9250721041269301E-3</v>
+        <v>3.6716040119959799E-3</v>
       </c>
       <c r="N10" s="8">
-        <v>4.7747477954769302E-3</v>
+        <v>3.5812704645644799E-3</v>
       </c>
       <c r="O10" s="8">
-        <v>4.7688604152968904E-3</v>
+        <v>3.5780813461661599E-3</v>
       </c>
       <c r="P10" s="8">
-        <v>4.8522711076298001E-3</v>
+        <v>3.6326078509153399E-3</v>
       </c>
       <c r="Q10" s="8">
-        <v>4.9126725095242404E-3</v>
+        <v>3.6874740485083198E-3</v>
       </c>
       <c r="R10" s="8">
-        <v>4.8126308213113402E-3</v>
+        <v>3.5982278200898201E-3</v>
       </c>
       <c r="S10" s="8">
-        <v>4.9005215393465203E-3</v>
+        <v>3.6359723438137499E-3</v>
       </c>
       <c r="T10" s="8">
-        <v>3.5505137347886502E-4</v>
+        <v>2.55104704934409E-4</v>
       </c>
       <c r="U10" s="8">
-        <v>1.6498087515698601E-4</v>
+        <v>2.29935550132205E-5</v>
       </c>
       <c r="V10" s="8">
-        <v>3.6659091143644501E-4</v>
+        <v>1.22323228258313E-4</v>
       </c>
       <c r="W10" s="8">
-        <v>3.5743499612857601E-4</v>
+        <v>5.59177051410507E-5</v>
       </c>
       <c r="X10" s="8">
-        <v>5.8856010160817903E-4</v>
+        <v>3.1058008517539801E-4</v>
       </c>
       <c r="Y10" s="8">
-        <v>5.9577792176717097E-4</v>
+        <v>4.7062589410381498E-4</v>
       </c>
       <c r="Z10" s="8">
-        <v>-2.1321257993841702E-5</v>
+        <v>-2.38231760912954E-5</v>
       </c>
       <c r="AA10" s="8">
-        <v>1.0765165245551999E-5</v>
+        <v>8.7678985060418204E-6</v>
       </c>
       <c r="AB10" s="8">
-        <v>-3.3441185155948299E-8</v>
+        <v>-4.4605772097792299E-8</v>
       </c>
       <c r="AC10" s="8">
-        <v>4.7111321309611003E-6</v>
+        <v>4.6831607499127103E-6</v>
       </c>
       <c r="AD10" s="8">
-        <v>5.7162517755333003E-6</v>
+        <v>5.3646374898221998E-6</v>
       </c>
       <c r="AE10" s="8">
-        <v>1.04825224356768E-4</v>
+        <v>8.7184867609805801E-5</v>
       </c>
       <c r="AF10" s="8">
-        <v>-4.99602939742893E-3</v>
+        <v>-3.6637257779822902E-3</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -5752,97 +5753,97 @@
         <v>26</v>
       </c>
       <c r="B11" s="8">
-        <v>-8.0818617381666499E-2</v>
+        <v>-6.8579749080015504E-2</v>
       </c>
       <c r="C11" s="8">
-        <v>-5.4350626647645903E-5</v>
+        <v>-3.6026752548505101E-6</v>
       </c>
       <c r="D11" s="8">
-        <v>-5.5623871038439098E-4</v>
+        <v>-3.5132083779069502E-4</v>
       </c>
       <c r="E11" s="8">
-        <v>4.3657464900601198E-4</v>
+        <v>3.11404916713212E-4</v>
       </c>
       <c r="F11" s="8">
-        <v>-1.5390064258914599E-5</v>
+        <v>-1.07577635217511E-5</v>
       </c>
       <c r="G11" s="8">
-        <v>-6.8903916357526695E-4</v>
+        <v>-5.2028759380593999E-4</v>
       </c>
       <c r="H11" s="8">
-        <v>-4.8632167939121002E-4</v>
+        <v>-4.6890013442667E-4</v>
       </c>
       <c r="I11" s="8">
-        <v>4.9296372906032998E-3</v>
+        <v>3.6962821497148199E-3</v>
       </c>
       <c r="J11" s="8">
-        <v>4.9528222594198501E-3</v>
+        <v>3.6939218645868199E-3</v>
       </c>
       <c r="K11" s="8">
-        <v>4.8692863814200201E-3</v>
+        <v>3.6377904707281801E-3</v>
       </c>
       <c r="L11" s="8">
-        <v>8.2123164394421692E-3</v>
+        <v>6.2770916000853601E-3</v>
       </c>
       <c r="M11" s="8">
-        <v>4.9858636697659399E-3</v>
+        <v>3.71778270032705E-3</v>
       </c>
       <c r="N11" s="8">
-        <v>4.8209972387188802E-3</v>
+        <v>3.6232981218722099E-3</v>
       </c>
       <c r="O11" s="8">
-        <v>4.8183697414616502E-3</v>
+        <v>3.6179067364955999E-3</v>
       </c>
       <c r="P11" s="8">
-        <v>4.8789759550997196E-3</v>
+        <v>3.6606082614984801E-3</v>
       </c>
       <c r="Q11" s="8">
-        <v>4.98391431123565E-3</v>
+        <v>3.7404923805526599E-3</v>
       </c>
       <c r="R11" s="8">
-        <v>4.8758920271050801E-3</v>
+        <v>3.6428763452834301E-3</v>
       </c>
       <c r="S11" s="8">
-        <v>4.9459501357654702E-3</v>
+        <v>3.6828162446926999E-3</v>
       </c>
       <c r="T11" s="8">
-        <v>3.8451413468715799E-4</v>
+        <v>3.0105057974443901E-4</v>
       </c>
       <c r="U11" s="8">
-        <v>2.0280631048449199E-4</v>
+        <v>8.8777000104614905E-5</v>
       </c>
       <c r="V11" s="8">
-        <v>3.0899507230058799E-4</v>
+        <v>1.16377708589877E-4</v>
       </c>
       <c r="W11" s="8">
-        <v>3.7660345054941401E-4</v>
+        <v>1.03539477613254E-4</v>
       </c>
       <c r="X11" s="8">
-        <v>5.75733059709002E-4</v>
+        <v>3.1316394322403299E-4</v>
       </c>
       <c r="Y11" s="8">
-        <v>2.0118762423022301E-4</v>
+        <v>1.20153026031496E-4</v>
       </c>
       <c r="Z11" s="8">
-        <v>-4.7861067581385998E-5</v>
+        <v>-4.1123282692583602E-5</v>
       </c>
       <c r="AA11" s="8">
-        <v>4.6770773274575097E-5</v>
+        <v>3.0784171367229803E-5</v>
       </c>
       <c r="AB11" s="8">
-        <v>-3.5225352668302998E-7</v>
+        <v>-2.32806765575063E-7</v>
       </c>
       <c r="AC11" s="8">
-        <v>-2.2271571190318501E-5</v>
+        <v>-1.61945059632531E-5</v>
       </c>
       <c r="AD11" s="8">
-        <v>-1.78348677322715E-6</v>
+        <v>-9.71923573944943E-7</v>
       </c>
       <c r="AE11" s="8">
-        <v>1.1226244316264E-4</v>
+        <v>1.08484040202177E-4</v>
       </c>
       <c r="AF11" s="8">
-        <v>-4.7173784418936696E-3</v>
+        <v>-3.34205043482237E-3</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -5850,97 +5851,97 @@
         <v>27</v>
       </c>
       <c r="B12" s="8">
-        <v>-2.66247102759536E-2</v>
+        <v>-7.9522681696701597E-2</v>
       </c>
       <c r="C12" s="8">
-        <v>-1.03792828150084E-5</v>
+        <v>-5.8135899523151103E-6</v>
       </c>
       <c r="D12" s="8">
-        <v>-6.7266191752578502E-4</v>
+        <v>-4.6152293938123498E-4</v>
       </c>
       <c r="E12" s="8">
-        <v>5.8783018712168101E-4</v>
+        <v>3.4570204999660303E-4</v>
       </c>
       <c r="F12" s="8">
-        <v>8.0183589488082006E-5</v>
+        <v>8.6543257663103203E-5</v>
       </c>
       <c r="G12" s="8">
-        <v>-7.8366353885107301E-4</v>
+        <v>-5.6973404853032604E-4</v>
       </c>
       <c r="H12" s="8">
-        <v>-6.8660318474704398E-4</v>
+        <v>-5.8122075101469902E-4</v>
       </c>
       <c r="I12" s="8">
-        <v>4.9603592623371599E-3</v>
+        <v>3.7101042049958901E-3</v>
       </c>
       <c r="J12" s="8">
-        <v>4.9521212570981998E-3</v>
+        <v>3.6827497016285698E-3</v>
       </c>
       <c r="K12" s="8">
-        <v>4.9250721041269301E-3</v>
+        <v>3.6716040119959799E-3</v>
       </c>
       <c r="L12" s="8">
-        <v>4.9858636697659399E-3</v>
+        <v>3.71778270032705E-3</v>
       </c>
       <c r="M12" s="8">
-        <v>9.1036519149018998E-3</v>
+        <v>6.8234212157236704E-3</v>
       </c>
       <c r="N12" s="8">
-        <v>4.83434460918816E-3</v>
+        <v>3.6178440583387698E-3</v>
       </c>
       <c r="O12" s="8">
-        <v>4.8394603686540598E-3</v>
+        <v>3.6136572669628799E-3</v>
       </c>
       <c r="P12" s="8">
-        <v>4.9132203769173101E-3</v>
+        <v>3.6832035897003401E-3</v>
       </c>
       <c r="Q12" s="8">
-        <v>4.9911997553037197E-3</v>
+        <v>3.74656928382823E-3</v>
       </c>
       <c r="R12" s="8">
-        <v>4.8856486455708496E-3</v>
+        <v>3.6373330072810299E-3</v>
       </c>
       <c r="S12" s="8">
-        <v>4.9740611510567098E-3</v>
+        <v>3.7049814789480301E-3</v>
       </c>
       <c r="T12" s="8">
-        <v>2.0297003995654899E-4</v>
+        <v>1.8924768415587301E-4</v>
       </c>
       <c r="U12" s="8">
-        <v>2.0847982173390699E-4</v>
+        <v>8.8665725766867197E-5</v>
       </c>
       <c r="V12" s="8">
-        <v>2.4800018501134501E-4</v>
+        <v>1.10730279763057E-4</v>
       </c>
       <c r="W12" s="8">
-        <v>4.20850471503258E-4</v>
+        <v>1.89091830047346E-4</v>
       </c>
       <c r="X12" s="8">
-        <v>4.9671034228580704E-4</v>
+        <v>3.18350819095063E-4</v>
       </c>
       <c r="Y12" s="8">
-        <v>-1.4670553689512399E-4</v>
+        <v>-6.7841435865638493E-5</v>
       </c>
       <c r="Z12" s="8">
-        <v>-2.70066441647624E-5</v>
+        <v>-2.7568287042084499E-5</v>
       </c>
       <c r="AA12" s="8">
-        <v>4.2996462274552398E-5</v>
+        <v>2.04241287357682E-5</v>
       </c>
       <c r="AB12" s="8">
-        <v>-3.2330155275160702E-7</v>
+        <v>-1.3118006608978299E-7</v>
       </c>
       <c r="AC12" s="8">
-        <v>-4.1565924680129503E-5</v>
+        <v>-2.7274544463754799E-5</v>
       </c>
       <c r="AD12" s="8">
-        <v>-2.6753411503209099E-6</v>
+        <v>-1.3377557896753101E-6</v>
       </c>
       <c r="AE12" s="8">
-        <v>2.10789727162438E-4</v>
+        <v>1.5480723694247199E-4</v>
       </c>
       <c r="AF12" s="8">
-        <v>-4.5881572585573698E-3</v>
+        <v>-3.0863304901270999E-3</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -5948,97 +5949,97 @@
         <v>28</v>
       </c>
       <c r="B13" s="8">
-        <v>-0.166602765271605</v>
+        <v>-0.17183044444259099</v>
       </c>
       <c r="C13" s="8">
-        <v>-2.63902686176086E-6</v>
+        <v>2.6292523201600701E-5</v>
       </c>
       <c r="D13" s="8">
-        <v>-5.2397664131760004E-4</v>
+        <v>-3.5275221770223402E-4</v>
       </c>
       <c r="E13" s="8">
-        <v>4.4859149736028699E-4</v>
+        <v>2.9448154059105697E-4</v>
       </c>
       <c r="F13" s="8">
-        <v>-4.6229899146876597E-5</v>
+        <v>2.2338614595099699E-5</v>
       </c>
       <c r="G13" s="8">
-        <v>-5.2772343135743102E-4</v>
+        <v>-4.2316898859286298E-4</v>
       </c>
       <c r="H13" s="8">
-        <v>-4.86744667460091E-4</v>
+        <v>-4.4318131596151499E-4</v>
       </c>
       <c r="I13" s="8">
-        <v>4.8257283805805398E-3</v>
+        <v>3.6277547096365201E-3</v>
       </c>
       <c r="J13" s="8">
-        <v>4.79494238950954E-3</v>
+        <v>3.5904634475434302E-3</v>
       </c>
       <c r="K13" s="8">
-        <v>4.7747477954769302E-3</v>
+        <v>3.5812704645644799E-3</v>
       </c>
       <c r="L13" s="8">
-        <v>4.8209972387188802E-3</v>
+        <v>3.6232981218722099E-3</v>
       </c>
       <c r="M13" s="8">
-        <v>4.83434460918816E-3</v>
+        <v>3.6178440583387698E-3</v>
       </c>
       <c r="N13" s="8">
-        <v>7.3173195766588197E-3</v>
+        <v>5.6839601067302003E-3</v>
       </c>
       <c r="O13" s="8">
-        <v>4.7023703525678898E-3</v>
+        <v>3.5366661971086102E-3</v>
       </c>
       <c r="P13" s="8">
-        <v>4.7660081423213903E-3</v>
+        <v>3.59051165682347E-3</v>
       </c>
       <c r="Q13" s="8">
-        <v>4.84705378381242E-3</v>
+        <v>3.6510796493132002E-3</v>
       </c>
       <c r="R13" s="8">
-        <v>4.7731495059121403E-3</v>
+        <v>3.5689831956946098E-3</v>
       </c>
       <c r="S13" s="8">
-        <v>4.79905604747411E-3</v>
+        <v>3.5864061330973798E-3</v>
       </c>
       <c r="T13" s="8">
-        <v>2.6033600430292001E-4</v>
+        <v>2.1059693020532199E-4</v>
       </c>
       <c r="U13" s="8">
-        <v>1.4253407316368899E-4</v>
+        <v>7.0933444677157204E-5</v>
       </c>
       <c r="V13" s="8">
-        <v>2.63078706415239E-4</v>
+        <v>1.15104077849468E-4</v>
       </c>
       <c r="W13" s="8">
-        <v>2.1263757006878301E-4</v>
+        <v>7.7272223311095799E-6</v>
       </c>
       <c r="X13" s="8">
-        <v>4.0674443862732398E-4</v>
+        <v>2.0951522786930599E-4</v>
       </c>
       <c r="Y13" s="8">
-        <v>-2.1564599842028901E-5</v>
+        <v>-2.03739851255387E-5</v>
       </c>
       <c r="Z13" s="8">
-        <v>-3.9139181867130601E-5</v>
+        <v>-3.5213531937796298E-5</v>
       </c>
       <c r="AA13" s="8">
-        <v>4.8440801622610499E-5</v>
+        <v>3.1758192246236301E-5</v>
       </c>
       <c r="AB13" s="8">
-        <v>-4.1475301244220901E-7</v>
+        <v>-2.7943379093036902E-7</v>
       </c>
       <c r="AC13" s="8">
-        <v>-3.80510178376622E-5</v>
+        <v>-2.5921318177962599E-5</v>
       </c>
       <c r="AD13" s="8">
-        <v>-3.6009848806514798E-6</v>
+        <v>-1.7770997084841599E-6</v>
       </c>
       <c r="AE13" s="8">
-        <v>1.7958724863632199E-4</v>
+        <v>1.6026663310050399E-4</v>
       </c>
       <c r="AF13" s="8">
-        <v>-4.4290039680673597E-3</v>
+        <v>-3.1617315106646999E-3</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
@@ -6046,97 +6047,97 @@
         <v>29</v>
       </c>
       <c r="B14" s="8">
-        <v>-3.1215381840240801E-2</v>
+        <v>-5.6914780949895799E-2</v>
       </c>
       <c r="C14" s="8">
-        <v>-9.9363622412932599E-5</v>
+        <v>-3.1916735306552297E-5</v>
       </c>
       <c r="D14" s="8">
-        <v>-5.5506112148713397E-4</v>
+        <v>-3.5054121855327601E-4</v>
       </c>
       <c r="E14" s="8">
-        <v>4.0677706934950599E-4</v>
+        <v>2.6739695011598902E-4</v>
       </c>
       <c r="F14" s="8">
-        <v>-1.03273264004224E-4</v>
+        <v>-4.2191481593052299E-5</v>
       </c>
       <c r="G14" s="8">
-        <v>-5.4675858160080002E-4</v>
+        <v>-4.2519474578210702E-4</v>
       </c>
       <c r="H14" s="8">
-        <v>-3.8040131403236602E-4</v>
+        <v>-3.4991666551239397E-4</v>
       </c>
       <c r="I14" s="8">
-        <v>4.8206825441132802E-3</v>
+        <v>3.61994904942705E-3</v>
       </c>
       <c r="J14" s="8">
-        <v>4.8196695716159798E-3</v>
+        <v>3.60305834835293E-3</v>
       </c>
       <c r="K14" s="8">
-        <v>4.7688604152968904E-3</v>
+        <v>3.5780813461661599E-3</v>
       </c>
       <c r="L14" s="8">
-        <v>4.8183697414616502E-3</v>
+        <v>3.6179067364955999E-3</v>
       </c>
       <c r="M14" s="8">
-        <v>4.8394603686540598E-3</v>
+        <v>3.6136572669628799E-3</v>
       </c>
       <c r="N14" s="8">
-        <v>4.7023703525678898E-3</v>
+        <v>3.5366661971086102E-3</v>
       </c>
       <c r="O14" s="8">
-        <v>6.6424127929376603E-3</v>
+        <v>5.0174294117191504E-3</v>
       </c>
       <c r="P14" s="8">
-        <v>4.7928266171683798E-3</v>
+        <v>3.60481533575897E-3</v>
       </c>
       <c r="Q14" s="8">
-        <v>4.8637301008116803E-3</v>
+        <v>3.6613046382376799E-3</v>
       </c>
       <c r="R14" s="8">
-        <v>4.8124893733067402E-3</v>
+        <v>3.59903551776231E-3</v>
       </c>
       <c r="S14" s="8">
-        <v>4.7986633996432004E-3</v>
+        <v>3.5890105926193799E-3</v>
       </c>
       <c r="T14" s="8">
-        <v>2.4720089118391198E-4</v>
+        <v>2.12500321994609E-4</v>
       </c>
       <c r="U14" s="8">
-        <v>1.5300644969461099E-4</v>
+        <v>6.5047175705935901E-5</v>
       </c>
       <c r="V14" s="8">
-        <v>1.75726002946763E-4</v>
+        <v>2.8991814827594199E-5</v>
       </c>
       <c r="W14" s="8">
-        <v>1.44102312895738E-4</v>
+        <v>-3.4256943672093998E-5</v>
       </c>
       <c r="X14" s="8">
-        <v>3.2902404909209798E-4</v>
+        <v>1.44465411850755E-4</v>
       </c>
       <c r="Y14" s="8">
-        <v>-2.0198379228426999E-4</v>
+        <v>-1.2989506752020101E-4</v>
       </c>
       <c r="Z14" s="8">
-        <v>-4.2169182807177201E-5</v>
+        <v>-3.1161916154452298E-5</v>
       </c>
       <c r="AA14" s="8">
-        <v>4.0700433989505798E-5</v>
+        <v>3.0056493142876501E-5</v>
       </c>
       <c r="AB14" s="8">
-        <v>-3.5186698747759499E-7</v>
+        <v>-2.6997151693475101E-7</v>
       </c>
       <c r="AC14" s="8">
-        <v>-3.0025605176261102E-5</v>
+        <v>-1.9356988529694E-5</v>
       </c>
       <c r="AD14" s="8">
-        <v>-6.0834902577431698E-6</v>
+        <v>-3.3297926801775999E-6</v>
       </c>
       <c r="AE14" s="8">
-        <v>1.0183127722180401E-4</v>
+        <v>9.9770514449259805E-5</v>
       </c>
       <c r="AF14" s="8">
-        <v>-3.9710661631880704E-3</v>
+        <v>-3.04941863417782E-3</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -6144,97 +6145,97 @@
         <v>30</v>
       </c>
       <c r="B15" s="8">
-        <v>-2.4487393052353899E-2</v>
+        <v>-6.8317375500882294E-2</v>
       </c>
       <c r="C15" s="8">
-        <v>-5.9207400570414001E-5</v>
+        <v>-1.3920141205489E-5</v>
       </c>
       <c r="D15" s="8">
-        <v>-6.0942872218548499E-4</v>
+        <v>-3.9440505676415898E-4</v>
       </c>
       <c r="E15" s="8">
-        <v>4.5665169764451001E-4</v>
+        <v>3.22114963046491E-4</v>
       </c>
       <c r="F15" s="8">
-        <v>-9.8782636777001602E-5</v>
+        <v>-4.8724689555940298E-5</v>
       </c>
       <c r="G15" s="8">
-        <v>-5.5763362677569101E-4</v>
+        <v>-4.5651480665931599E-4</v>
       </c>
       <c r="H15" s="8">
-        <v>-3.1228086118793603E-4</v>
+        <v>-3.4582868039585799E-4</v>
       </c>
       <c r="I15" s="8">
-        <v>4.8964733226890596E-3</v>
+        <v>3.6836307067628399E-3</v>
       </c>
       <c r="J15" s="8">
-        <v>4.88484648727322E-3</v>
+        <v>3.65240242553975E-3</v>
       </c>
       <c r="K15" s="8">
-        <v>4.8522711076298001E-3</v>
+        <v>3.6326078509153399E-3</v>
       </c>
       <c r="L15" s="8">
-        <v>4.8789759550997196E-3</v>
+        <v>3.6606082614984801E-3</v>
       </c>
       <c r="M15" s="8">
-        <v>4.9132203769173101E-3</v>
+        <v>3.6832035897003401E-3</v>
       </c>
       <c r="N15" s="8">
-        <v>4.7660081423213903E-3</v>
+        <v>3.59051165682347E-3</v>
       </c>
       <c r="O15" s="8">
-        <v>4.7928266171683798E-3</v>
+        <v>3.60481533575897E-3</v>
       </c>
       <c r="P15" s="8">
-        <v>7.6527111657479097E-3</v>
+        <v>5.8966651948963696E-3</v>
       </c>
       <c r="Q15" s="8">
-        <v>4.9161193441138703E-3</v>
+        <v>3.7062791238492302E-3</v>
       </c>
       <c r="R15" s="8">
-        <v>4.8660822144284098E-3</v>
+        <v>3.6335672517614401E-3</v>
       </c>
       <c r="S15" s="8">
-        <v>4.8880652745892598E-3</v>
+        <v>3.6506563494569902E-3</v>
       </c>
       <c r="T15" s="8">
-        <v>4.6557522964846097E-4</v>
+        <v>3.2188948765598201E-4</v>
       </c>
       <c r="U15" s="8">
-        <v>1.58616439596469E-4</v>
+        <v>4.49211348629465E-5</v>
       </c>
       <c r="V15" s="8">
-        <v>2.61658617064542E-4</v>
+        <v>1.02602623044222E-4</v>
       </c>
       <c r="W15" s="8">
-        <v>2.8359671653344998E-4</v>
+        <v>4.3201772531197503E-5</v>
       </c>
       <c r="X15" s="8">
-        <v>5.3372440448698803E-4</v>
+        <v>2.72477586967644E-4</v>
       </c>
       <c r="Y15" s="8">
-        <v>-3.27370158724004E-4</v>
+        <v>-2.1155386442153201E-4</v>
       </c>
       <c r="Z15" s="8">
-        <v>-4.5730450361094003E-5</v>
+        <v>-3.8629289670829497E-5</v>
       </c>
       <c r="AA15" s="8">
-        <v>4.9743362690267503E-5</v>
+        <v>3.4304687460243302E-5</v>
       </c>
       <c r="AB15" s="8">
-        <v>-3.9877838251645799E-7</v>
+        <v>-2.8371600823174798E-7</v>
       </c>
       <c r="AC15" s="8">
-        <v>-2.1946171195734E-5</v>
+        <v>-1.32486692496256E-5</v>
       </c>
       <c r="AD15" s="8">
-        <v>-1.7093373471616401E-6</v>
+        <v>-8.7502828710036599E-7</v>
       </c>
       <c r="AE15" s="8">
-        <v>1.6744977284978299E-4</v>
+        <v>1.4781598336841001E-4</v>
       </c>
       <c r="AF15" s="8">
-        <v>-4.7488306469483897E-3</v>
+        <v>-3.41639667813341E-3</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
@@ -6242,97 +6243,97 @@
         <v>31</v>
       </c>
       <c r="B16" s="8">
-        <v>-4.0175955012486497E-2</v>
+        <v>2.7979239092005101E-2</v>
       </c>
       <c r="C16" s="8">
-        <v>1.8828056144282501E-5</v>
+        <v>7.0784726374946501E-6</v>
       </c>
       <c r="D16" s="8">
-        <v>-8.0115066736729905E-4</v>
+        <v>-6.1019892780987499E-4</v>
       </c>
       <c r="E16" s="8">
-        <v>7.7475942359961001E-4</v>
+        <v>6.5435228250584204E-4</v>
       </c>
       <c r="F16" s="8">
-        <v>1.9345962453120899E-4</v>
+        <v>1.5903834510351401E-4</v>
       </c>
       <c r="G16" s="8">
-        <v>-5.3898399279217696E-4</v>
+        <v>-3.9053190811033298E-4</v>
       </c>
       <c r="H16" s="8">
-        <v>-4.3244966480001702E-4</v>
+        <v>-4.19041373455933E-4</v>
       </c>
       <c r="I16" s="8">
-        <v>4.9517664405205998E-3</v>
+        <v>3.7382734277256399E-3</v>
       </c>
       <c r="J16" s="8">
-        <v>4.9464809206393803E-3</v>
+        <v>3.7008193299294099E-3</v>
       </c>
       <c r="K16" s="8">
-        <v>4.9126725095242404E-3</v>
+        <v>3.6874740485083198E-3</v>
       </c>
       <c r="L16" s="8">
-        <v>4.98391431123565E-3</v>
+        <v>3.7404923805526599E-3</v>
       </c>
       <c r="M16" s="8">
-        <v>4.9911997553037197E-3</v>
+        <v>3.74656928382823E-3</v>
       </c>
       <c r="N16" s="8">
-        <v>4.84705378381242E-3</v>
+        <v>3.6510796493132002E-3</v>
       </c>
       <c r="O16" s="8">
-        <v>4.8637301008116803E-3</v>
+        <v>3.6613046382376799E-3</v>
       </c>
       <c r="P16" s="8">
-        <v>4.9161193441138703E-3</v>
+        <v>3.7062791238492302E-3</v>
       </c>
       <c r="Q16" s="8">
-        <v>1.3264015199256201E-2</v>
+        <v>1.05928240895918E-2</v>
       </c>
       <c r="R16" s="8">
-        <v>4.8816361664901298E-3</v>
+        <v>3.6556594107903201E-3</v>
       </c>
       <c r="S16" s="8">
-        <v>4.9800728466450504E-3</v>
+        <v>3.7277507599967502E-3</v>
       </c>
       <c r="T16" s="8">
-        <v>2.7780627251527501E-4</v>
+        <v>1.7302794154127501E-4</v>
       </c>
       <c r="U16" s="8">
-        <v>-5.8901984543240802E-5</v>
+        <v>-1.3021485508586301E-4</v>
       </c>
       <c r="V16" s="8">
-        <v>7.3918964342981004E-5</v>
+        <v>-3.8916722242940501E-5</v>
       </c>
       <c r="W16" s="8">
-        <v>1.9222593505507899E-4</v>
+        <v>-3.6457373039728102E-5</v>
       </c>
       <c r="X16" s="8">
-        <v>4.5918504643472399E-4</v>
+        <v>2.2712555397529099E-4</v>
       </c>
       <c r="Y16" s="8">
-        <v>-4.43186962277778E-4</v>
+        <v>-3.6833839483740697E-4</v>
       </c>
       <c r="Z16" s="8">
-        <v>-1.6152441777825999E-5</v>
+        <v>-1.5899863080785099E-5</v>
       </c>
       <c r="AA16" s="8">
-        <v>6.6962399651288395E-5</v>
+        <v>5.3283980456599201E-5</v>
       </c>
       <c r="AB16" s="8">
-        <v>-5.3591319747416199E-7</v>
+        <v>-4.2294495287388402E-7</v>
       </c>
       <c r="AC16" s="8">
-        <v>-2.5704786345445799E-5</v>
+        <v>-1.5305125523319501E-5</v>
       </c>
       <c r="AD16" s="8">
-        <v>-3.4711754374417602E-7</v>
+        <v>8.4653209894722195E-7</v>
       </c>
       <c r="AE16" s="8">
-        <v>1.5264729666305299E-4</v>
+        <v>1.76127397211751E-4</v>
       </c>
       <c r="AF16" s="8">
-        <v>-5.6465546488757897E-3</v>
+        <v>-4.2994049611112502E-3</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -6340,97 +6341,97 @@
         <v>32</v>
       </c>
       <c r="B17" s="8">
-        <v>-5.8132721558237697E-2</v>
+        <v>-8.01329355410587E-2</v>
       </c>
       <c r="C17" s="8">
-        <v>-1.1829564444302599E-4</v>
+        <v>-5.1913341417064199E-5</v>
       </c>
       <c r="D17" s="8">
-        <v>-6.6449482002627297E-4</v>
+        <v>-4.2531167881112899E-4</v>
       </c>
       <c r="E17" s="8">
-        <v>3.6196407345823E-4</v>
+        <v>1.8643456883649201E-4</v>
       </c>
       <c r="F17" s="8">
-        <v>-2.7882665247920199E-4</v>
+        <v>-1.48122627785236E-4</v>
       </c>
       <c r="G17" s="8">
-        <v>-4.1045282850515598E-4</v>
+        <v>-3.40608746747858E-4</v>
       </c>
       <c r="H17" s="8">
-        <v>-1.5628089169628399E-4</v>
+        <v>-1.8354713762818101E-4</v>
       </c>
       <c r="I17" s="8">
-        <v>4.8654779778767301E-3</v>
+        <v>3.6405002404529302E-3</v>
       </c>
       <c r="J17" s="8">
-        <v>4.8760135961763897E-3</v>
+        <v>3.63079531134627E-3</v>
       </c>
       <c r="K17" s="8">
-        <v>4.8126308213113402E-3</v>
+        <v>3.5982278200898201E-3</v>
       </c>
       <c r="L17" s="8">
-        <v>4.8758920271050801E-3</v>
+        <v>3.6428763452834301E-3</v>
       </c>
       <c r="M17" s="8">
-        <v>4.8856486455708496E-3</v>
+        <v>3.6373330072810299E-3</v>
       </c>
       <c r="N17" s="8">
-        <v>4.7731495059121403E-3</v>
+        <v>3.5689831956946098E-3</v>
       </c>
       <c r="O17" s="8">
-        <v>4.8124893733067402E-3</v>
+        <v>3.59903551776231E-3</v>
       </c>
       <c r="P17" s="8">
-        <v>4.8660822144284098E-3</v>
+        <v>3.6335672517614401E-3</v>
       </c>
       <c r="Q17" s="8">
-        <v>4.8816361664901298E-3</v>
+        <v>3.6556594107903201E-3</v>
       </c>
       <c r="R17" s="8">
-        <v>1.0279037963647699E-2</v>
+        <v>7.5772220981151599E-3</v>
       </c>
       <c r="S17" s="8">
-        <v>4.8697484493990398E-3</v>
+        <v>3.6316966273550202E-3</v>
       </c>
       <c r="T17" s="8">
-        <v>1.8443809766261301E-4</v>
+        <v>1.7664596266606699E-4</v>
       </c>
       <c r="U17" s="8">
-        <v>-4.5639001536050598E-6</v>
+        <v>1.35419483380916E-5</v>
       </c>
       <c r="V17" s="8">
-        <v>3.9697280441727396E-6</v>
+        <v>-3.9023475577853197E-5</v>
       </c>
       <c r="W17" s="8">
-        <v>-1.9996438042124E-5</v>
+        <v>-9.1901591422994901E-5</v>
       </c>
       <c r="X17" s="8">
-        <v>3.22829203105524E-4</v>
+        <v>1.7418328243838901E-4</v>
       </c>
       <c r="Y17" s="8">
-        <v>-7.3890561767000096E-4</v>
+        <v>-3.5045715914234701E-4</v>
       </c>
       <c r="Z17" s="8">
-        <v>-2.11878228634332E-5</v>
+        <v>-1.3505716957335199E-5</v>
       </c>
       <c r="AA17" s="8">
-        <v>1.9688040213070699E-5</v>
+        <v>1.61817515153918E-5</v>
       </c>
       <c r="AB17" s="8">
-        <v>-1.6705108955779699E-7</v>
+        <v>-1.4383094386253899E-7</v>
       </c>
       <c r="AC17" s="8">
-        <v>1.3967176173467299E-5</v>
+        <v>7.5524382012530103E-6</v>
       </c>
       <c r="AD17" s="8">
-        <v>-3.74664897787857E-6</v>
+        <v>-2.0810114648482401E-6</v>
       </c>
       <c r="AE17" s="8">
-        <v>5.7211024127117701E-5</v>
+        <v>9.7167713338926502E-5</v>
       </c>
       <c r="AF17" s="8">
-        <v>-4.2919591708235599E-3</v>
+        <v>-3.30926235510124E-3</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -6438,97 +6439,97 @@
         <v>33</v>
       </c>
       <c r="B18" s="8">
-        <v>-0.36185758061617401</v>
+        <v>-0.31910411702290298</v>
       </c>
       <c r="C18" s="8">
-        <v>-3.8159597474569099E-5</v>
+        <v>9.0654499959562297E-7</v>
       </c>
       <c r="D18" s="8">
-        <v>-8.4574341081580697E-4</v>
+        <v>-5.4483268097545504E-4</v>
       </c>
       <c r="E18" s="8">
-        <v>2.89766996693161E-4</v>
+        <v>1.5896051790660899E-4</v>
       </c>
       <c r="F18" s="8">
-        <v>-2.7584955475909499E-4</v>
+        <v>-1.61917970891495E-4</v>
       </c>
       <c r="G18" s="8">
-        <v>-5.0834864668053198E-4</v>
+        <v>-3.8424220541903001E-4</v>
       </c>
       <c r="H18" s="8">
-        <v>-7.3661028076579197E-4</v>
+        <v>-6.1258261392858502E-4</v>
       </c>
       <c r="I18" s="8">
-        <v>4.96790978681477E-3</v>
+        <v>3.70394096792992E-3</v>
       </c>
       <c r="J18" s="8">
-        <v>4.9552445051715696E-3</v>
+        <v>3.6831324902577402E-3</v>
       </c>
       <c r="K18" s="8">
-        <v>4.9005215393465203E-3</v>
+        <v>3.6359723438137499E-3</v>
       </c>
       <c r="L18" s="8">
-        <v>4.9459501357654702E-3</v>
+        <v>3.6828162446926999E-3</v>
       </c>
       <c r="M18" s="8">
-        <v>4.9740611510567098E-3</v>
+        <v>3.7049814789480301E-3</v>
       </c>
       <c r="N18" s="8">
-        <v>4.79905604747411E-3</v>
+        <v>3.5864061330973798E-3</v>
       </c>
       <c r="O18" s="8">
-        <v>4.7986633996432004E-3</v>
+        <v>3.5890105926193799E-3</v>
       </c>
       <c r="P18" s="8">
-        <v>4.8880652745892598E-3</v>
+        <v>3.6506563494569902E-3</v>
       </c>
       <c r="Q18" s="8">
-        <v>4.9800728466450504E-3</v>
+        <v>3.7277507599967502E-3</v>
       </c>
       <c r="R18" s="8">
-        <v>4.8697484493990398E-3</v>
+        <v>3.6316966273550202E-3</v>
       </c>
       <c r="S18" s="8">
-        <v>1.4553907874115099E-2</v>
+        <v>1.08103847681537E-2</v>
       </c>
       <c r="T18" s="8">
-        <v>2.0037343533792801E-4</v>
+        <v>1.9086654806898E-4</v>
       </c>
       <c r="U18" s="8">
-        <v>2.9497447954011799E-4</v>
+        <v>1.2727920474501299E-4</v>
       </c>
       <c r="V18" s="8">
-        <v>4.2981923942768201E-4</v>
+        <v>1.4480244629774599E-4</v>
       </c>
       <c r="W18" s="8">
-        <v>4.2787892501130998E-4</v>
+        <v>1.1134018192666599E-4</v>
       </c>
       <c r="X18" s="8">
-        <v>7.3016998890877705E-4</v>
+        <v>3.8494143341752499E-4</v>
       </c>
       <c r="Y18" s="8">
-        <v>-6.4175941832065903E-4</v>
+        <v>-5.1160190503336095E-4</v>
       </c>
       <c r="Z18" s="8">
-        <v>-1.58810188010869E-5</v>
+        <v>-1.8053239998575698E-5</v>
       </c>
       <c r="AA18" s="8">
-        <v>2.6776318544249002E-5</v>
+        <v>1.8281612615116899E-5</v>
       </c>
       <c r="AB18" s="8">
-        <v>-1.11104502723895E-7</v>
+        <v>-8.9271201703801602E-8</v>
       </c>
       <c r="AC18" s="8">
-        <v>-1.9960511563682401E-5</v>
+        <v>-1.5751065671979301E-5</v>
       </c>
       <c r="AD18" s="8">
-        <v>1.18052823990489E-5</v>
+        <v>6.3442488630703199E-6</v>
       </c>
       <c r="AE18" s="8">
-        <v>-5.8696423875529303E-5</v>
+        <v>2.7037100275640499E-6</v>
       </c>
       <c r="AF18" s="8">
-        <v>-5.3557541859268901E-3</v>
+        <v>-3.6254356706759902E-3</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
@@ -6536,97 +6537,97 @@
         <v>16</v>
       </c>
       <c r="B19" s="8">
-        <v>5.3459589517501601E-3</v>
+        <v>-2.8136273810019902E-4</v>
       </c>
       <c r="C19" s="8">
-        <v>-2.1242328967870799E-4</v>
+        <v>-1.7042693690025399E-4</v>
       </c>
       <c r="D19" s="8">
-        <v>-2.44476234846575E-4</v>
+        <v>-1.5726936471822299E-4</v>
       </c>
       <c r="E19" s="8">
-        <v>-2.0946537737323801E-4</v>
+        <v>-2.12827260295729E-4</v>
       </c>
       <c r="F19" s="8">
-        <v>-3.9731775296312199E-5</v>
+        <v>-2.7993404341663698E-5</v>
       </c>
       <c r="G19" s="8">
-        <v>-2.2342855962618501E-4</v>
+        <v>-1.90048164124522E-4</v>
       </c>
       <c r="H19" s="8">
-        <v>-1.3655058035892299E-4</v>
+        <v>-1.2664173552619299E-4</v>
       </c>
       <c r="I19" s="8">
-        <v>1.17868670194528E-4</v>
+        <v>7.0466721665522601E-5</v>
       </c>
       <c r="J19" s="8">
-        <v>3.4138618187333399E-4</v>
+        <v>2.9058430210802402E-4</v>
       </c>
       <c r="K19" s="8">
-        <v>3.5505137347886502E-4</v>
+        <v>2.55104704934409E-4</v>
       </c>
       <c r="L19" s="8">
-        <v>3.8451413468715799E-4</v>
+        <v>3.0105057974443901E-4</v>
       </c>
       <c r="M19" s="8">
-        <v>2.0297003995654899E-4</v>
+        <v>1.8924768415587301E-4</v>
       </c>
       <c r="N19" s="8">
-        <v>2.6033600430292001E-4</v>
+        <v>2.1059693020532199E-4</v>
       </c>
       <c r="O19" s="8">
-        <v>2.4720089118391198E-4</v>
+        <v>2.12500321994609E-4</v>
       </c>
       <c r="P19" s="8">
-        <v>4.6557522964846097E-4</v>
+        <v>3.2188948765598201E-4</v>
       </c>
       <c r="Q19" s="8">
-        <v>2.7780627251527501E-4</v>
+        <v>1.7302794154127501E-4</v>
       </c>
       <c r="R19" s="8">
-        <v>1.8443809766261301E-4</v>
+        <v>1.7664596266606699E-4</v>
       </c>
       <c r="S19" s="8">
-        <v>2.0037343533792801E-4</v>
+        <v>1.9086654806898E-4</v>
       </c>
       <c r="T19" s="8">
-        <v>3.25524949887204E-3</v>
+        <v>2.1563162627564101E-3</v>
       </c>
       <c r="U19" s="8">
-        <v>2.61658055811279E-4</v>
+        <v>1.5044795638907699E-4</v>
       </c>
       <c r="V19" s="8">
-        <v>2.7950972388213099E-4</v>
+        <v>1.69685104190843E-4</v>
       </c>
       <c r="W19" s="8">
-        <v>3.4391708714884999E-4</v>
+        <v>2.2195458470309601E-4</v>
       </c>
       <c r="X19" s="8">
-        <v>4.0388851438170903E-4</v>
+        <v>2.41879342314524E-4</v>
       </c>
       <c r="Y19" s="8">
-        <v>-1.5548564854924001E-5</v>
+        <v>-5.6890612907485797E-5</v>
       </c>
       <c r="Z19" s="8">
-        <v>-2.0674534998908601E-5</v>
+        <v>-2.1045161391780598E-5</v>
       </c>
       <c r="AA19" s="8">
-        <v>3.8778006033768097E-5</v>
+        <v>4.3348141485591701E-5</v>
       </c>
       <c r="AB19" s="8">
-        <v>-2.1422466781597199E-7</v>
+        <v>-2.94314048158248E-7</v>
       </c>
       <c r="AC19" s="8">
-        <v>-3.18285968860809E-5</v>
+        <v>-1.9989521205405801E-5</v>
       </c>
       <c r="AD19" s="8">
-        <v>-6.4599382033204897E-6</v>
+        <v>-4.9519808537223396E-6</v>
       </c>
       <c r="AE19" s="8">
-        <v>-8.0821919107185804E-6</v>
+        <v>2.9485886840635E-6</v>
       </c>
       <c r="AF19" s="8">
-        <v>-7.4725403196196198E-4</v>
+        <v>-8.2595513948921604E-4</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
@@ -6634,97 +6635,97 @@
         <v>36</v>
       </c>
       <c r="B20" s="8">
-        <v>1.19241542950945E-2</v>
+        <v>-1.3540905833991699E-2</v>
       </c>
       <c r="C20" s="8">
-        <v>-1.28929979797121E-4</v>
+        <v>-1.06933575513096E-4</v>
       </c>
       <c r="D20" s="8">
-        <v>2.5523831405678999E-5</v>
+        <v>-1.7628097143113999E-5</v>
       </c>
       <c r="E20" s="8">
-        <v>1.9055926048402099E-4</v>
+        <v>1.3180405573850801E-4</v>
       </c>
       <c r="F20" s="8">
-        <v>5.81332560639315E-5</v>
+        <v>3.1765119593700298E-5</v>
       </c>
       <c r="G20" s="8">
-        <v>-1.04632177757973E-4</v>
+        <v>-8.0763238596518396E-5</v>
       </c>
       <c r="H20" s="8">
-        <v>-3.9061091234269703E-5</v>
+        <v>-1.3357685690987399E-5</v>
       </c>
       <c r="I20" s="8">
-        <v>-2.2691896974959399E-4</v>
+        <v>-1.65054953361904E-4</v>
       </c>
       <c r="J20" s="8">
-        <v>2.7338272605515599E-5</v>
+        <v>-5.4928564757134402E-5</v>
       </c>
       <c r="K20" s="8">
-        <v>1.6498087515698601E-4</v>
+        <v>2.29935550132205E-5</v>
       </c>
       <c r="L20" s="8">
-        <v>2.0280631048449199E-4</v>
+        <v>8.8777000104614905E-5</v>
       </c>
       <c r="M20" s="8">
-        <v>2.0847982173390699E-4</v>
+        <v>8.8665725766867197E-5</v>
       </c>
       <c r="N20" s="8">
-        <v>1.4253407316368899E-4</v>
+        <v>7.0933444677157204E-5</v>
       </c>
       <c r="O20" s="8">
-        <v>1.5300644969461099E-4</v>
+        <v>6.5047175705935901E-5</v>
       </c>
       <c r="P20" s="8">
-        <v>1.58616439596469E-4</v>
+        <v>4.49211348629465E-5</v>
       </c>
       <c r="Q20" s="8">
-        <v>-5.8901984543240802E-5</v>
+        <v>-1.3021485508586301E-4</v>
       </c>
       <c r="R20" s="8">
-        <v>-4.5639001536050598E-6</v>
+        <v>1.35419483380916E-5</v>
       </c>
       <c r="S20" s="8">
-        <v>2.9497447954011799E-4</v>
+        <v>1.2727920474501299E-4</v>
       </c>
       <c r="T20" s="8">
-        <v>2.61658055811279E-4</v>
+        <v>1.5044795638907699E-4</v>
       </c>
       <c r="U20" s="8">
-        <v>3.7294848193129598E-3</v>
+        <v>2.7414331718500899E-3</v>
       </c>
       <c r="V20" s="8">
-        <v>2.40164122437889E-3</v>
+        <v>1.75532650285816E-3</v>
       </c>
       <c r="W20" s="8">
-        <v>2.3965140779372402E-3</v>
+        <v>1.7425556298784201E-3</v>
       </c>
       <c r="X20" s="8">
-        <v>2.3494558132191E-3</v>
+        <v>1.7038493251756799E-3</v>
       </c>
       <c r="Y20" s="8">
-        <v>4.4541354921536099E-4</v>
+        <v>3.5177310421854801E-4</v>
       </c>
       <c r="Z20" s="8">
-        <v>-1.61364046784057E-5</v>
+        <v>-1.5544439150787701E-5</v>
       </c>
       <c r="AA20" s="8">
-        <v>5.8067607343704796E-6</v>
+        <v>-7.7485180559398298E-7</v>
       </c>
       <c r="AB20" s="8">
-        <v>1.6785398136138201E-8</v>
+        <v>5.8901365886500302E-8</v>
       </c>
       <c r="AC20" s="8">
-        <v>-9.8318830310963701E-6</v>
+        <v>-6.2973314165602897E-6</v>
       </c>
       <c r="AD20" s="8">
-        <v>-3.29264052820027E-6</v>
+        <v>-1.1643442175534399E-6</v>
       </c>
       <c r="AE20" s="8">
-        <v>1.1429896866467399E-6</v>
+        <v>-3.09401121375623E-6</v>
       </c>
       <c r="AF20" s="8">
-        <v>-2.2103235855487598E-3</v>
+        <v>-1.41664342203662E-3</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -6732,97 +6733,97 @@
         <v>37</v>
       </c>
       <c r="B21" s="8">
-        <v>-2.74555413885622E-2</v>
+        <v>-5.8437331079687703E-2</v>
       </c>
       <c r="C21" s="8">
-        <v>1.1912362644709499E-5</v>
+        <v>1.91159661513898E-6</v>
       </c>
       <c r="D21" s="8">
-        <v>-2.6638431963693399E-4</v>
+        <v>-2.35190709147246E-4</v>
       </c>
       <c r="E21" s="8">
-        <v>3.2630455617718398E-4</v>
+        <v>2.8501890220112902E-4</v>
       </c>
       <c r="F21" s="8">
-        <v>1.7026975078599099E-4</v>
+        <v>1.1021180503455699E-4</v>
       </c>
       <c r="G21" s="8">
-        <v>-4.2819949118650899E-5</v>
+        <v>-3.1488974456466399E-5</v>
       </c>
       <c r="H21" s="8">
-        <v>1.36876311242743E-4</v>
+        <v>1.4670503203129001E-4</v>
       </c>
       <c r="I21" s="8">
-        <v>1.0507616215266E-4</v>
+        <v>-7.9536277947409296E-6</v>
       </c>
       <c r="J21" s="8">
-        <v>1.8501383716637001E-4</v>
+        <v>-2.8397989314200902E-6</v>
       </c>
       <c r="K21" s="8">
-        <v>3.6659091143644501E-4</v>
+        <v>1.22323228258313E-4</v>
       </c>
       <c r="L21" s="8">
-        <v>3.0899507230058799E-4</v>
+        <v>1.16377708589877E-4</v>
       </c>
       <c r="M21" s="8">
-        <v>2.4800018501134501E-4</v>
+        <v>1.10730279763057E-4</v>
       </c>
       <c r="N21" s="8">
-        <v>2.63078706415239E-4</v>
+        <v>1.15104077849468E-4</v>
       </c>
       <c r="O21" s="8">
-        <v>1.75726002946763E-4</v>
+        <v>2.8991814827594199E-5</v>
       </c>
       <c r="P21" s="8">
-        <v>2.61658617064542E-4</v>
+        <v>1.02602623044222E-4</v>
       </c>
       <c r="Q21" s="8">
-        <v>7.3918964342981004E-5</v>
+        <v>-3.8916722242940501E-5</v>
       </c>
       <c r="R21" s="8">
-        <v>3.9697280441727396E-6</v>
+        <v>-3.9023475577853197E-5</v>
       </c>
       <c r="S21" s="8">
-        <v>4.2981923942768201E-4</v>
+        <v>1.4480244629774599E-4</v>
       </c>
       <c r="T21" s="8">
-        <v>2.7950972388213099E-4</v>
+        <v>1.69685104190843E-4</v>
       </c>
       <c r="U21" s="8">
-        <v>2.40164122437889E-3</v>
+        <v>1.75532650285816E-3</v>
       </c>
       <c r="V21" s="8">
-        <v>3.8670270820361499E-3</v>
+        <v>2.8750316698433901E-3</v>
       </c>
       <c r="W21" s="8">
-        <v>2.7108047775130499E-3</v>
+        <v>2.0107691173380099E-3</v>
       </c>
       <c r="X21" s="8">
-        <v>2.6697091518887999E-3</v>
+        <v>1.9630808947426201E-3</v>
       </c>
       <c r="Y21" s="8">
-        <v>6.3008111484256796E-4</v>
+        <v>4.62752440749351E-4</v>
       </c>
       <c r="Z21" s="8">
-        <v>-1.08559109154975E-5</v>
+        <v>-4.3231121222062101E-6</v>
       </c>
       <c r="AA21" s="8">
-        <v>7.6812333750776906E-6</v>
+        <v>3.55431784952156E-6</v>
       </c>
       <c r="AB21" s="8">
-        <v>8.5731017040313501E-9</v>
+        <v>2.5441536155777301E-8</v>
       </c>
       <c r="AC21" s="8">
-        <v>-1.62687339521438E-6</v>
+        <v>-1.89745777961124E-6</v>
       </c>
       <c r="AD21" s="8">
-        <v>-1.01962893170838E-6</v>
+        <v>3.5107206495501398E-7</v>
       </c>
       <c r="AE21" s="8">
-        <v>6.3597273331523601E-5</v>
+        <v>5.2607278529689499E-5</v>
       </c>
       <c r="AF21" s="8">
-        <v>-2.8409735738362499E-3</v>
+        <v>-2.023016610261E-3</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -6830,97 +6831,97 @@
         <v>39</v>
       </c>
       <c r="B22" s="8">
-        <v>-5.7946877117288402E-2</v>
+        <v>-9.2359153912809702E-2</v>
       </c>
       <c r="C22" s="8">
-        <v>1.6869150462134699E-4</v>
+        <v>1.17173090250836E-4</v>
       </c>
       <c r="D22" s="8">
-        <v>-4.60062817506805E-4</v>
+        <v>-3.9707618216626098E-4</v>
       </c>
       <c r="E22" s="8">
-        <v>4.2819227027188499E-4</v>
+        <v>3.6482712876218898E-4</v>
       </c>
       <c r="F22" s="8">
-        <v>2.1032483690185401E-4</v>
+        <v>1.75757031507802E-4</v>
       </c>
       <c r="G22" s="8">
-        <v>1.26938335667565E-5</v>
+        <v>2.8661231781060401E-5</v>
       </c>
       <c r="H22" s="8">
-        <v>2.8534020577091802E-4</v>
+        <v>3.0335887083627803E-4</v>
       </c>
       <c r="I22" s="8">
-        <v>5.6208338789648999E-5</v>
+        <v>-6.18982082022266E-5</v>
       </c>
       <c r="J22" s="8">
-        <v>1.2949505733784501E-4</v>
+        <v>-7.4528524240565999E-5</v>
       </c>
       <c r="K22" s="8">
-        <v>3.5743499612857601E-4</v>
+        <v>5.59177051410507E-5</v>
       </c>
       <c r="L22" s="8">
-        <v>3.7660345054941401E-4</v>
+        <v>1.03539477613254E-4</v>
       </c>
       <c r="M22" s="8">
-        <v>4.20850471503258E-4</v>
+        <v>1.89091830047346E-4</v>
       </c>
       <c r="N22" s="8">
-        <v>2.1263757006878301E-4</v>
+        <v>7.7272223311095799E-6</v>
       </c>
       <c r="O22" s="8">
-        <v>1.44102312895738E-4</v>
+        <v>-3.4256943672093998E-5</v>
       </c>
       <c r="P22" s="8">
-        <v>2.8359671653344998E-4</v>
+        <v>4.3201772531197503E-5</v>
       </c>
       <c r="Q22" s="8">
-        <v>1.9222593505507899E-4</v>
+        <v>-3.6457373039728102E-5</v>
       </c>
       <c r="R22" s="8">
-        <v>-1.9996438042124E-5</v>
+        <v>-9.1901591422994901E-5</v>
       </c>
       <c r="S22" s="8">
-        <v>4.2787892501130998E-4</v>
+        <v>1.1134018192666599E-4</v>
       </c>
       <c r="T22" s="8">
-        <v>3.4391708714884999E-4</v>
+        <v>2.2195458470309601E-4</v>
       </c>
       <c r="U22" s="8">
-        <v>2.3965140779372402E-3</v>
+        <v>1.7425556298784201E-3</v>
       </c>
       <c r="V22" s="8">
-        <v>2.7108047775130499E-3</v>
+        <v>2.0107691173380099E-3</v>
       </c>
       <c r="W22" s="8">
-        <v>4.0940693610557501E-3</v>
+        <v>3.0973622262788301E-3</v>
       </c>
       <c r="X22" s="8">
-        <v>2.8896405569067102E-3</v>
+        <v>2.1647754761515599E-3</v>
       </c>
       <c r="Y22" s="8">
-        <v>7.5801820482515896E-4</v>
+        <v>4.4949877068388601E-4</v>
       </c>
       <c r="Z22" s="8">
-        <v>1.08416010636646E-5</v>
+        <v>8.1752607270381502E-6</v>
       </c>
       <c r="AA22" s="8">
-        <v>4.9036715918067804E-6</v>
+        <v>-9.9580742348248902E-7</v>
       </c>
       <c r="AB22" s="8">
-        <v>4.1038573731187402E-8</v>
+        <v>7.8676433748307596E-8</v>
       </c>
       <c r="AC22" s="8">
-        <v>-3.60192170009771E-6</v>
+        <v>-1.4038264992738799E-7</v>
       </c>
       <c r="AD22" s="8">
-        <v>-3.82554767037291E-6</v>
+        <v>-1.5246218719420099E-6</v>
       </c>
       <c r="AE22" s="8">
-        <v>2.79940389253745E-5</v>
+        <v>-2.30135253225843E-6</v>
       </c>
       <c r="AF22" s="8">
-        <v>-3.08464000034487E-3</v>
+        <v>-2.1170347658758001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
@@ -6928,97 +6929,97 @@
         <v>40</v>
       </c>
       <c r="B23" s="8">
-        <v>-0.10765163368658601</v>
+        <v>-0.11490847119806299</v>
       </c>
       <c r="C23" s="8">
-        <v>3.5420281375932698E-4</v>
+        <v>2.5661305439669699E-4</v>
       </c>
       <c r="D23" s="8">
-        <v>-5.7627961049298404E-4</v>
+        <v>-4.6418451004554001E-4</v>
       </c>
       <c r="E23" s="8">
-        <v>4.2022039204532298E-4</v>
+        <v>3.4535045012430802E-4</v>
       </c>
       <c r="F23" s="8">
-        <v>2.7891371757865702E-4</v>
+        <v>2.32170272959106E-4</v>
       </c>
       <c r="G23" s="8">
-        <v>2.9569886621756702E-4</v>
+        <v>2.5053514890331402E-4</v>
       </c>
       <c r="H23" s="8">
-        <v>6.5824210999291003E-4</v>
+        <v>5.6827631859252003E-4</v>
       </c>
       <c r="I23" s="8">
-        <v>2.9904107335018302E-4</v>
+        <v>1.5629925725029999E-4</v>
       </c>
       <c r="J23" s="8">
-        <v>3.9706571421062602E-4</v>
+        <v>1.72442626212721E-4</v>
       </c>
       <c r="K23" s="8">
-        <v>5.8856010160817903E-4</v>
+        <v>3.1058008517539801E-4</v>
       </c>
       <c r="L23" s="8">
-        <v>5.75733059709002E-4</v>
+        <v>3.1316394322403299E-4</v>
       </c>
       <c r="M23" s="8">
-        <v>4.9671034228580704E-4</v>
+        <v>3.18350819095063E-4</v>
       </c>
       <c r="N23" s="8">
-        <v>4.0674443862732398E-4</v>
+        <v>2.0951522786930599E-4</v>
       </c>
       <c r="O23" s="8">
-        <v>3.2902404909209798E-4</v>
+        <v>1.44465411850755E-4</v>
       </c>
       <c r="P23" s="8">
-        <v>5.3372440448698803E-4</v>
+        <v>2.72477586967644E-4</v>
       </c>
       <c r="Q23" s="8">
-        <v>4.5918504643472399E-4</v>
+        <v>2.2712555397529099E-4</v>
       </c>
       <c r="R23" s="8">
-        <v>3.22829203105524E-4</v>
+        <v>1.7418328243838901E-4</v>
       </c>
       <c r="S23" s="8">
-        <v>7.3016998890877705E-4</v>
+        <v>3.8494143341752499E-4</v>
       </c>
       <c r="T23" s="8">
-        <v>4.0388851438170903E-4</v>
+        <v>2.41879342314524E-4</v>
       </c>
       <c r="U23" s="8">
-        <v>2.3494558132191E-3</v>
+        <v>1.7038493251756799E-3</v>
       </c>
       <c r="V23" s="8">
-        <v>2.6697091518887999E-3</v>
+        <v>1.9630808947426201E-3</v>
       </c>
       <c r="W23" s="8">
-        <v>2.8896405569067102E-3</v>
+        <v>2.1647754761515599E-3</v>
       </c>
       <c r="X23" s="8">
-        <v>4.1143828068329596E-3</v>
+        <v>3.0884208762260701E-3</v>
       </c>
       <c r="Y23" s="8">
-        <v>4.8931290330653005E-4</v>
+        <v>3.3943898569653602E-4</v>
       </c>
       <c r="Z23" s="8">
-        <v>1.4938019577859699E-6</v>
+        <v>2.7763091305072701E-6</v>
       </c>
       <c r="AA23" s="8">
-        <v>1.15262719514252E-5</v>
+        <v>3.7883514038165999E-6</v>
       </c>
       <c r="AB23" s="8">
-        <v>-6.6715033595401904E-8</v>
+        <v>-1.3253464341926199E-9</v>
       </c>
       <c r="AC23" s="8">
-        <v>3.3672766714307099E-7</v>
+        <v>-7.9601118039708399E-9</v>
       </c>
       <c r="AD23" s="8">
-        <v>-7.67978569468998E-6</v>
+        <v>-4.1293388728434297E-6</v>
       </c>
       <c r="AE23" s="8">
-        <v>-1.69638255491436E-5</v>
+        <v>-2.4996167309672399E-5</v>
       </c>
       <c r="AF23" s="8">
-        <v>-3.3052825074266099E-3</v>
+        <v>-2.3505563205864898E-3</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
@@ -7026,97 +7027,97 @@
         <v>47</v>
       </c>
       <c r="B24" s="8">
-        <v>1.6940540716511301</v>
+        <v>1.67744740400946</v>
       </c>
       <c r="C24" s="8">
-        <v>-3.2704333110136102E-4</v>
+        <v>-2.2776585886313499E-4</v>
       </c>
       <c r="D24" s="8">
-        <v>8.5721246069600998E-4</v>
+        <v>6.2970740391318899E-4</v>
       </c>
       <c r="E24" s="8">
-        <v>-1.89962332863713E-4</v>
+        <v>-2.0417905428785099E-4</v>
       </c>
       <c r="F24" s="8">
-        <v>-6.20921941204557E-5</v>
+        <v>-1.03556653835802E-4</v>
       </c>
       <c r="G24" s="8">
-        <v>-1.9854278345841201E-4</v>
+        <v>-1.3187972664026299E-4</v>
       </c>
       <c r="H24" s="8">
-        <v>-1.26608064496211E-4</v>
+        <v>-9.2684217219427404E-5</v>
       </c>
       <c r="I24" s="8">
-        <v>-6.9781884904758496E-4</v>
+        <v>-5.4451905858729597E-4</v>
       </c>
       <c r="J24" s="8">
-        <v>-7.1183901819658901E-4</v>
+        <v>-5.2613947803580301E-4</v>
       </c>
       <c r="K24" s="8">
-        <v>5.9577792176717097E-4</v>
+        <v>4.7062589410381498E-4</v>
       </c>
       <c r="L24" s="8">
-        <v>2.0118762423022301E-4</v>
+        <v>1.20153026031496E-4</v>
       </c>
       <c r="M24" s="8">
-        <v>-1.4670553689512399E-4</v>
+        <v>-6.7841435865638493E-5</v>
       </c>
       <c r="N24" s="8">
-        <v>-2.1564599842028901E-5</v>
+        <v>-2.03739851255387E-5</v>
       </c>
       <c r="O24" s="8">
-        <v>-2.0198379228426999E-4</v>
+        <v>-1.2989506752020101E-4</v>
       </c>
       <c r="P24" s="8">
-        <v>-3.27370158724004E-4</v>
+        <v>-2.1155386442153201E-4</v>
       </c>
       <c r="Q24" s="8">
-        <v>-4.43186962277778E-4</v>
+        <v>-3.6833839483740697E-4</v>
       </c>
       <c r="R24" s="8">
-        <v>-7.3890561767000096E-4</v>
+        <v>-3.5045715914234701E-4</v>
       </c>
       <c r="S24" s="8">
-        <v>-6.4175941832065903E-4</v>
+        <v>-5.1160190503336095E-4</v>
       </c>
       <c r="T24" s="8">
-        <v>-1.5548564854924001E-5</v>
+        <v>-5.6890612907485797E-5</v>
       </c>
       <c r="U24" s="8">
-        <v>4.4541354921536099E-4</v>
+        <v>3.5177310421854801E-4</v>
       </c>
       <c r="V24" s="8">
-        <v>6.3008111484256796E-4</v>
+        <v>4.62752440749351E-4</v>
       </c>
       <c r="W24" s="8">
-        <v>7.5801820482515896E-4</v>
+        <v>4.4949877068388601E-4</v>
       </c>
       <c r="X24" s="8">
-        <v>4.8931290330653005E-4</v>
+        <v>3.3943898569653602E-4</v>
       </c>
       <c r="Y24" s="8">
-        <v>2.8639018499865901E-2</v>
+        <v>2.1353217180365199E-2</v>
       </c>
       <c r="Z24" s="8">
-        <v>3.0427461575922E-5</v>
+        <v>1.0191418051885299E-5</v>
       </c>
       <c r="AA24" s="8">
-        <v>-1.13531822386823E-4</v>
+        <v>-9.3111197209676402E-5</v>
       </c>
       <c r="AB24" s="8">
-        <v>1.2905898832123601E-6</v>
+        <v>1.0366058796827001E-6</v>
       </c>
       <c r="AC24" s="8">
-        <v>-8.7595251560827796E-5</v>
+        <v>-6.7511039266497305E-5</v>
       </c>
       <c r="AD24" s="8">
-        <v>8.5997175046871295E-5</v>
+        <v>6.6298046674749102E-5</v>
       </c>
       <c r="AE24" s="8">
-        <v>-6.1995988585808299E-5</v>
+        <v>-5.02039356084404E-5</v>
       </c>
       <c r="AF24" s="8">
-        <v>-2.86707906624437E-3</v>
+        <v>-1.7936134470325799E-3</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -7124,97 +7125,97 @@
         <v>38</v>
       </c>
       <c r="B25" s="8">
-        <v>4.3528188179301701E-2</v>
+        <v>2.8439779796908499E-2</v>
       </c>
       <c r="C25" s="8">
-        <v>2.5770534110842701E-5</v>
+        <v>1.7418917226673301E-5</v>
       </c>
       <c r="D25" s="8">
-        <v>-2.4265473526926501E-5</v>
+        <v>-2.1762751755166099E-5</v>
       </c>
       <c r="E25" s="8">
-        <v>-9.91938982984867E-6</v>
+        <v>1.7149527807957399E-6</v>
       </c>
       <c r="F25" s="8">
-        <v>7.8306114194152597E-6</v>
+        <v>3.1585411834741901E-6</v>
       </c>
       <c r="G25" s="8">
-        <v>2.4286068127837401E-5</v>
+        <v>2.04754450575988E-5</v>
       </c>
       <c r="H25" s="8">
-        <v>5.4445328476127101E-5</v>
+        <v>4.91463903769168E-5</v>
       </c>
       <c r="I25" s="8">
-        <v>-3.7919712922618801E-5</v>
+        <v>-3.3986104429208902E-5</v>
       </c>
       <c r="J25" s="8">
-        <v>-3.3634668775093298E-5</v>
+        <v>-2.9128536744634601E-5</v>
       </c>
       <c r="K25" s="8">
-        <v>-2.1321257993841702E-5</v>
+        <v>-2.38231760912954E-5</v>
       </c>
       <c r="L25" s="8">
-        <v>-4.7861067581385998E-5</v>
+        <v>-4.1123282692583602E-5</v>
       </c>
       <c r="M25" s="8">
-        <v>-2.70066441647624E-5</v>
+        <v>-2.7568287042084499E-5</v>
       </c>
       <c r="N25" s="8">
-        <v>-3.9139181867130601E-5</v>
+        <v>-3.5213531937796298E-5</v>
       </c>
       <c r="O25" s="8">
-        <v>-4.2169182807177201E-5</v>
+        <v>-3.1161916154452298E-5</v>
       </c>
       <c r="P25" s="8">
-        <v>-4.5730450361094003E-5</v>
+        <v>-3.8629289670829497E-5</v>
       </c>
       <c r="Q25" s="8">
-        <v>-1.6152441777825999E-5</v>
+        <v>-1.5899863080785099E-5</v>
       </c>
       <c r="R25" s="8">
-        <v>-2.11878228634332E-5</v>
+        <v>-1.3505716957335199E-5</v>
       </c>
       <c r="S25" s="8">
-        <v>-1.58810188010869E-5</v>
+        <v>-1.8053239998575698E-5</v>
       </c>
       <c r="T25" s="8">
-        <v>-2.0674534998908601E-5</v>
+        <v>-2.1045161391780598E-5</v>
       </c>
       <c r="U25" s="8">
-        <v>-1.61364046784057E-5</v>
+        <v>-1.5544439150787701E-5</v>
       </c>
       <c r="V25" s="8">
-        <v>-1.08559109154975E-5</v>
+        <v>-4.3231121222062101E-6</v>
       </c>
       <c r="W25" s="8">
-        <v>1.08416010636646E-5</v>
+        <v>8.1752607270381502E-6</v>
       </c>
       <c r="X25" s="8">
-        <v>1.4938019577859699E-6</v>
+        <v>2.7763091305072701E-6</v>
       </c>
       <c r="Y25" s="8">
-        <v>3.0427461575922E-5</v>
+        <v>1.0191418051885299E-5</v>
       </c>
       <c r="Z25" s="8">
-        <v>4.5558886692049198E-5</v>
+        <v>2.9097044136189399E-5</v>
       </c>
       <c r="AA25" s="8">
-        <v>-2.3157242354800602E-6</v>
+        <v>-1.1467170946729699E-6</v>
       </c>
       <c r="AB25" s="8">
-        <v>2.9363003382122201E-9</v>
+        <v>-4.2464853157679597E-9</v>
       </c>
       <c r="AC25" s="8">
-        <v>2.3578124301434599E-6</v>
+        <v>1.72407959539562E-6</v>
       </c>
       <c r="AD25" s="8">
-        <v>2.57254065320073E-8</v>
+        <v>-5.6509856825766598E-8</v>
       </c>
       <c r="AE25" s="8">
-        <v>6.1527968945627998E-6</v>
+        <v>1.16265602676479E-7</v>
       </c>
       <c r="AF25" s="8">
-        <v>-5.4770324948967097E-4</v>
+        <v>-3.1655779212900299E-4</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -7222,97 +7223,97 @@
         <v>48</v>
       </c>
       <c r="B26" s="8">
-        <v>3.0835126259059799E-2</v>
+        <v>3.44833105647986E-2</v>
       </c>
       <c r="C26" s="8">
-        <v>4.9960856219291698E-5</v>
+        <v>3.8277125207519503E-5</v>
       </c>
       <c r="D26" s="8">
-        <v>-2.8996706449829501E-5</v>
+        <v>-2.26315833790098E-5</v>
       </c>
       <c r="E26" s="8">
-        <v>2.1523857111346501E-4</v>
+        <v>1.68765660797707E-4</v>
       </c>
       <c r="F26" s="8">
-        <v>2.8670363005618002E-5</v>
+        <v>2.2092207183286601E-5</v>
       </c>
       <c r="G26" s="8">
-        <v>-1.311447909988E-5</v>
+        <v>-3.2191950471297599E-6</v>
       </c>
       <c r="H26" s="8">
-        <v>2.2964596690976501E-5</v>
+        <v>1.36824618717904E-5</v>
       </c>
       <c r="I26" s="8">
-        <v>1.5377625981489099E-5</v>
+        <v>7.1549796684478098E-6</v>
       </c>
       <c r="J26" s="8">
-        <v>4.4795847847080399E-5</v>
+        <v>2.4342448627462001E-5</v>
       </c>
       <c r="K26" s="8">
-        <v>1.0765165245551999E-5</v>
+        <v>8.7678985060418204E-6</v>
       </c>
       <c r="L26" s="8">
-        <v>4.6770773274575097E-5</v>
+        <v>3.0784171367229803E-5</v>
       </c>
       <c r="M26" s="8">
-        <v>4.2996462274552398E-5</v>
+        <v>2.04241287357682E-5</v>
       </c>
       <c r="N26" s="8">
-        <v>4.8440801622610499E-5</v>
+        <v>3.1758192246236301E-5</v>
       </c>
       <c r="O26" s="8">
-        <v>4.0700433989505798E-5</v>
+        <v>3.0056493142876501E-5</v>
       </c>
       <c r="P26" s="8">
-        <v>4.9743362690267503E-5</v>
+        <v>3.4304687460243302E-5</v>
       </c>
       <c r="Q26" s="8">
-        <v>6.6962399651288395E-5</v>
+        <v>5.3283980456599201E-5</v>
       </c>
       <c r="R26" s="8">
-        <v>1.9688040213070699E-5</v>
+        <v>1.61817515153918E-5</v>
       </c>
       <c r="S26" s="8">
-        <v>2.6776318544249002E-5</v>
+        <v>1.8281612615116899E-5</v>
       </c>
       <c r="T26" s="8">
-        <v>3.8778006033768097E-5</v>
+        <v>4.3348141485591701E-5</v>
       </c>
       <c r="U26" s="8">
-        <v>5.8067607343704796E-6</v>
+        <v>-7.7485180559398298E-7</v>
       </c>
       <c r="V26" s="8">
-        <v>7.6812333750776906E-6</v>
+        <v>3.55431784952156E-6</v>
       </c>
       <c r="W26" s="8">
-        <v>4.9036715918067804E-6</v>
+        <v>-9.9580742348248902E-7</v>
       </c>
       <c r="X26" s="8">
-        <v>1.15262719514252E-5</v>
+        <v>3.7883514038165999E-6</v>
       </c>
       <c r="Y26" s="8">
-        <v>-1.13531822386823E-4</v>
+        <v>-9.3111197209676402E-5</v>
       </c>
       <c r="Z26" s="8">
-        <v>-2.3157242354800602E-6</v>
+        <v>-1.1467170946729699E-6</v>
       </c>
       <c r="AA26" s="8">
-        <v>4.4750718116636899E-5</v>
+        <v>3.2815396537098903E-5</v>
       </c>
       <c r="AB26" s="8">
-        <v>-4.1543863283167601E-7</v>
+        <v>-3.0795534846573098E-7</v>
       </c>
       <c r="AC26" s="8">
-        <v>-5.2217453214685201E-6</v>
+        <v>-3.80850560200112E-6</v>
       </c>
       <c r="AD26" s="8">
-        <v>-1.83850311204586E-6</v>
+        <v>-1.3507813705517501E-6</v>
       </c>
       <c r="AE26" s="8">
-        <v>1.9844403148915799E-5</v>
+        <v>1.3982340417995101E-5</v>
       </c>
       <c r="AF26" s="8">
-        <v>-1.00100479164715E-3</v>
+        <v>-7.28529333887984E-4</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
@@ -7320,97 +7321,97 @@
         <v>49</v>
       </c>
       <c r="B27" s="8">
-        <v>-5.2935567153414298E-4</v>
+        <v>-5.5002444342896995E-4</v>
       </c>
       <c r="C27" s="8">
-        <v>-5.9271209308084304E-7</v>
+        <v>-4.4866372998640298E-7</v>
       </c>
       <c r="D27" s="8">
-        <v>1.4044594011223399E-7</v>
+        <v>1.12089594352502E-7</v>
       </c>
       <c r="E27" s="8">
-        <v>-1.8168299274073099E-6</v>
+        <v>-1.42675270740487E-6</v>
       </c>
       <c r="F27" s="8">
-        <v>-4.47720382063782E-7</v>
+        <v>-3.50618630472197E-7</v>
       </c>
       <c r="G27" s="8">
-        <v>7.7556325408841003E-8</v>
+        <v>-2.4461453760613501E-9</v>
       </c>
       <c r="H27" s="8">
-        <v>-4.59798533174453E-7</v>
+        <v>-3.2391900034712001E-7</v>
       </c>
       <c r="I27" s="8">
-        <v>-1.3942838193155E-7</v>
+        <v>-6.9358125359632595E-8</v>
       </c>
       <c r="J27" s="8">
-        <v>-3.5386117864702402E-7</v>
+        <v>-1.83799025828355E-7</v>
       </c>
       <c r="K27" s="8">
-        <v>-3.3441185155948299E-8</v>
+        <v>-4.4605772097792299E-8</v>
       </c>
       <c r="L27" s="8">
-        <v>-3.5225352668302998E-7</v>
+        <v>-2.32806765575063E-7</v>
       </c>
       <c r="M27" s="8">
-        <v>-3.2330155275160702E-7</v>
+        <v>-1.3118006608978299E-7</v>
       </c>
       <c r="N27" s="8">
-        <v>-4.1475301244220901E-7</v>
+        <v>-2.7943379093036902E-7</v>
       </c>
       <c r="O27" s="8">
-        <v>-3.5186698747759499E-7</v>
+        <v>-2.6997151693475101E-7</v>
       </c>
       <c r="P27" s="8">
-        <v>-3.9877838251645799E-7</v>
+        <v>-2.8371600823174798E-7</v>
       </c>
       <c r="Q27" s="8">
-        <v>-5.3591319747416199E-7</v>
+        <v>-4.2294495287388402E-7</v>
       </c>
       <c r="R27" s="8">
-        <v>-1.6705108955779699E-7</v>
+        <v>-1.4383094386253899E-7</v>
       </c>
       <c r="S27" s="8">
-        <v>-1.11104502723895E-7</v>
+        <v>-8.9271201703801602E-8</v>
       </c>
       <c r="T27" s="8">
-        <v>-2.1422466781597199E-7</v>
+        <v>-2.94314048158248E-7</v>
       </c>
       <c r="U27" s="8">
-        <v>1.6785398136138201E-8</v>
+        <v>5.8901365886500302E-8</v>
       </c>
       <c r="V27" s="8">
-        <v>8.5731017040313501E-9</v>
+        <v>2.5441536155777301E-8</v>
       </c>
       <c r="W27" s="8">
-        <v>4.1038573731187402E-8</v>
+        <v>7.8676433748307596E-8</v>
       </c>
       <c r="X27" s="8">
-        <v>-6.6715033595401904E-8</v>
+        <v>-1.3253464341926199E-9</v>
       </c>
       <c r="Y27" s="8">
-        <v>1.2905898832123601E-6</v>
+        <v>1.0366058796827001E-6</v>
       </c>
       <c r="Z27" s="8">
-        <v>2.9363003382122201E-9</v>
+        <v>-4.2464853157679597E-9</v>
       </c>
       <c r="AA27" s="8">
-        <v>-4.1543863283167601E-7</v>
+        <v>-3.0795534846573098E-7</v>
       </c>
       <c r="AB27" s="8">
-        <v>4.0323122486170099E-9</v>
+        <v>3.0299693811011099E-9</v>
       </c>
       <c r="AC27" s="8">
-        <v>5.4277559971531603E-8</v>
+        <v>4.0509506026858202E-8</v>
       </c>
       <c r="AD27" s="8">
-        <v>2.65223247507377E-8</v>
+        <v>1.9480536584234701E-8</v>
       </c>
       <c r="AE27" s="8">
-        <v>-2.13074029724394E-7</v>
+        <v>-1.48020859038985E-7</v>
       </c>
       <c r="AF27" s="8">
-        <v>8.6369103105185E-6</v>
+        <v>6.3447809961763403E-6</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
@@ -7418,97 +7419,97 @@
         <v>18</v>
       </c>
       <c r="B28" s="8">
-        <v>0.51583020859116102</v>
+        <v>0.51434771842252602</v>
       </c>
       <c r="C28" s="8">
-        <v>1.9537367433311E-7</v>
+        <v>-2.0624941559523401E-6</v>
       </c>
       <c r="D28" s="8">
-        <v>2.8337035697823298E-5</v>
+        <v>1.7858610406278699E-5</v>
       </c>
       <c r="E28" s="8">
-        <v>-1.84771376259494E-5</v>
+        <v>-1.3072422088211801E-5</v>
       </c>
       <c r="F28" s="8">
-        <v>-9.4755087277608297E-6</v>
+        <v>-9.7764234897121507E-6</v>
       </c>
       <c r="G28" s="8">
-        <v>3.2520195486707897E-5</v>
+        <v>2.1714595934536899E-5</v>
       </c>
       <c r="H28" s="8">
-        <v>2.7340167579836E-5</v>
+        <v>1.5800251116395101E-5</v>
       </c>
       <c r="I28" s="8">
-        <v>5.5429808852070404E-6</v>
+        <v>6.6583969087507302E-6</v>
       </c>
       <c r="J28" s="8">
-        <v>-3.9788094929477201E-5</v>
+        <v>-2.1884028565649699E-5</v>
       </c>
       <c r="K28" s="8">
-        <v>4.7111321309611003E-6</v>
+        <v>4.6831607499127103E-6</v>
       </c>
       <c r="L28" s="8">
-        <v>-2.2271571190318501E-5</v>
+        <v>-1.61945059632531E-5</v>
       </c>
       <c r="M28" s="8">
-        <v>-4.1565924680129503E-5</v>
+        <v>-2.7274544463754799E-5</v>
       </c>
       <c r="N28" s="8">
-        <v>-3.80510178376622E-5</v>
+        <v>-2.5921318177962599E-5</v>
       </c>
       <c r="O28" s="8">
-        <v>-3.0025605176261102E-5</v>
+        <v>-1.9356988529694E-5</v>
       </c>
       <c r="P28" s="8">
-        <v>-2.1946171195734E-5</v>
+        <v>-1.32486692496256E-5</v>
       </c>
       <c r="Q28" s="8">
-        <v>-2.5704786345445799E-5</v>
+        <v>-1.5305125523319501E-5</v>
       </c>
       <c r="R28" s="8">
-        <v>1.3967176173467299E-5</v>
+        <v>7.5524382012530103E-6</v>
       </c>
       <c r="S28" s="8">
-        <v>-1.9960511563682401E-5</v>
+        <v>-1.5751065671979301E-5</v>
       </c>
       <c r="T28" s="8">
-        <v>-3.18285968860809E-5</v>
+        <v>-1.9989521205405801E-5</v>
       </c>
       <c r="U28" s="8">
-        <v>-9.8318830310963701E-6</v>
+        <v>-6.2973314165602897E-6</v>
       </c>
       <c r="V28" s="8">
-        <v>-1.62687339521438E-6</v>
+        <v>-1.89745777961124E-6</v>
       </c>
       <c r="W28" s="8">
-        <v>-3.60192170009771E-6</v>
+        <v>-1.4038264992738799E-7</v>
       </c>
       <c r="X28" s="8">
-        <v>3.3672766714307099E-7</v>
+        <v>-7.9601118039708399E-9</v>
       </c>
       <c r="Y28" s="8">
-        <v>-8.7595251560827796E-5</v>
+        <v>-6.7511039266497305E-5</v>
       </c>
       <c r="Z28" s="8">
-        <v>2.3578124301434599E-6</v>
+        <v>1.72407959539562E-6</v>
       </c>
       <c r="AA28" s="8">
-        <v>-5.2217453214685201E-6</v>
+        <v>-3.80850560200112E-6</v>
       </c>
       <c r="AB28" s="8">
-        <v>5.4277559971531603E-8</v>
+        <v>4.0509506026858202E-8</v>
       </c>
       <c r="AC28" s="8">
-        <v>3.21450533562608E-5</v>
+        <v>2.38353223919609E-5</v>
       </c>
       <c r="AD28" s="8">
-        <v>2.4955615048827599E-6</v>
+        <v>1.6735431270951999E-6</v>
       </c>
       <c r="AE28" s="8">
-        <v>2.1395071352209302E-5</v>
+        <v>1.7616931975248201E-5</v>
       </c>
       <c r="AF28" s="8">
-        <v>-3.9822032602121601E-4</v>
+        <v>-2.8588874847273901E-4</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
@@ -7516,97 +7517,97 @@
         <v>50</v>
       </c>
       <c r="B29" s="8">
-        <v>-4.6495034593857697E-2</v>
+        <v>-4.8851595888663703E-2</v>
       </c>
       <c r="C29" s="8">
-        <v>-2.2478727004080199E-7</v>
+        <v>-9.5378344862199601E-8</v>
       </c>
       <c r="D29" s="8">
-        <v>-7.3764160587729402E-6</v>
+        <v>-5.1376684707118898E-6</v>
       </c>
       <c r="E29" s="8">
-        <v>-7.7207431865631299E-7</v>
+        <v>-5.4949633685124295E-7</v>
       </c>
       <c r="F29" s="8">
-        <v>3.8557142933592896E-6</v>
+        <v>3.3160001429759501E-6</v>
       </c>
       <c r="G29" s="8">
-        <v>6.8154745404337501E-6</v>
+        <v>5.0993407326699696E-6</v>
       </c>
       <c r="H29" s="8">
-        <v>8.6260049450565798E-6</v>
+        <v>7.1121667669341403E-6</v>
       </c>
       <c r="I29" s="8">
-        <v>-6.2674598652166803E-7</v>
+        <v>1.15372813028391E-6</v>
       </c>
       <c r="J29" s="8">
-        <v>-2.47507421196567E-6</v>
+        <v>-9.6443425739680201E-7</v>
       </c>
       <c r="K29" s="8">
-        <v>5.7162517755333003E-6</v>
+        <v>5.3646374898221998E-6</v>
       </c>
       <c r="L29" s="8">
-        <v>-1.78348677322715E-6</v>
+        <v>-9.71923573944943E-7</v>
       </c>
       <c r="M29" s="8">
-        <v>-2.6753411503209099E-6</v>
+        <v>-1.3377557896753101E-6</v>
       </c>
       <c r="N29" s="8">
-        <v>-3.6009848806514798E-6</v>
+        <v>-1.7770997084841599E-6</v>
       </c>
       <c r="O29" s="8">
-        <v>-6.0834902577431698E-6</v>
+        <v>-3.3297926801775999E-6</v>
       </c>
       <c r="P29" s="8">
-        <v>-1.7093373471616401E-6</v>
+        <v>-8.7502828710036599E-7</v>
       </c>
       <c r="Q29" s="8">
-        <v>-3.4711754374417602E-7</v>
+        <v>8.4653209894722195E-7</v>
       </c>
       <c r="R29" s="8">
-        <v>-3.74664897787857E-6</v>
+        <v>-2.0810114648482401E-6</v>
       </c>
       <c r="S29" s="8">
-        <v>1.18052823990489E-5</v>
+        <v>6.3442488630703199E-6</v>
       </c>
       <c r="T29" s="8">
-        <v>-6.4599382033204897E-6</v>
+        <v>-4.9519808537223396E-6</v>
       </c>
       <c r="U29" s="8">
-        <v>-3.29264052820027E-6</v>
+        <v>-1.1643442175534399E-6</v>
       </c>
       <c r="V29" s="8">
-        <v>-1.01962893170838E-6</v>
+        <v>3.5107206495501398E-7</v>
       </c>
       <c r="W29" s="8">
-        <v>-3.82554767037291E-6</v>
+        <v>-1.5246218719420099E-6</v>
       </c>
       <c r="X29" s="8">
-        <v>-7.67978569468998E-6</v>
+        <v>-4.1293388728434297E-6</v>
       </c>
       <c r="Y29" s="8">
-        <v>8.5997175046871295E-5</v>
+        <v>6.6298046674749102E-5</v>
       </c>
       <c r="Z29" s="8">
-        <v>2.57254065320073E-8</v>
+        <v>-5.6509856825766598E-8</v>
       </c>
       <c r="AA29" s="8">
-        <v>-1.83850311204586E-6</v>
+        <v>-1.3507813705517501E-6</v>
       </c>
       <c r="AB29" s="8">
-        <v>2.65223247507377E-8</v>
+        <v>1.9480536584234701E-8</v>
       </c>
       <c r="AC29" s="8">
-        <v>2.4955615048827599E-6</v>
+        <v>1.6735431270951999E-6</v>
       </c>
       <c r="AD29" s="8">
-        <v>4.6702428543630904E-6</v>
+        <v>3.5327792613185398E-6</v>
       </c>
       <c r="AE29" s="8">
-        <v>-3.4286663556683602E-6</v>
+        <v>-2.7442379982238601E-6</v>
       </c>
       <c r="AF29" s="8">
-        <v>-2.41321405609707E-4</v>
+        <v>-1.8190705973703699E-4</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
@@ -7614,97 +7615,97 @@
         <v>4</v>
       </c>
       <c r="B30" s="8">
-        <v>-0.50649597296139603</v>
+        <v>-0.50382008485685903</v>
       </c>
       <c r="C30" s="8">
-        <v>3.4765388771384202E-5</v>
+        <v>3.56806776970703E-5</v>
       </c>
       <c r="D30" s="8">
-        <v>2.4381918286106602E-5</v>
+        <v>3.2141074307096401E-5</v>
       </c>
       <c r="E30" s="8">
-        <v>5.6212547344424101E-5</v>
+        <v>4.0434918179314501E-5</v>
       </c>
       <c r="F30" s="8">
-        <v>2.2053885031994599E-4</v>
+        <v>1.58240065566467E-4</v>
       </c>
       <c r="G30" s="8">
-        <v>-5.2204729394408401E-5</v>
+        <v>-3.59681661507263E-5</v>
       </c>
       <c r="H30" s="8">
-        <v>8.1975869074248398E-5</v>
+        <v>1.9493443158649301E-5</v>
       </c>
       <c r="I30" s="8">
-        <v>1.29370215620344E-4</v>
+        <v>9.4318092781603798E-5</v>
       </c>
       <c r="J30" s="8">
-        <v>1.5554310311606301E-4</v>
+        <v>1.2351654348261799E-4</v>
       </c>
       <c r="K30" s="8">
-        <v>1.04825224356768E-4</v>
+        <v>8.7184867609805801E-5</v>
       </c>
       <c r="L30" s="8">
-        <v>1.1226244316264E-4</v>
+        <v>1.08484040202177E-4</v>
       </c>
       <c r="M30" s="8">
-        <v>2.10789727162438E-4</v>
+        <v>1.5480723694247199E-4</v>
       </c>
       <c r="N30" s="8">
-        <v>1.7958724863632199E-4</v>
+        <v>1.6026663310050399E-4</v>
       </c>
       <c r="O30" s="8">
-        <v>1.0183127722180401E-4</v>
+        <v>9.9770514449259805E-5</v>
       </c>
       <c r="P30" s="8">
-        <v>1.6744977284978299E-4</v>
+        <v>1.4781598336841001E-4</v>
       </c>
       <c r="Q30" s="8">
-        <v>1.5264729666305299E-4</v>
+        <v>1.76127397211751E-4</v>
       </c>
       <c r="R30" s="8">
-        <v>5.7211024127117701E-5</v>
+        <v>9.7167713338926502E-5</v>
       </c>
       <c r="S30" s="8">
-        <v>-5.8696423875529303E-5</v>
+        <v>2.7037100275640499E-6</v>
       </c>
       <c r="T30" s="8">
-        <v>-8.0821919107185804E-6</v>
+        <v>2.9485886840635E-6</v>
       </c>
       <c r="U30" s="8">
-        <v>1.1429896866467399E-6</v>
+        <v>-3.09401121375623E-6</v>
       </c>
       <c r="V30" s="8">
-        <v>6.3597273331523601E-5</v>
+        <v>5.2607278529689499E-5</v>
       </c>
       <c r="W30" s="8">
-        <v>2.79940389253745E-5</v>
+        <v>-2.30135253225843E-6</v>
       </c>
       <c r="X30" s="8">
-        <v>-1.69638255491436E-5</v>
+        <v>-2.4996167309672399E-5</v>
       </c>
       <c r="Y30" s="8">
-        <v>-6.1995988585808299E-5</v>
+        <v>-5.02039356084404E-5</v>
       </c>
       <c r="Z30" s="8">
-        <v>6.1527968945627998E-6</v>
+        <v>1.16265602676479E-7</v>
       </c>
       <c r="AA30" s="8">
-        <v>1.9844403148915799E-5</v>
+        <v>1.3982340417995101E-5</v>
       </c>
       <c r="AB30" s="8">
-        <v>-2.13074029724394E-7</v>
+        <v>-1.48020859038985E-7</v>
       </c>
       <c r="AC30" s="8">
-        <v>2.1395071352209302E-5</v>
+        <v>1.7616931975248201E-5</v>
       </c>
       <c r="AD30" s="8">
-        <v>-3.4286663556683602E-6</v>
+        <v>-2.7442379982238601E-6</v>
       </c>
       <c r="AE30" s="8">
-        <v>1.4002109993245799E-3</v>
+        <v>1.0885576163336701E-3</v>
       </c>
       <c r="AF30" s="8">
-        <v>-1.3786224490977099E-3</v>
+        <v>-1.01083119587212E-3</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -7712,97 +7713,97 @@
         <v>8</v>
       </c>
       <c r="B31" s="8">
-        <v>7.2480123278155597</v>
+        <v>7.5133035790918301</v>
       </c>
       <c r="C31" s="8">
-        <v>-2.4542698855680098E-3</v>
+        <v>-1.8331472171509999E-3</v>
       </c>
       <c r="D31" s="8">
-        <v>2.7313052606342701E-5</v>
+        <v>1.3314311295563701E-4</v>
       </c>
       <c r="E31" s="8">
-        <v>-6.9135954020958096E-3</v>
+        <v>-5.4429747032758297E-3</v>
       </c>
       <c r="F31" s="8">
-        <v>-1.2890159632446599E-3</v>
+        <v>-9.6146032241205097E-4</v>
       </c>
       <c r="G31" s="8">
-        <v>-1.3619116532863601E-3</v>
+        <v>-1.2169697293377901E-3</v>
       </c>
       <c r="H31" s="8">
-        <v>-2.9328679580843601E-3</v>
+        <v>-2.16736343368281E-3</v>
       </c>
       <c r="I31" s="8">
-        <v>-3.9674796296594204E-3</v>
+        <v>-2.9119904647221199E-3</v>
       </c>
       <c r="J31" s="8">
-        <v>-4.3283767875363704E-3</v>
+        <v>-3.0405545572973602E-3</v>
       </c>
       <c r="K31" s="8">
-        <v>-4.99602939742893E-3</v>
+        <v>-3.6637257779822902E-3</v>
       </c>
       <c r="L31" s="8">
-        <v>-4.7173784418936696E-3</v>
+        <v>-3.34205043482237E-3</v>
       </c>
       <c r="M31" s="8">
-        <v>-4.5881572585573698E-3</v>
+        <v>-3.0863304901270999E-3</v>
       </c>
       <c r="N31" s="8">
-        <v>-4.4290039680673597E-3</v>
+        <v>-3.1617315106646999E-3</v>
       </c>
       <c r="O31" s="8">
-        <v>-3.9710661631880704E-3</v>
+        <v>-3.04941863417782E-3</v>
       </c>
       <c r="P31" s="8">
-        <v>-4.7488306469483897E-3</v>
+        <v>-3.41639667813341E-3</v>
       </c>
       <c r="Q31" s="8">
-        <v>-5.6465546488757897E-3</v>
+        <v>-4.2994049611112502E-3</v>
       </c>
       <c r="R31" s="8">
-        <v>-4.2919591708235599E-3</v>
+        <v>-3.30926235510124E-3</v>
       </c>
       <c r="S31" s="8">
-        <v>-5.3557541859268901E-3</v>
+        <v>-3.6254356706759902E-3</v>
       </c>
       <c r="T31" s="8">
-        <v>-7.4725403196196198E-4</v>
+        <v>-8.2595513948921604E-4</v>
       </c>
       <c r="U31" s="8">
-        <v>-2.2103235855487598E-3</v>
+        <v>-1.41664342203662E-3</v>
       </c>
       <c r="V31" s="8">
-        <v>-2.8409735738362499E-3</v>
+        <v>-2.023016610261E-3</v>
       </c>
       <c r="W31" s="8">
-        <v>-3.08464000034487E-3</v>
+        <v>-2.1170347658758001E-3</v>
       </c>
       <c r="X31" s="8">
-        <v>-3.3052825074266099E-3</v>
+        <v>-2.3505563205864898E-3</v>
       </c>
       <c r="Y31" s="8">
-        <v>-2.86707906624437E-3</v>
+        <v>-1.7936134470325799E-3</v>
       </c>
       <c r="Z31" s="8">
-        <v>-5.4770324948967097E-4</v>
+        <v>-3.1655779212900299E-4</v>
       </c>
       <c r="AA31" s="8">
-        <v>-1.00100479164715E-3</v>
+        <v>-7.28529333887984E-4</v>
       </c>
       <c r="AB31" s="8">
-        <v>8.6369103105185E-6</v>
+        <v>6.3447809961763403E-6</v>
       </c>
       <c r="AC31" s="8">
-        <v>-3.9822032602121601E-4</v>
+        <v>-2.8588874847273901E-4</v>
       </c>
       <c r="AD31" s="8">
-        <v>-2.41321405609707E-4</v>
+        <v>-1.8190705973703699E-4</v>
       </c>
       <c r="AE31" s="8">
-        <v>-1.3786224490977099E-3</v>
+        <v>-1.01083119587212E-3</v>
       </c>
       <c r="AF31" s="8">
-        <v>6.2092217083099303E-2</v>
+        <v>4.3828008715741301E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7812,14 +7813,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59539B72-1230-4A6D-80E6-59AE8E093E38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39740585-ECE9-465B-B340-FC9F2AA7D554}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="30.7109375" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7859,10 +7861,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="8">
-        <v>0.94648283319485504</v>
+        <v>2.2308687127043498</v>
       </c>
       <c r="C2" s="8">
-        <v>4.6046027090929101E-2</v>
+        <v>6.5940278412306597E-2</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -7891,13 +7893,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.74452787110320595</v>
+        <v>-0.30192581306493699</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
       </c>
       <c r="D3" s="8">
-        <v>3.8881675172174397E-2</v>
+        <v>7.5212452838669494E-2</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -7923,7 +7925,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="8">
-        <v>8.6643254685205701E-2</v>
+        <v>2.2472156436933899</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
@@ -7932,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <v>4.6383158344720898E-2</v>
+        <v>0.10969848117255999</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -7955,7 +7957,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="8">
-        <v>0.189027531625411</v>
+        <v>0.64869909269126902</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -7967,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <v>1.6809216722719799E-2</v>
+        <v>3.2433040660780399E-2</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -7987,7 +7989,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="8">
-        <v>0.170241292824688</v>
+        <v>0.247487279976882</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
@@ -8002,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <v>2.5361728500120799E-2</v>
+        <v>6.5649095772349397E-2</v>
       </c>
       <c r="H6" s="8">
         <v>0</v>
@@ -8019,7 +8021,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="8">
-        <v>0.48999654230929401</v>
+        <v>0.47342809895626298</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
@@ -8037,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>3.5297224625596098E-2</v>
+        <v>8.2853936821462401E-2</v>
       </c>
       <c r="I7" s="8">
         <v>0</v>
@@ -8051,7 +8053,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="8">
-        <v>-6.3069856012254497E-2</v>
+        <v>0.115955640008294</v>
       </c>
       <c r="C8" s="8">
         <v>0</v>
@@ -8072,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>3.9868826801572697E-3</v>
+        <v>4.3199823340228701E-3</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
@@ -8083,7 +8085,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="8">
-        <v>2.3857195384732799E-2</v>
+        <v>-4.5846181593811902E-2</v>
       </c>
       <c r="C9" s="8">
         <v>0</v>
@@ -8107,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="8">
-        <v>2.61799734934479E-3</v>
+        <v>5.5223831446959302E-3</v>
       </c>
     </row>
   </sheetData>
@@ -8117,14 +8119,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2117C167-BBBF-44E5-8FF1-972C53EC0081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCA8CDA-6B32-4591-B626-E528AD0FFA09}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="30.7109375" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8164,10 +8167,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="8">
-        <v>1.31222396910015</v>
+        <v>1.57794483170301</v>
       </c>
       <c r="C2" s="8">
-        <v>7.2415398598534603E-2</v>
+        <v>4.4525432283931202E-2</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -8196,13 +8199,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.83232884836702503</v>
+        <v>-0.44526296712864499</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
       </c>
       <c r="D3" s="8">
-        <v>6.1759597205023498E-2</v>
+        <v>3.1298488008007601E-2</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -8228,7 +8231,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="8">
-        <v>0.62385513389612701</v>
+        <v>0.95918422877926801</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
@@ -8237,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <v>9.7341686841387998E-2</v>
+        <v>4.0999388247078501E-2</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -8260,7 +8263,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="8">
-        <v>0.45165677214143501</v>
+        <v>0.410449201544345</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -8272,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <v>2.1906510584743601E-2</v>
+        <v>2.48672606982888E-2</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -8292,7 +8295,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="8">
-        <v>0.22555831414433999</v>
+        <v>0.51357839382913895</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
@@ -8307,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <v>3.5551707986293E-2</v>
+        <v>4.6688208376807899E-2</v>
       </c>
       <c r="H6" s="8">
         <v>0</v>
@@ -8324,7 +8327,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="8">
-        <v>0.56553085623078203</v>
+        <v>0.90797354812527298</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
@@ -8342,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>4.8305181175741001E-2</v>
+        <v>6.2768857792423097E-2</v>
       </c>
       <c r="I7" s="8">
         <v>0</v>
@@ -8356,7 +8359,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="8">
-        <v>-9.1966775986940905E-2</v>
+        <v>6.9757710534505496E-2</v>
       </c>
       <c r="C8" s="8">
         <v>0</v>
@@ -8377,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>4.5653133504445203E-3</v>
+        <v>4.0833692655597303E-3</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
@@ -8388,7 +8391,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="8">
-        <v>6.5276887391865102E-2</v>
+        <v>-7.9821077067514498E-2</v>
       </c>
       <c r="C9" s="8">
         <v>0</v>
@@ -8412,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="8">
-        <v>2.8592596903319698E-3</v>
+        <v>7.27123173416502E-3</v>
       </c>
     </row>
   </sheetData>

--- a/input/reg_health_mental.xlsx
+++ b/input/reg_health_mental.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\andy_local\SimPaths project files\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D179F5-C628-4575-84B9-9FD17F5D5FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B1EAC9-423A-43FB-B4D6-8A9E7509A719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="27000" windowHeight="14100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="UK_HM1_C" sheetId="7" r:id="rId3"/>
     <sheet name="UK_HM2_Males_C" sheetId="8" r:id="rId4"/>
     <sheet name="UK_HM2_Females_C" sheetId="9" r:id="rId5"/>
-    <sheet name="UK_HM1_L" sheetId="16" r:id="rId6"/>
-    <sheet name="UK_HM2_Males_L" sheetId="17" r:id="rId7"/>
-    <sheet name="UK_HM2_Females_L" sheetId="18" r:id="rId8"/>
+    <sheet name="UK_HM1_L" sheetId="19" r:id="rId6"/>
+    <sheet name="UK_HM2_Males_L" sheetId="20" r:id="rId7"/>
+    <sheet name="UK_HM2_Females_L" sheetId="21" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="54">
   <si>
     <t>Date modified</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>Dhe_pcs_L1</t>
+  </si>
+  <si>
+    <t>D_Home_owner_L1</t>
+  </si>
+  <si>
+    <t>Dcpst_Single_L1</t>
+  </si>
+  <si>
+    <t>Dcpst_PreviouslyPartnered_L1</t>
   </si>
 </sst>
 </file>
@@ -4326,7 +4335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83C27E0-FA2B-440E-9BE2-866FFC98D161}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4757,10 +4766,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA65DFE-C60F-4D4D-8008-9FC7A3FF9E6E}">
-  <dimension ref="A1:AF31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8245F431-0F24-4624-A6D5-5D6AADF13317}">
+  <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4768,7 +4777,7 @@
     <col min="2" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -4776,55 +4785,55 @@
         <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="Q1" s="8" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>16</v>
@@ -4842,2968 +4851,2780 @@
         <v>40</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2.4195958501664401E-2</v>
+      </c>
+      <c r="C2" s="8">
+        <v>5.4919605445868502E-4</v>
+      </c>
+      <c r="D2" s="8">
+        <v>4.0512308198994502E-4</v>
+      </c>
+      <c r="E2" s="8">
+        <v>-1.08715793209818E-4</v>
+      </c>
+      <c r="F2" s="8">
+        <v>-8.4676651776102694E-5</v>
+      </c>
+      <c r="G2" s="8">
+        <v>-6.9108178710131996E-5</v>
+      </c>
+      <c r="H2" s="8">
+        <v>-1.0892821700986599E-4</v>
+      </c>
+      <c r="I2" s="8">
+        <v>-7.4275442937390003E-5</v>
+      </c>
+      <c r="J2" s="8">
+        <v>-8.2828945375216302E-5</v>
+      </c>
+      <c r="K2" s="8">
+        <v>-6.18713044141723E-5</v>
+      </c>
+      <c r="L2" s="8">
+        <v>-8.1341707694572899E-5</v>
+      </c>
+      <c r="M2" s="8">
+        <v>-8.5239585287131899E-5</v>
+      </c>
+      <c r="N2" s="8">
+        <v>-7.93702801573131E-5</v>
+      </c>
+      <c r="O2" s="8">
+        <v>-8.2836745822835502E-5</v>
+      </c>
+      <c r="P2" s="8">
+        <v>-5.5035653519916099E-6</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>1.6792741570474201E-5</v>
+      </c>
+      <c r="R2" s="8">
+        <v>-2.8762216933361899E-5</v>
+      </c>
+      <c r="S2" s="8">
+        <v>-8.2780689322515501E-6</v>
+      </c>
+      <c r="T2" s="8">
+        <v>-4.0592578385189901E-5</v>
+      </c>
+      <c r="U2" s="8">
+        <v>3.9379643112702798E-6</v>
+      </c>
+      <c r="V2" s="8">
+        <v>8.3171355284270804E-6</v>
+      </c>
+      <c r="W2" s="8">
+        <v>4.2359405450572197E-5</v>
+      </c>
+      <c r="X2" s="8">
+        <v>1.1310542853406799E-4</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>3.8098118934446802E-6</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>2.3186605375299799E-6</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>-2.96876384478013E-8</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>3.1793643979944501E-6</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>1.78226410581721E-6</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>-3.0175895987922599E-6</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>-5.4423565653146603E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8">
+        <v>7.9922808730543707E-2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4.0512308198994502E-4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.1175392770619E-3</v>
+      </c>
+      <c r="E3" s="8">
+        <v>-8.3576142469411201E-5</v>
+      </c>
+      <c r="F3" s="8">
+        <v>-6.0294579305028402E-5</v>
+      </c>
+      <c r="G3" s="8">
+        <v>-6.6940974705391993E-5</v>
+      </c>
+      <c r="H3" s="8">
+        <v>-1.12820541444904E-4</v>
+      </c>
+      <c r="I3" s="8">
+        <v>-8.3977193400694195E-5</v>
+      </c>
+      <c r="J3" s="8">
+        <v>-8.4577966213917604E-5</v>
+      </c>
+      <c r="K3" s="8">
+        <v>-4.3207434944475701E-5</v>
+      </c>
+      <c r="L3" s="8">
+        <v>-5.3063497433085801E-5</v>
+      </c>
+      <c r="M3" s="8">
+        <v>-8.0749002867724906E-5</v>
+      </c>
+      <c r="N3" s="8">
+        <v>-4.0465518631359199E-5</v>
+      </c>
+      <c r="O3" s="8">
+        <v>-1.15661976859249E-4</v>
+      </c>
+      <c r="P3" s="8">
+        <v>2.12307898133759E-6</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>7.3934289024519E-5</v>
+      </c>
+      <c r="R3" s="8">
+        <v>-7.4290236969621802E-6</v>
+      </c>
+      <c r="S3" s="8">
+        <v>-1.8698510442086401E-6</v>
+      </c>
+      <c r="T3" s="8">
+        <v>-2.1221594112663101E-5</v>
+      </c>
+      <c r="U3" s="8">
+        <v>3.0996645130731401E-5</v>
+      </c>
+      <c r="V3" s="8">
+        <v>7.9350084145568799E-5</v>
+      </c>
+      <c r="W3" s="8">
+        <v>1.4105827746942399E-4</v>
+      </c>
+      <c r="X3" s="8">
+        <v>2.3307138367297499E-4</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>1.1502362711482E-5</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>4.5098950532457102E-6</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>-1.10974150357213E-7</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>1.78599217928677E-6</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>3.8572680684296296E-6</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>1.5613719487008001E-5</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>-8.3290283417442003E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.15593164654545399</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-1.08715793209818E-4</v>
+      </c>
+      <c r="D4" s="8">
+        <v>-8.3576142469411201E-5</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3.65124643539515E-3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.07134850522502E-3</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.06881146678558E-3</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1.0772090686666301E-3</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1.0722043200595999E-3</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1.0664441415601401E-3</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1.0594285005420701E-3</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1.07590161658082E-3</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1.0845393177464299E-3</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1.0720587591444E-3</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1.07241075551539E-3</v>
+      </c>
+      <c r="P4" s="8">
+        <v>-3.9711514492125398E-6</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>-1.1880154133844001E-4</v>
+      </c>
+      <c r="R4" s="8">
+        <v>5.6169581710956697E-5</v>
+      </c>
+      <c r="S4" s="8">
+        <v>-4.9240868057766601E-6</v>
+      </c>
+      <c r="T4" s="8">
+        <v>3.68857457939547E-5</v>
+      </c>
+      <c r="U4" s="8">
+        <v>4.1729103326868701E-6</v>
+      </c>
+      <c r="V4" s="8">
+        <v>2.0962883283508201E-5</v>
+      </c>
+      <c r="W4" s="8">
+        <v>4.4104427172820198E-5</v>
+      </c>
+      <c r="X4" s="8">
+        <v>7.5498205724560394E-5</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>1.8836165493875299E-6</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>1.4540394072156199E-6</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>-2.0871386532620001E-8</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>-3.6280323879363201E-6</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>-3.5091664866875298E-7</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>-3.5306746234211701E-6</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>-9.2716630111859696E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.102371208426618</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-8.4676651776102694E-5</v>
+      </c>
+      <c r="D5" s="8">
+        <v>-6.0294579305028402E-5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1.07134850522502E-3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2.0514056808268702E-3</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1.06535105216462E-3</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1.07129659042635E-3</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1.0608049460324499E-3</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1.0594521715121901E-3</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1.0566308302990401E-3</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1.06876690399174E-3</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1.0695018880522199E-3</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1.0666111982737599E-3</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1.0624004163837699E-3</v>
+      </c>
+      <c r="P5" s="8">
+        <v>-4.4443045675280199E-7</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>-1.1342860769951601E-4</v>
+      </c>
+      <c r="R5" s="8">
+        <v>6.5990720673164303E-5</v>
+      </c>
+      <c r="S5" s="8">
+        <v>-1.7057351646447302E-5</v>
+      </c>
+      <c r="T5" s="8">
+        <v>4.3090844192620901E-5</v>
+      </c>
+      <c r="U5" s="8">
+        <v>-6.2880685016332799E-6</v>
+      </c>
+      <c r="V5" s="8">
+        <v>3.7063233851829799E-6</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1.46164008306629E-5</v>
+      </c>
+      <c r="X5" s="8">
+        <v>4.9556502837882102E-5</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>2.5089513554834998E-6</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>3.79991630210079E-6</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>-3.8508510245791399E-8</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>-3.1825181167266798E-6</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>-8.7565731745256198E-7</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>-6.3180303899050102E-6</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>-9.8121077930040301E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.11481191545149699</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-6.9108178710131996E-5</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-6.6940974705391993E-5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1.06881146678558E-3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.06535105216462E-3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2.3493264176958702E-3</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.06728626420667E-3</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1.06439887862101E-3</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1.0586726749900199E-3</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.0510322067392699E-3</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1.06819819643432E-3</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1.0737556292180299E-3</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1.0636654886629199E-3</v>
+      </c>
+      <c r="O6" s="8">
+        <v>1.0643575540057299E-3</v>
+      </c>
+      <c r="P6" s="8">
+        <v>4.2682048551782797E-6</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>-1.1758409006427301E-4</v>
+      </c>
+      <c r="R6" s="8">
+        <v>7.2368730689026899E-5</v>
+      </c>
+      <c r="S6" s="8">
+        <v>-9.4587375159042708E-6</v>
+      </c>
+      <c r="T6" s="8">
+        <v>6.2817937381026402E-5</v>
+      </c>
+      <c r="U6" s="8">
+        <v>1.8615676280719099E-5</v>
+      </c>
+      <c r="V6" s="8">
+        <v>4.1551083322488797E-5</v>
+      </c>
+      <c r="W6" s="8">
+        <v>4.9928669776200099E-5</v>
+      </c>
+      <c r="X6" s="8">
+        <v>1.08346350261165E-4</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>1.20824045247566E-7</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>4.0937818072402197E-6</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>-3.5236699134234201E-8</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>-3.0401644107485802E-6</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>-5.6668883152103797E-7</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>-1.7288507969710001E-5</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>-1.0252062148062601E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6.6516399285546896E-2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>-1.0892821700986599E-4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>-1.12820541444904E-4</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1.0772090686666301E-3</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.07129659042635E-3</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1.06728626420667E-3</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2.2996228878462998E-3</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1.0714023883662601E-3</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1.0635623447113401E-3</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1.05792308198684E-3</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1.0716188194651E-3</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1.07711531534498E-3</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1.0698258347399099E-3</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1.0693271426213101E-3</v>
+      </c>
+      <c r="P7" s="8">
+        <v>2.4612120449845999E-6</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>-1.14024379385681E-4</v>
+      </c>
+      <c r="R7" s="8">
+        <v>7.3084651599329405E-5</v>
+      </c>
+      <c r="S7" s="8">
+        <v>-2.0299650416265399E-6</v>
+      </c>
+      <c r="T7" s="8">
+        <v>4.2571056359572699E-5</v>
+      </c>
+      <c r="U7" s="8">
+        <v>2.1918353506485799E-5</v>
+      </c>
+      <c r="V7" s="8">
+        <v>1.8416293187680999E-5</v>
+      </c>
+      <c r="W7" s="8">
+        <v>3.08288208863186E-5</v>
+      </c>
+      <c r="X7" s="8">
+        <v>6.3945139421550705E-5</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>2.7648007721724699E-6</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>3.0291747018516901E-6</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>-2.8249601511346799E-8</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>-3.8748260008656702E-6</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>-1.23893189632272E-6</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>-5.3886009459041703E-6</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>-9.46868246233951E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.168611879419586</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-7.4275442937390003E-5</v>
+      </c>
+      <c r="D8" s="8">
+        <v>-8.3977193400694195E-5</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1.0722043200595999E-3</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.0608049460324499E-3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1.06439887862101E-3</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1.0714023883662601E-3</v>
+      </c>
+      <c r="I8" s="8">
+        <v>2.3313161082928299E-3</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1.0585565472686299E-3</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1.05544258104537E-3</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1.0680527343293899E-3</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1.07095912505945E-3</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1.0642940426958201E-3</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1.0631640325484599E-3</v>
+      </c>
+      <c r="P8" s="8">
+        <v>-6.8139856577085899E-6</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>-1.16354025419592E-4</v>
+      </c>
+      <c r="R8" s="8">
+        <v>5.71666205316695E-5</v>
+      </c>
+      <c r="S8" s="8">
+        <v>2.2368717647622999E-5</v>
+      </c>
+      <c r="T8" s="8">
+        <v>3.9823040541493802E-5</v>
+      </c>
+      <c r="U8" s="8">
+        <v>-6.7536704301496198E-6</v>
+      </c>
+      <c r="V8" s="8">
+        <v>1.2937959954825E-5</v>
+      </c>
+      <c r="W8" s="8">
+        <v>1.8937014308333901E-6</v>
+      </c>
+      <c r="X8" s="8">
+        <v>5.0605238158786502E-5</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>1.6978409151919101E-6</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>4.0541324596371204E-6</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>-4.1247948738422799E-8</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>-5.1389272628331798E-6</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>-1.11565094254127E-6</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>1.9934169083980701E-6</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>-9.4153885507760205E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4.9914055548995903E-2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-8.2828945375216302E-5</v>
+      </c>
+      <c r="D9" s="8">
+        <v>-8.4577966213917604E-5</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1.0664441415601401E-3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1.0594521715121901E-3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1.0586726749900199E-3</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1.0635623447113401E-3</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1.0585565472686299E-3</v>
+      </c>
+      <c r="J9" s="8">
+        <v>2.0480274010865902E-3</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1.05312525633786E-3</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1.0658135325970299E-3</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1.06704525412538E-3</v>
+      </c>
+      <c r="N9" s="8">
+        <v>1.06147314880007E-3</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1.05490432450641E-3</v>
+      </c>
+      <c r="P9" s="8">
+        <v>3.3651608958302601E-6</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>-9.2877503285804903E-5</v>
+      </c>
+      <c r="R9" s="8">
+        <v>7.8412020494100998E-5</v>
+      </c>
+      <c r="S9" s="8">
+        <v>1.32228971508395E-5</v>
+      </c>
+      <c r="T9" s="8">
+        <v>3.7981668450014302E-5</v>
+      </c>
+      <c r="U9" s="8">
+        <v>5.0968749236754097E-6</v>
+      </c>
+      <c r="V9" s="8">
+        <v>7.2767229358422396E-6</v>
+      </c>
+      <c r="W9" s="8">
+        <v>3.3932315697247498E-6</v>
+      </c>
+      <c r="X9" s="8">
+        <v>2.5266040376806101E-5</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>2.9313715455486101E-6</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>5.2899874033586298E-6</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>-6.1720025210646596E-8</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>-5.0673218306440097E-6</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>-2.3905009615432402E-6</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>9.8637187167365297E-6</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>-9.1321204151468096E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.111545811158379</v>
+      </c>
+      <c r="C10" s="8">
+        <v>-6.18713044141723E-5</v>
+      </c>
+      <c r="D10" s="8">
+        <v>-4.3207434944475701E-5</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1.0594285005420701E-3</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1.0566308302990401E-3</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1.0510322067392699E-3</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1.05792308198684E-3</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1.05544258104537E-3</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1.05312525633786E-3</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1.7700452766392001E-3</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1.06460003156113E-3</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1.06133899408222E-3</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1.0620796379857201E-3</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1.049480629283E-3</v>
+      </c>
+      <c r="P10" s="8">
+        <v>4.1089378182980204E-6</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>-1.05048461668122E-4</v>
+      </c>
+      <c r="R10" s="8">
+        <v>7.3434985859314203E-5</v>
+      </c>
+      <c r="S10" s="8">
+        <v>1.56302883109403E-6</v>
+      </c>
+      <c r="T10" s="8">
+        <v>4.2835056594919702E-5</v>
+      </c>
+      <c r="U10" s="8">
+        <v>1.42429998842197E-6</v>
+      </c>
+      <c r="V10" s="8">
+        <v>-6.6221732725682299E-6</v>
+      </c>
+      <c r="W10" s="8">
+        <v>-1.02458102563469E-5</v>
+      </c>
+      <c r="X10" s="8">
+        <v>-2.4041000478841299E-6</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>4.18596249083941E-6</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>5.1717440034410497E-6</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>-6.12287384370235E-8</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>-4.2648896152328296E-6</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>-1.3962082477912201E-6</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>-2.0619336032878901E-6</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>-9.7214891034458199E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.104748569415406</v>
+      </c>
+      <c r="C11" s="8">
+        <v>-8.1341707694572899E-5</v>
+      </c>
+      <c r="D11" s="8">
+        <v>-5.3063497433085801E-5</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1.07590161658082E-3</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.06876690399174E-3</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1.06819819643432E-3</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1.0716188194651E-3</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1.0680527343293899E-3</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1.0658135325970299E-3</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1.06460003156113E-3</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2.2027979163011702E-3</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1.0770131841103599E-3</v>
+      </c>
+      <c r="N11" s="8">
+        <v>1.074265617153E-3</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1.0646054133561099E-3</v>
+      </c>
+      <c r="P11" s="8">
+        <v>2.2844992792592602E-6</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>-1.09352644459758E-4</v>
+      </c>
+      <c r="R11" s="8">
+        <v>8.4281749864339705E-5</v>
+      </c>
+      <c r="S11" s="8">
+        <v>1.9511115008202899E-5</v>
+      </c>
+      <c r="T11" s="8">
+        <v>5.7067095962278198E-5</v>
+      </c>
+      <c r="U11" s="8">
+        <v>1.4664818340628501E-5</v>
+      </c>
+      <c r="V11" s="8">
+        <v>2.3388040519728401E-5</v>
+      </c>
+      <c r="W11" s="8">
+        <v>2.9969985197550901E-5</v>
+      </c>
+      <c r="X11" s="8">
+        <v>5.8356956344715599E-5</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>4.6693648620851297E-6</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>3.3546060489813401E-6</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>-4.4709434046324701E-8</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>-1.9645808338728002E-6</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>-1.8362383144126799E-6</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>3.0558602225527002E-6</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>-9.7367395144997305E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.21110987410382601</v>
+      </c>
+      <c r="C12" s="8">
+        <v>-8.5239585287131899E-5</v>
+      </c>
+      <c r="D12" s="8">
+        <v>-8.0749002867724906E-5</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1.0845393177464299E-3</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1.0695018880522199E-3</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1.0737556292180299E-3</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1.07711531534498E-3</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1.07095912505945E-3</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1.06704525412538E-3</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1.06133899408222E-3</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1.0770131841103599E-3</v>
+      </c>
+      <c r="M12" s="8">
+        <v>2.5309394696671102E-3</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1.0741241837760899E-3</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1.07244876463635E-3</v>
+      </c>
+      <c r="P12" s="8">
+        <v>1.5792869687528399E-6</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>-1.19271212132121E-4</v>
+      </c>
+      <c r="R12" s="8">
+        <v>6.4629497977963099E-5</v>
+      </c>
+      <c r="S12" s="8">
+        <v>-7.3371464742691503E-7</v>
+      </c>
+      <c r="T12" s="8">
+        <v>4.6379169406659901E-5</v>
+      </c>
+      <c r="U12" s="8">
+        <v>-1.9755155230674201E-5</v>
+      </c>
+      <c r="V12" s="8">
+        <v>-2.7764603458460301E-6</v>
+      </c>
+      <c r="W12" s="8">
+        <v>2.1540222536876999E-6</v>
+      </c>
+      <c r="X12" s="8">
+        <v>5.8464918096278697E-5</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>3.6520359783675901E-6</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>3.82789490967876E-6</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>-4.2882555618993997E-8</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>-3.4770945725069898E-6</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>-2.1280198036761101E-7</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>-8.67647462065072E-6</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>-1.01258741841183E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2.0268142650692801E-2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>-7.93702801573131E-5</v>
+      </c>
+      <c r="D13" s="8">
+        <v>-4.0465518631359199E-5</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1.0720587591444E-3</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.0666111982737599E-3</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.0636654886629199E-3</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1.0698258347399099E-3</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1.0642940426958201E-3</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1.06147314880007E-3</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1.0620796379857201E-3</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1.074265617153E-3</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1.0741241837760899E-3</v>
+      </c>
+      <c r="N13" s="8">
+        <v>2.1107633397341899E-3</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1.06363211766726E-3</v>
+      </c>
+      <c r="P13" s="8">
+        <v>4.6035507731302401E-6</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>-1.1631228352142E-4</v>
+      </c>
+      <c r="R13" s="8">
+        <v>4.65785004082273E-5</v>
+      </c>
+      <c r="S13" s="8">
+        <v>2.9332047475643201E-6</v>
+      </c>
+      <c r="T13" s="8">
+        <v>4.1272600779181599E-5</v>
+      </c>
+      <c r="U13" s="8">
+        <v>-3.3705999597703201E-6</v>
+      </c>
+      <c r="V13" s="8">
+        <v>6.37494368668692E-7</v>
+      </c>
+      <c r="W13" s="8">
+        <v>-1.2536478976609201E-6</v>
+      </c>
+      <c r="X13" s="8">
+        <v>3.8916144388137498E-5</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>4.75101959656989E-6</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>2.02507699844905E-6</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>-3.5302999281871103E-8</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>-2.3712226015979299E-6</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>-1.14107054237594E-6</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>-6.1454669693396202E-6</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>-9.3059806897005605E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="8">
+        <v>-7.1929886686078207E-2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>-8.2836745822835502E-5</v>
+      </c>
+      <c r="D14" s="8">
+        <v>-1.15661976859249E-4</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1.07241075551539E-3</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1.0624004163837699E-3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1.0643575540057299E-3</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1.0693271426213101E-3</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1.0631640325484599E-3</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1.05490432450641E-3</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1.049480629283E-3</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1.0646054133561099E-3</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1.07244876463635E-3</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1.06363211766726E-3</v>
+      </c>
+      <c r="O14" s="8">
+        <v>2.5194527768404198E-3</v>
+      </c>
+      <c r="P14" s="8">
+        <v>-2.2718046621029501E-5</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>-1.19892018771152E-4</v>
+      </c>
+      <c r="R14" s="8">
+        <v>2.7195167544381301E-7</v>
+      </c>
+      <c r="S14" s="8">
+        <v>-2.9584728819421901E-5</v>
+      </c>
+      <c r="T14" s="8">
+        <v>4.1433272052927503E-5</v>
+      </c>
+      <c r="U14" s="8">
+        <v>1.67683286339425E-5</v>
+      </c>
+      <c r="V14" s="8">
+        <v>1.04724336218278E-5</v>
+      </c>
+      <c r="W14" s="8">
+        <v>2.01425835441656E-5</v>
+      </c>
+      <c r="X14" s="8">
+        <v>7.6898295914402893E-5</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>4.4315271554711699E-6</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>2.4645913414325602E-6</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>-2.4497648314825999E-8</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>-7.2015279948186899E-7</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>-6.5869545494226599E-7</v>
+      </c>
+      <c r="AD14" s="8">
+        <v>1.1550375042323801E-5</v>
+      </c>
+      <c r="AE14" s="8">
+        <v>-9.9301734847927702E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="8">
-        <v>0.21548707218562399</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1.25374527274403E-3</v>
-      </c>
-      <c r="D2" s="8">
-        <v>-2.4394791244791601E-5</v>
-      </c>
-      <c r="E2" s="8">
-        <v>2.93026348970292E-4</v>
-      </c>
-      <c r="F2" s="8">
-        <v>9.9212587927633903E-5</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1.15170236347298E-5</v>
-      </c>
-      <c r="H2" s="8">
-        <v>3.5957899469002198E-5</v>
-      </c>
-      <c r="I2" s="8">
-        <v>-3.3624695957226197E-5</v>
-      </c>
-      <c r="J2" s="8">
-        <v>-5.6980063456238399E-5</v>
-      </c>
-      <c r="K2" s="8">
-        <v>-3.3140607190495601E-5</v>
-      </c>
-      <c r="L2" s="8">
-        <v>-3.6026752548505101E-6</v>
-      </c>
-      <c r="M2" s="8">
-        <v>-5.8135899523151103E-6</v>
-      </c>
-      <c r="N2" s="8">
-        <v>2.6292523201600701E-5</v>
-      </c>
-      <c r="O2" s="8">
-        <v>-3.1916735306552297E-5</v>
-      </c>
-      <c r="P2" s="8">
-        <v>-1.3920141205489E-5</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>7.0784726374946501E-6</v>
-      </c>
-      <c r="R2" s="8">
-        <v>-5.1913341417064199E-5</v>
-      </c>
-      <c r="S2" s="8">
-        <v>9.0654499959562297E-7</v>
-      </c>
-      <c r="T2" s="8">
-        <v>-1.7042693690025399E-4</v>
-      </c>
-      <c r="U2" s="8">
-        <v>-1.06933575513096E-4</v>
-      </c>
-      <c r="V2" s="8">
-        <v>1.91159661513898E-6</v>
-      </c>
-      <c r="W2" s="8">
-        <v>1.17173090250836E-4</v>
-      </c>
-      <c r="X2" s="8">
-        <v>2.5661305439669699E-4</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>-2.2776585886313499E-4</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>1.7418917226673301E-5</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>3.8277125207519503E-5</v>
-      </c>
-      <c r="AB2" s="8">
-        <v>-4.4866372998640298E-7</v>
-      </c>
-      <c r="AC2" s="8">
-        <v>-2.0624941559523401E-6</v>
-      </c>
-      <c r="AD2" s="8">
-        <v>-9.5378344862199601E-8</v>
-      </c>
-      <c r="AE2" s="8">
-        <v>3.56806776970703E-5</v>
-      </c>
-      <c r="AF2" s="8">
-        <v>-1.8331472171509999E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="8">
-        <v>-0.32346937051376501</v>
-      </c>
-      <c r="C3" s="8">
-        <v>-2.4394791244791601E-5</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1.9635982758812302E-3</v>
-      </c>
-      <c r="E3" s="8">
-        <v>-6.0324293385774998E-5</v>
-      </c>
-      <c r="F3" s="8">
-        <v>2.1159106935589601E-4</v>
-      </c>
-      <c r="G3" s="8">
-        <v>5.6513115539546002E-5</v>
-      </c>
-      <c r="H3" s="8">
-        <v>2.4743138940388798E-4</v>
-      </c>
-      <c r="I3" s="8">
-        <v>-3.20603147445324E-4</v>
-      </c>
-      <c r="J3" s="8">
-        <v>-4.4830984460138702E-4</v>
-      </c>
-      <c r="K3" s="8">
-        <v>-2.2976425546571001E-4</v>
-      </c>
-      <c r="L3" s="8">
-        <v>-3.5132083779069502E-4</v>
-      </c>
-      <c r="M3" s="8">
-        <v>-4.6152293938123498E-4</v>
-      </c>
-      <c r="N3" s="8">
-        <v>-3.5275221770223402E-4</v>
-      </c>
-      <c r="O3" s="8">
-        <v>-3.5054121855327601E-4</v>
-      </c>
-      <c r="P3" s="8">
-        <v>-3.9440505676415898E-4</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>-6.1019892780987499E-4</v>
-      </c>
-      <c r="R3" s="8">
-        <v>-4.2531167881112899E-4</v>
-      </c>
-      <c r="S3" s="8">
-        <v>-5.4483268097545504E-4</v>
-      </c>
-      <c r="T3" s="8">
-        <v>-1.5726936471822299E-4</v>
-      </c>
-      <c r="U3" s="8">
-        <v>-1.7628097143113999E-5</v>
-      </c>
-      <c r="V3" s="8">
-        <v>-2.35190709147246E-4</v>
-      </c>
-      <c r="W3" s="8">
-        <v>-3.9707618216626098E-4</v>
-      </c>
-      <c r="X3" s="8">
-        <v>-4.6418451004554001E-4</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>6.2970740391318899E-4</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>-2.1762751755166099E-5</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>-2.26315833790098E-5</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>1.12089594352502E-7</v>
-      </c>
-      <c r="AC3" s="8">
-        <v>1.7858610406278699E-5</v>
-      </c>
-      <c r="AD3" s="8">
-        <v>-5.1376684707118898E-6</v>
-      </c>
-      <c r="AE3" s="8">
-        <v>3.2141074307096401E-5</v>
-      </c>
-      <c r="AF3" s="8">
-        <v>1.3314311295563701E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0.17451599165659101</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2.93026348970292E-4</v>
-      </c>
-      <c r="D4" s="8">
-        <v>-6.0324293385774998E-5</v>
-      </c>
-      <c r="E4" s="8">
-        <v>3.21459864438333E-3</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2.6698399105957901E-4</v>
-      </c>
-      <c r="G4" s="8">
-        <v>-1.10100194163848E-4</v>
-      </c>
-      <c r="H4" s="8">
-        <v>-1.1781781138685E-5</v>
-      </c>
-      <c r="I4" s="8">
-        <v>2.3294998669425401E-4</v>
-      </c>
-      <c r="J4" s="8">
-        <v>2.0684718294199599E-4</v>
-      </c>
-      <c r="K4" s="8">
-        <v>2.3005346791499999E-4</v>
-      </c>
-      <c r="L4" s="8">
-        <v>3.11404916713212E-4</v>
-      </c>
-      <c r="M4" s="8">
-        <v>3.4570204999660303E-4</v>
-      </c>
-      <c r="N4" s="8">
-        <v>2.9448154059105697E-4</v>
-      </c>
-      <c r="O4" s="8">
-        <v>2.6739695011598902E-4</v>
-      </c>
-      <c r="P4" s="8">
-        <v>3.22114963046491E-4</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>6.5435228250584204E-4</v>
-      </c>
-      <c r="R4" s="8">
-        <v>1.8643456883649201E-4</v>
-      </c>
-      <c r="S4" s="8">
-        <v>1.5896051790660899E-4</v>
-      </c>
-      <c r="T4" s="8">
-        <v>-2.12827260295729E-4</v>
-      </c>
-      <c r="U4" s="8">
-        <v>1.3180405573850801E-4</v>
-      </c>
-      <c r="V4" s="8">
-        <v>2.8501890220112902E-4</v>
-      </c>
-      <c r="W4" s="8">
-        <v>3.6482712876218898E-4</v>
-      </c>
-      <c r="X4" s="8">
-        <v>3.4535045012430802E-4</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>-2.0417905428785099E-4</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>1.7149527807957399E-6</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>1.68765660797707E-4</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>-1.42675270740487E-6</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>-1.3072422088211801E-5</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>-5.4949633685124295E-7</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>4.0434918179314501E-5</v>
-      </c>
-      <c r="AF4" s="8">
-        <v>-5.4429747032758297E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0.194320104787508</v>
-      </c>
-      <c r="C5" s="8">
-        <v>9.9212587927633903E-5</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2.1159106935589601E-4</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2.6698399105957901E-4</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2.4386117152754298E-3</v>
-      </c>
-      <c r="G5" s="8">
-        <v>-5.1872043583856699E-5</v>
-      </c>
-      <c r="H5" s="8">
-        <v>-2.6790636926445599E-5</v>
-      </c>
-      <c r="I5" s="8">
-        <v>1.4147586472680501E-4</v>
-      </c>
-      <c r="J5" s="8">
-        <v>-1.26285813992448E-4</v>
-      </c>
-      <c r="K5" s="8">
-        <v>-5.5232721570482302E-5</v>
-      </c>
-      <c r="L5" s="8">
-        <v>-1.07577635217511E-5</v>
-      </c>
-      <c r="M5" s="8">
-        <v>8.6543257663103203E-5</v>
-      </c>
-      <c r="N5" s="8">
-        <v>2.2338614595099699E-5</v>
-      </c>
-      <c r="O5" s="8">
-        <v>-4.2191481593052299E-5</v>
-      </c>
-      <c r="P5" s="8">
-        <v>-4.8724689555940298E-5</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>1.5903834510351401E-4</v>
-      </c>
-      <c r="R5" s="8">
-        <v>-1.48122627785236E-4</v>
-      </c>
-      <c r="S5" s="8">
-        <v>-1.61917970891495E-4</v>
-      </c>
-      <c r="T5" s="8">
-        <v>-2.7993404341663698E-5</v>
-      </c>
-      <c r="U5" s="8">
-        <v>3.1765119593700298E-5</v>
-      </c>
-      <c r="V5" s="8">
-        <v>1.1021180503455699E-4</v>
-      </c>
-      <c r="W5" s="8">
-        <v>1.75757031507802E-4</v>
-      </c>
-      <c r="X5" s="8">
-        <v>2.32170272959106E-4</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>-1.03556653835802E-4</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>3.1585411834741901E-6</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>2.2092207183286601E-5</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>-3.50618630472197E-7</v>
-      </c>
-      <c r="AC5" s="8">
-        <v>-9.7764234897121507E-6</v>
-      </c>
-      <c r="AD5" s="8">
-        <v>3.3160001429759501E-6</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>1.58240065566467E-4</v>
-      </c>
-      <c r="AF5" s="8">
-        <v>-9.6146032241205097E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8">
-        <v>4.6885140752195298E-2</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1.15170236347298E-5</v>
-      </c>
-      <c r="D6" s="8">
-        <v>5.6513115539546002E-5</v>
-      </c>
-      <c r="E6" s="8">
-        <v>-1.10100194163848E-4</v>
-      </c>
-      <c r="F6" s="8">
-        <v>-5.1872043583856699E-5</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1.4954878314086301E-3</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1.0901954247889E-3</v>
-      </c>
-      <c r="I6" s="8">
-        <v>-5.1403577458328101E-4</v>
-      </c>
-      <c r="J6" s="8">
-        <v>-4.5895451737053901E-4</v>
-      </c>
-      <c r="K6" s="8">
-        <v>-3.8567926345713999E-4</v>
-      </c>
-      <c r="L6" s="8">
-        <v>-5.2028759380593999E-4</v>
-      </c>
-      <c r="M6" s="8">
-        <v>-5.6973404853032604E-4</v>
-      </c>
-      <c r="N6" s="8">
-        <v>-4.2316898859286298E-4</v>
-      </c>
-      <c r="O6" s="8">
-        <v>-4.2519474578210702E-4</v>
-      </c>
-      <c r="P6" s="8">
-        <v>-4.5651480665931599E-4</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>-3.9053190811033298E-4</v>
-      </c>
-      <c r="R6" s="8">
-        <v>-3.40608746747858E-4</v>
-      </c>
-      <c r="S6" s="8">
-        <v>-3.8424220541903001E-4</v>
-      </c>
-      <c r="T6" s="8">
-        <v>-1.90048164124522E-4</v>
-      </c>
-      <c r="U6" s="8">
-        <v>-8.0763238596518396E-5</v>
-      </c>
-      <c r="V6" s="8">
-        <v>-3.1488974456466399E-5</v>
-      </c>
-      <c r="W6" s="8">
-        <v>2.8661231781060401E-5</v>
-      </c>
-      <c r="X6" s="8">
-        <v>2.5053514890331402E-4</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>-1.3187972664026299E-4</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>2.04754450575988E-5</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>-3.2191950471297599E-6</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>-2.4461453760613501E-9</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>2.1714595934536899E-5</v>
-      </c>
-      <c r="AD6" s="8">
-        <v>5.0993407326699696E-6</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>-3.59681661507263E-5</v>
-      </c>
-      <c r="AF6" s="8">
-        <v>-1.2169697293377901E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="8">
-        <v>7.0931200431388702E-2</v>
-      </c>
-      <c r="C7" s="8">
-        <v>3.5957899469002198E-5</v>
-      </c>
-      <c r="D7" s="8">
-        <v>2.4743138940388798E-4</v>
-      </c>
-      <c r="E7" s="8">
-        <v>-1.1781781138685E-5</v>
-      </c>
-      <c r="F7" s="8">
-        <v>-2.6790636926445599E-5</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1.0901954247889E-3</v>
-      </c>
-      <c r="H7" s="8">
-        <v>2.8726830479096901E-3</v>
-      </c>
-      <c r="I7" s="8">
-        <v>-5.74949288102367E-4</v>
-      </c>
-      <c r="J7" s="8">
-        <v>-3.70604266139672E-4</v>
-      </c>
-      <c r="K7" s="8">
-        <v>-3.33217203581994E-4</v>
-      </c>
-      <c r="L7" s="8">
-        <v>-4.6890013442667E-4</v>
-      </c>
-      <c r="M7" s="8">
-        <v>-5.8122075101469902E-4</v>
-      </c>
-      <c r="N7" s="8">
-        <v>-4.4318131596151499E-4</v>
-      </c>
-      <c r="O7" s="8">
-        <v>-3.4991666551239397E-4</v>
-      </c>
-      <c r="P7" s="8">
-        <v>-3.4582868039585799E-4</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>-4.19041373455933E-4</v>
-      </c>
-      <c r="R7" s="8">
-        <v>-1.8354713762818101E-4</v>
-      </c>
-      <c r="S7" s="8">
-        <v>-6.1258261392858502E-4</v>
-      </c>
-      <c r="T7" s="8">
-        <v>-1.2664173552619299E-4</v>
-      </c>
-      <c r="U7" s="8">
-        <v>-1.3357685690987399E-5</v>
-      </c>
-      <c r="V7" s="8">
-        <v>1.4670503203129001E-4</v>
-      </c>
-      <c r="W7" s="8">
-        <v>3.0335887083627803E-4</v>
-      </c>
-      <c r="X7" s="8">
-        <v>5.6827631859252003E-4</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>-9.2684217219427404E-5</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>4.91463903769168E-5</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>1.36824618717904E-5</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>-3.2391900034712001E-7</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>1.5800251116395101E-5</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>7.1121667669341403E-6</v>
-      </c>
-      <c r="AE7" s="8">
-        <v>1.9493443158649301E-5</v>
-      </c>
-      <c r="AF7" s="8">
-        <v>-2.16736343368281E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="8">
-        <v>-1.3656295529287399E-2</v>
-      </c>
-      <c r="C8" s="8">
-        <v>-3.3624695957226197E-5</v>
-      </c>
-      <c r="D8" s="8">
-        <v>-3.20603147445324E-4</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2.3294998669425401E-4</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1.4147586472680501E-4</v>
-      </c>
-      <c r="G8" s="8">
-        <v>-5.1403577458328101E-4</v>
-      </c>
-      <c r="H8" s="8">
-        <v>-5.74949288102367E-4</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1.00676309778432E-2</v>
-      </c>
-      <c r="J8" s="8">
-        <v>3.6743190023038599E-3</v>
-      </c>
-      <c r="K8" s="8">
-        <v>3.6653930960894999E-3</v>
-      </c>
-      <c r="L8" s="8">
-        <v>3.6962821497148199E-3</v>
-      </c>
-      <c r="M8" s="8">
-        <v>3.7101042049958901E-3</v>
-      </c>
-      <c r="N8" s="8">
-        <v>3.6277547096365201E-3</v>
-      </c>
-      <c r="O8" s="8">
-        <v>3.61994904942705E-3</v>
-      </c>
-      <c r="P8" s="8">
-        <v>3.6836307067628399E-3</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>3.7382734277256399E-3</v>
-      </c>
-      <c r="R8" s="8">
-        <v>3.6405002404529302E-3</v>
-      </c>
-      <c r="S8" s="8">
-        <v>3.70394096792992E-3</v>
-      </c>
-      <c r="T8" s="8">
-        <v>7.0466721665522601E-5</v>
-      </c>
-      <c r="U8" s="8">
-        <v>-1.65054953361904E-4</v>
-      </c>
-      <c r="V8" s="8">
-        <v>-7.9536277947409296E-6</v>
-      </c>
-      <c r="W8" s="8">
-        <v>-6.18982082022266E-5</v>
-      </c>
-      <c r="X8" s="8">
-        <v>1.5629925725029999E-4</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>-5.4451905858729597E-4</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>-3.3986104429208902E-5</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>7.1549796684478098E-6</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>-6.9358125359632595E-8</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>6.6583969087507302E-6</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>1.15372813028391E-6</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>9.4318092781603798E-5</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>-2.9119904647221199E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="8">
-        <v>-9.1136194334055204E-2</v>
-      </c>
-      <c r="C9" s="8">
-        <v>-5.6980063456238399E-5</v>
-      </c>
-      <c r="D9" s="8">
-        <v>-4.4830984460138702E-4</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2.0684718294199599E-4</v>
-      </c>
-      <c r="F9" s="8">
-        <v>-1.26285813992448E-4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>-4.5895451737053901E-4</v>
-      </c>
-      <c r="H9" s="8">
-        <v>-3.70604266139672E-4</v>
-      </c>
-      <c r="I9" s="8">
-        <v>3.6743190023038599E-3</v>
-      </c>
-      <c r="J9" s="8">
-        <v>5.8380388692748199E-3</v>
-      </c>
-      <c r="K9" s="8">
-        <v>3.6286156919623099E-3</v>
-      </c>
-      <c r="L9" s="8">
-        <v>3.6939218645868199E-3</v>
-      </c>
-      <c r="M9" s="8">
-        <v>3.6827497016285698E-3</v>
-      </c>
-      <c r="N9" s="8">
-        <v>3.5904634475434302E-3</v>
-      </c>
-      <c r="O9" s="8">
-        <v>3.60305834835293E-3</v>
-      </c>
-      <c r="P9" s="8">
-        <v>3.65240242553975E-3</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>3.7008193299294099E-3</v>
-      </c>
-      <c r="R9" s="8">
-        <v>3.63079531134627E-3</v>
-      </c>
-      <c r="S9" s="8">
-        <v>3.6831324902577402E-3</v>
-      </c>
-      <c r="T9" s="8">
-        <v>2.9058430210802402E-4</v>
-      </c>
-      <c r="U9" s="8">
-        <v>-5.4928564757134402E-5</v>
-      </c>
-      <c r="V9" s="8">
-        <v>-2.8397989314200902E-6</v>
-      </c>
-      <c r="W9" s="8">
-        <v>-7.4528524240565999E-5</v>
-      </c>
-      <c r="X9" s="8">
-        <v>1.72442626212721E-4</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>-5.2613947803580301E-4</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>-2.9128536744634601E-5</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>2.4342448627462001E-5</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>-1.83799025828355E-7</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>-2.1884028565649699E-5</v>
-      </c>
-      <c r="AD9" s="8">
-        <v>-9.6443425739680201E-7</v>
-      </c>
-      <c r="AE9" s="8">
-        <v>1.2351654348261799E-4</v>
-      </c>
-      <c r="AF9" s="8">
-        <v>-3.0405545572973602E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="8">
-        <v>-2.7195450519272399E-2</v>
-      </c>
-      <c r="C10" s="8">
-        <v>-3.3140607190495601E-5</v>
-      </c>
-      <c r="D10" s="8">
-        <v>-2.2976425546571001E-4</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2.3005346791499999E-4</v>
-      </c>
-      <c r="F10" s="8">
-        <v>-5.5232721570482302E-5</v>
-      </c>
-      <c r="G10" s="8">
-        <v>-3.8567926345713999E-4</v>
-      </c>
-      <c r="H10" s="8">
-        <v>-3.33217203581994E-4</v>
-      </c>
-      <c r="I10" s="8">
-        <v>3.6653930960894999E-3</v>
-      </c>
-      <c r="J10" s="8">
-        <v>3.6286156919623099E-3</v>
-      </c>
-      <c r="K10" s="8">
-        <v>7.4416296907672801E-3</v>
-      </c>
-      <c r="L10" s="8">
-        <v>3.6377904707281801E-3</v>
-      </c>
-      <c r="M10" s="8">
-        <v>3.6716040119959799E-3</v>
-      </c>
-      <c r="N10" s="8">
-        <v>3.5812704645644799E-3</v>
-      </c>
-      <c r="O10" s="8">
-        <v>3.5780813461661599E-3</v>
-      </c>
-      <c r="P10" s="8">
-        <v>3.6326078509153399E-3</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>3.6874740485083198E-3</v>
-      </c>
-      <c r="R10" s="8">
-        <v>3.5982278200898201E-3</v>
-      </c>
-      <c r="S10" s="8">
-        <v>3.6359723438137499E-3</v>
-      </c>
-      <c r="T10" s="8">
-        <v>2.55104704934409E-4</v>
-      </c>
-      <c r="U10" s="8">
-        <v>2.29935550132205E-5</v>
-      </c>
-      <c r="V10" s="8">
-        <v>1.22323228258313E-4</v>
-      </c>
-      <c r="W10" s="8">
-        <v>5.59177051410507E-5</v>
-      </c>
-      <c r="X10" s="8">
-        <v>3.1058008517539801E-4</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>4.7062589410381498E-4</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>-2.38231760912954E-5</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>8.7678985060418204E-6</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>-4.4605772097792299E-8</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>4.6831607499127103E-6</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>5.3646374898221998E-6</v>
-      </c>
-      <c r="AE10" s="8">
-        <v>8.7184867609805801E-5</v>
-      </c>
-      <c r="AF10" s="8">
-        <v>-3.6637257779822902E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="8">
-        <v>-6.8579749080015504E-2</v>
-      </c>
-      <c r="C11" s="8">
-        <v>-3.6026752548505101E-6</v>
-      </c>
-      <c r="D11" s="8">
-        <v>-3.5132083779069502E-4</v>
-      </c>
-      <c r="E11" s="8">
-        <v>3.11404916713212E-4</v>
-      </c>
-      <c r="F11" s="8">
-        <v>-1.07577635217511E-5</v>
-      </c>
-      <c r="G11" s="8">
-        <v>-5.2028759380593999E-4</v>
-      </c>
-      <c r="H11" s="8">
-        <v>-4.6890013442667E-4</v>
-      </c>
-      <c r="I11" s="8">
-        <v>3.6962821497148199E-3</v>
-      </c>
-      <c r="J11" s="8">
-        <v>3.6939218645868199E-3</v>
-      </c>
-      <c r="K11" s="8">
-        <v>3.6377904707281801E-3</v>
-      </c>
-      <c r="L11" s="8">
-        <v>6.2770916000853601E-3</v>
-      </c>
-      <c r="M11" s="8">
-        <v>3.71778270032705E-3</v>
-      </c>
-      <c r="N11" s="8">
-        <v>3.6232981218722099E-3</v>
-      </c>
-      <c r="O11" s="8">
-        <v>3.6179067364955999E-3</v>
-      </c>
-      <c r="P11" s="8">
-        <v>3.6606082614984801E-3</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>3.7404923805526599E-3</v>
-      </c>
-      <c r="R11" s="8">
-        <v>3.6428763452834301E-3</v>
-      </c>
-      <c r="S11" s="8">
-        <v>3.6828162446926999E-3</v>
-      </c>
-      <c r="T11" s="8">
-        <v>3.0105057974443901E-4</v>
-      </c>
-      <c r="U11" s="8">
-        <v>8.8777000104614905E-5</v>
-      </c>
-      <c r="V11" s="8">
-        <v>1.16377708589877E-4</v>
-      </c>
-      <c r="W11" s="8">
-        <v>1.03539477613254E-4</v>
-      </c>
-      <c r="X11" s="8">
-        <v>3.1316394322403299E-4</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>1.20153026031496E-4</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>-4.1123282692583602E-5</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>3.0784171367229803E-5</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>-2.32806765575063E-7</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>-1.61945059632531E-5</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>-9.71923573944943E-7</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>1.08484040202177E-4</v>
-      </c>
-      <c r="AF11" s="8">
-        <v>-3.34205043482237E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="8">
-        <v>-7.9522681696701597E-2</v>
-      </c>
-      <c r="C12" s="8">
-        <v>-5.8135899523151103E-6</v>
-      </c>
-      <c r="D12" s="8">
-        <v>-4.6152293938123498E-4</v>
-      </c>
-      <c r="E12" s="8">
-        <v>3.4570204999660303E-4</v>
-      </c>
-      <c r="F12" s="8">
-        <v>8.6543257663103203E-5</v>
-      </c>
-      <c r="G12" s="8">
-        <v>-5.6973404853032604E-4</v>
-      </c>
-      <c r="H12" s="8">
-        <v>-5.8122075101469902E-4</v>
-      </c>
-      <c r="I12" s="8">
-        <v>3.7101042049958901E-3</v>
-      </c>
-      <c r="J12" s="8">
-        <v>3.6827497016285698E-3</v>
-      </c>
-      <c r="K12" s="8">
-        <v>3.6716040119959799E-3</v>
-      </c>
-      <c r="L12" s="8">
-        <v>3.71778270032705E-3</v>
-      </c>
-      <c r="M12" s="8">
-        <v>6.8234212157236704E-3</v>
-      </c>
-      <c r="N12" s="8">
-        <v>3.6178440583387698E-3</v>
-      </c>
-      <c r="O12" s="8">
-        <v>3.6136572669628799E-3</v>
-      </c>
-      <c r="P12" s="8">
-        <v>3.6832035897003401E-3</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>3.74656928382823E-3</v>
-      </c>
-      <c r="R12" s="8">
-        <v>3.6373330072810299E-3</v>
-      </c>
-      <c r="S12" s="8">
-        <v>3.7049814789480301E-3</v>
-      </c>
-      <c r="T12" s="8">
-        <v>1.8924768415587301E-4</v>
-      </c>
-      <c r="U12" s="8">
-        <v>8.8665725766867197E-5</v>
-      </c>
-      <c r="V12" s="8">
-        <v>1.10730279763057E-4</v>
-      </c>
-      <c r="W12" s="8">
-        <v>1.89091830047346E-4</v>
-      </c>
-      <c r="X12" s="8">
-        <v>3.18350819095063E-4</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>-6.7841435865638493E-5</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>-2.7568287042084499E-5</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>2.04241287357682E-5</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>-1.3118006608978299E-7</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>-2.7274544463754799E-5</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>-1.3377557896753101E-6</v>
-      </c>
-      <c r="AE12" s="8">
-        <v>1.5480723694247199E-4</v>
-      </c>
-      <c r="AF12" s="8">
-        <v>-3.0863304901270999E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="8">
-        <v>-0.17183044444259099</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2.6292523201600701E-5</v>
-      </c>
-      <c r="D13" s="8">
-        <v>-3.5275221770223402E-4</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2.9448154059105697E-4</v>
-      </c>
-      <c r="F13" s="8">
-        <v>2.2338614595099699E-5</v>
-      </c>
-      <c r="G13" s="8">
-        <v>-4.2316898859286298E-4</v>
-      </c>
-      <c r="H13" s="8">
-        <v>-4.4318131596151499E-4</v>
-      </c>
-      <c r="I13" s="8">
-        <v>3.6277547096365201E-3</v>
-      </c>
-      <c r="J13" s="8">
-        <v>3.5904634475434302E-3</v>
-      </c>
-      <c r="K13" s="8">
-        <v>3.5812704645644799E-3</v>
-      </c>
-      <c r="L13" s="8">
-        <v>3.6232981218722099E-3</v>
-      </c>
-      <c r="M13" s="8">
-        <v>3.6178440583387698E-3</v>
-      </c>
-      <c r="N13" s="8">
-        <v>5.6839601067302003E-3</v>
-      </c>
-      <c r="O13" s="8">
-        <v>3.5366661971086102E-3</v>
-      </c>
-      <c r="P13" s="8">
-        <v>3.59051165682347E-3</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>3.6510796493132002E-3</v>
-      </c>
-      <c r="R13" s="8">
-        <v>3.5689831956946098E-3</v>
-      </c>
-      <c r="S13" s="8">
-        <v>3.5864061330973798E-3</v>
-      </c>
-      <c r="T13" s="8">
-        <v>2.1059693020532199E-4</v>
-      </c>
-      <c r="U13" s="8">
-        <v>7.0933444677157204E-5</v>
-      </c>
-      <c r="V13" s="8">
-        <v>1.15104077849468E-4</v>
-      </c>
-      <c r="W13" s="8">
-        <v>7.7272223311095799E-6</v>
-      </c>
-      <c r="X13" s="8">
-        <v>2.0951522786930599E-4</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>-2.03739851255387E-5</v>
-      </c>
-      <c r="Z13" s="8">
-        <v>-3.5213531937796298E-5</v>
-      </c>
-      <c r="AA13" s="8">
-        <v>3.1758192246236301E-5</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>-2.7943379093036902E-7</v>
-      </c>
-      <c r="AC13" s="8">
-        <v>-2.5921318177962599E-5</v>
-      </c>
-      <c r="AD13" s="8">
-        <v>-1.7770997084841599E-6</v>
-      </c>
-      <c r="AE13" s="8">
-        <v>1.6026663310050399E-4</v>
-      </c>
-      <c r="AF13" s="8">
-        <v>-3.1617315106646999E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="8">
-        <v>-5.6914780949895799E-2</v>
-      </c>
-      <c r="C14" s="8">
-        <v>-3.1916735306552297E-5</v>
-      </c>
-      <c r="D14" s="8">
-        <v>-3.5054121855327601E-4</v>
-      </c>
-      <c r="E14" s="8">
-        <v>2.6739695011598902E-4</v>
-      </c>
-      <c r="F14" s="8">
-        <v>-4.2191481593052299E-5</v>
-      </c>
-      <c r="G14" s="8">
-        <v>-4.2519474578210702E-4</v>
-      </c>
-      <c r="H14" s="8">
-        <v>-3.4991666551239397E-4</v>
-      </c>
-      <c r="I14" s="8">
-        <v>3.61994904942705E-3</v>
-      </c>
-      <c r="J14" s="8">
-        <v>3.60305834835293E-3</v>
-      </c>
-      <c r="K14" s="8">
-        <v>3.5780813461661599E-3</v>
-      </c>
-      <c r="L14" s="8">
-        <v>3.6179067364955999E-3</v>
-      </c>
-      <c r="M14" s="8">
-        <v>3.6136572669628799E-3</v>
-      </c>
-      <c r="N14" s="8">
-        <v>3.5366661971086102E-3</v>
-      </c>
-      <c r="O14" s="8">
-        <v>5.0174294117191504E-3</v>
-      </c>
-      <c r="P14" s="8">
-        <v>3.60481533575897E-3</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>3.6613046382376799E-3</v>
-      </c>
-      <c r="R14" s="8">
-        <v>3.59903551776231E-3</v>
-      </c>
-      <c r="S14" s="8">
-        <v>3.5890105926193799E-3</v>
-      </c>
-      <c r="T14" s="8">
-        <v>2.12500321994609E-4</v>
-      </c>
-      <c r="U14" s="8">
-        <v>6.5047175705935901E-5</v>
-      </c>
-      <c r="V14" s="8">
-        <v>2.8991814827594199E-5</v>
-      </c>
-      <c r="W14" s="8">
-        <v>-3.4256943672093998E-5</v>
-      </c>
-      <c r="X14" s="8">
-        <v>1.44465411850755E-4</v>
-      </c>
-      <c r="Y14" s="8">
-        <v>-1.2989506752020101E-4</v>
-      </c>
-      <c r="Z14" s="8">
-        <v>-3.1161916154452298E-5</v>
-      </c>
-      <c r="AA14" s="8">
-        <v>3.0056493142876501E-5</v>
-      </c>
-      <c r="AB14" s="8">
-        <v>-2.6997151693475101E-7</v>
-      </c>
-      <c r="AC14" s="8">
-        <v>-1.9356988529694E-5</v>
-      </c>
-      <c r="AD14" s="8">
-        <v>-3.3297926801775999E-6</v>
-      </c>
-      <c r="AE14" s="8">
-        <v>9.9770514449259805E-5</v>
-      </c>
-      <c r="AF14" s="8">
-        <v>-3.04941863417782E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="B15" s="8">
-        <v>-6.8317375500882294E-2</v>
+        <v>0.171051515607232</v>
       </c>
       <c r="C15" s="8">
-        <v>-1.3920141205489E-5</v>
+        <v>-5.5035653519916099E-6</v>
       </c>
       <c r="D15" s="8">
-        <v>-3.9440505676415898E-4</v>
+        <v>2.12307898133759E-6</v>
       </c>
       <c r="E15" s="8">
-        <v>3.22114963046491E-4</v>
+        <v>-3.9711514492125398E-6</v>
       </c>
       <c r="F15" s="8">
-        <v>-4.8724689555940298E-5</v>
+        <v>-4.4443045675280199E-7</v>
       </c>
       <c r="G15" s="8">
-        <v>-4.5651480665931599E-4</v>
+        <v>4.2682048551782797E-6</v>
       </c>
       <c r="H15" s="8">
-        <v>-3.4582868039585799E-4</v>
+        <v>2.4612120449845999E-6</v>
       </c>
       <c r="I15" s="8">
-        <v>3.6836307067628399E-3</v>
+        <v>-6.8139856577085899E-6</v>
       </c>
       <c r="J15" s="8">
-        <v>3.65240242553975E-3</v>
+        <v>3.3651608958302601E-6</v>
       </c>
       <c r="K15" s="8">
-        <v>3.6326078509153399E-3</v>
+        <v>4.1089378182980204E-6</v>
       </c>
       <c r="L15" s="8">
-        <v>3.6606082614984801E-3</v>
+        <v>2.2844992792592602E-6</v>
       </c>
       <c r="M15" s="8">
-        <v>3.6832035897003401E-3</v>
+        <v>1.5792869687528399E-6</v>
       </c>
       <c r="N15" s="8">
-        <v>3.59051165682347E-3</v>
+        <v>4.6035507731302401E-6</v>
       </c>
       <c r="O15" s="8">
-        <v>3.60481533575897E-3</v>
+        <v>-2.2718046621029501E-5</v>
       </c>
       <c r="P15" s="8">
-        <v>5.8966651948963696E-3</v>
+        <v>4.7797723882584E-4</v>
       </c>
       <c r="Q15" s="8">
-        <v>3.7062791238492302E-3</v>
+        <v>-9.2274239526330093E-6</v>
       </c>
       <c r="R15" s="8">
-        <v>3.6335672517614401E-3</v>
+        <v>8.4301794162856006E-5</v>
       </c>
       <c r="S15" s="8">
-        <v>3.6506563494569902E-3</v>
+        <v>3.8754489998824402E-5</v>
       </c>
       <c r="T15" s="8">
-        <v>3.2188948765598201E-4</v>
+        <v>-9.7531415604059697E-5</v>
       </c>
       <c r="U15" s="8">
-        <v>4.49211348629465E-5</v>
+        <v>-7.8454978079788295E-6</v>
       </c>
       <c r="V15" s="8">
-        <v>1.02602623044222E-4</v>
+        <v>2.4290310032538301E-5</v>
       </c>
       <c r="W15" s="8">
-        <v>4.3201772531197503E-5</v>
+        <v>7.0165346316770796E-5</v>
       </c>
       <c r="X15" s="8">
-        <v>2.72477586967644E-4</v>
+        <v>1.3157493114683699E-4</v>
       </c>
       <c r="Y15" s="8">
-        <v>-2.1155386442153201E-4</v>
+        <v>3.7917113160447001E-6</v>
       </c>
       <c r="Z15" s="8">
-        <v>-3.8629289670829497E-5</v>
+        <v>1.1125106328094E-5</v>
       </c>
       <c r="AA15" s="8">
-        <v>3.4304687460243302E-5</v>
+        <v>-1.3599779644869E-7</v>
       </c>
       <c r="AB15" s="8">
-        <v>-2.8371600823174798E-7</v>
+        <v>-3.6190391913122701E-7</v>
       </c>
       <c r="AC15" s="8">
-        <v>-1.32486692496256E-5</v>
+        <v>1.3826337980897599E-7</v>
       </c>
       <c r="AD15" s="8">
-        <v>-8.7502828710036599E-7</v>
+        <v>1.9509696246996999E-5</v>
       </c>
       <c r="AE15" s="8">
-        <v>1.4781598336841001E-4</v>
-      </c>
-      <c r="AF15" s="8">
-        <v>-3.41639667813341E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-6.2722640802023505E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B16" s="8">
-        <v>2.7979239092005101E-2</v>
+        <v>-0.38224181014282299</v>
       </c>
       <c r="C16" s="8">
-        <v>7.0784726374946501E-6</v>
+        <v>1.6792741570474201E-5</v>
       </c>
       <c r="D16" s="8">
-        <v>-6.1019892780987499E-4</v>
+        <v>7.3934289024519E-5</v>
       </c>
       <c r="E16" s="8">
-        <v>6.5435228250584204E-4</v>
+        <v>-1.1880154133844001E-4</v>
       </c>
       <c r="F16" s="8">
-        <v>1.5903834510351401E-4</v>
+        <v>-1.1342860769951601E-4</v>
       </c>
       <c r="G16" s="8">
-        <v>-3.9053190811033298E-4</v>
+        <v>-1.1758409006427301E-4</v>
       </c>
       <c r="H16" s="8">
-        <v>-4.19041373455933E-4</v>
+        <v>-1.14024379385681E-4</v>
       </c>
       <c r="I16" s="8">
-        <v>3.7382734277256399E-3</v>
+        <v>-1.16354025419592E-4</v>
       </c>
       <c r="J16" s="8">
-        <v>3.7008193299294099E-3</v>
+        <v>-9.2877503285804903E-5</v>
       </c>
       <c r="K16" s="8">
-        <v>3.6874740485083198E-3</v>
+        <v>-1.05048461668122E-4</v>
       </c>
       <c r="L16" s="8">
-        <v>3.7404923805526599E-3</v>
+        <v>-1.09352644459758E-4</v>
       </c>
       <c r="M16" s="8">
-        <v>3.74656928382823E-3</v>
+        <v>-1.19271212132121E-4</v>
       </c>
       <c r="N16" s="8">
-        <v>3.6510796493132002E-3</v>
+        <v>-1.1631228352142E-4</v>
       </c>
       <c r="O16" s="8">
-        <v>3.6613046382376799E-3</v>
+        <v>-1.19892018771152E-4</v>
       </c>
       <c r="P16" s="8">
-        <v>3.7062791238492302E-3</v>
+        <v>-9.2274239526330093E-6</v>
       </c>
       <c r="Q16" s="8">
-        <v>1.05928240895918E-2</v>
+        <v>6.9936253419591095E-4</v>
       </c>
       <c r="R16" s="8">
-        <v>3.6556594107903201E-3</v>
+        <v>3.5489149242826497E-5</v>
       </c>
       <c r="S16" s="8">
-        <v>3.7277507599967502E-3</v>
+        <v>8.0031535455390605E-5</v>
       </c>
       <c r="T16" s="8">
-        <v>1.7302794154127501E-4</v>
+        <v>-5.5940677296196703E-5</v>
       </c>
       <c r="U16" s="8">
-        <v>-1.3021485508586301E-4</v>
+        <v>-5.9407540007460198E-5</v>
       </c>
       <c r="V16" s="8">
-        <v>-3.8916722242940501E-5</v>
+        <v>-1.0782803402241E-4</v>
       </c>
       <c r="W16" s="8">
-        <v>-3.6457373039728102E-5</v>
+        <v>-1.4840980140309399E-4</v>
       </c>
       <c r="X16" s="8">
-        <v>2.2712555397529099E-4</v>
+        <v>-1.7070011691610099E-4</v>
       </c>
       <c r="Y16" s="8">
-        <v>-3.6833839483740697E-4</v>
+        <v>4.0793567108096299E-8</v>
       </c>
       <c r="Z16" s="8">
-        <v>-1.5899863080785099E-5</v>
+        <v>-5.2504939103552898E-6</v>
       </c>
       <c r="AA16" s="8">
-        <v>5.3283980456599201E-5</v>
+        <v>1.35152459553038E-8</v>
       </c>
       <c r="AB16" s="8">
-        <v>-4.2294495287388402E-7</v>
+        <v>4.32723605173755E-6</v>
       </c>
       <c r="AC16" s="8">
-        <v>-1.5305125523319501E-5</v>
+        <v>-2.0474639855476699E-6</v>
       </c>
       <c r="AD16" s="8">
-        <v>8.4653209894722195E-7</v>
+        <v>1.4837851068342901E-5</v>
       </c>
       <c r="AE16" s="8">
-        <v>1.76127397211751E-4</v>
-      </c>
-      <c r="AF16" s="8">
-        <v>-4.2994049611112502E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-1.01398648324365E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B17" s="8">
-        <v>-8.01329355410587E-2</v>
+        <v>0.18626231644498101</v>
       </c>
       <c r="C17" s="8">
-        <v>-5.1913341417064199E-5</v>
+        <v>-2.8762216933361899E-5</v>
       </c>
       <c r="D17" s="8">
-        <v>-4.2531167881112899E-4</v>
+        <v>-7.4290236969621802E-6</v>
       </c>
       <c r="E17" s="8">
-        <v>1.8643456883649201E-4</v>
+        <v>5.6169581710956697E-5</v>
       </c>
       <c r="F17" s="8">
-        <v>-1.48122627785236E-4</v>
+        <v>6.5990720673164303E-5</v>
       </c>
       <c r="G17" s="8">
-        <v>-3.40608746747858E-4</v>
+        <v>7.2368730689026899E-5</v>
       </c>
       <c r="H17" s="8">
-        <v>-1.8354713762818101E-4</v>
+        <v>7.3084651599329405E-5</v>
       </c>
       <c r="I17" s="8">
-        <v>3.6405002404529302E-3</v>
+        <v>5.71666205316695E-5</v>
       </c>
       <c r="J17" s="8">
-        <v>3.63079531134627E-3</v>
+        <v>7.8412020494100998E-5</v>
       </c>
       <c r="K17" s="8">
-        <v>3.5982278200898201E-3</v>
+        <v>7.3434985859314203E-5</v>
       </c>
       <c r="L17" s="8">
-        <v>3.6428763452834301E-3</v>
+        <v>8.4281749864339705E-5</v>
       </c>
       <c r="M17" s="8">
-        <v>3.6373330072810299E-3</v>
+        <v>6.4629497977963099E-5</v>
       </c>
       <c r="N17" s="8">
-        <v>3.5689831956946098E-3</v>
+        <v>4.65785004082273E-5</v>
       </c>
       <c r="O17" s="8">
-        <v>3.59903551776231E-3</v>
+        <v>2.7195167544381301E-7</v>
       </c>
       <c r="P17" s="8">
-        <v>3.6335672517614401E-3</v>
+        <v>8.4301794162856006E-5</v>
       </c>
       <c r="Q17" s="8">
-        <v>3.6556594107903201E-3</v>
+        <v>3.5489149242826497E-5</v>
       </c>
       <c r="R17" s="8">
-        <v>7.5772220981151599E-3</v>
+        <v>1.06877176172172E-3</v>
       </c>
       <c r="S17" s="8">
-        <v>3.6316966273550202E-3</v>
+        <v>1.13645727183976E-4</v>
       </c>
       <c r="T17" s="8">
-        <v>1.7664596266606699E-4</v>
+        <v>-7.1773973147808801E-5</v>
       </c>
       <c r="U17" s="8">
-        <v>1.35419483380916E-5</v>
+        <v>1.5779516431669299E-5</v>
       </c>
       <c r="V17" s="8">
-        <v>-3.9023475577853197E-5</v>
+        <v>3.6352346873185998E-5</v>
       </c>
       <c r="W17" s="8">
-        <v>-9.1901591422994901E-5</v>
+        <v>5.5365947700756198E-5</v>
       </c>
       <c r="X17" s="8">
-        <v>1.7418328243838901E-4</v>
+        <v>6.5183864173259105E-5</v>
       </c>
       <c r="Y17" s="8">
-        <v>-3.5045715914234701E-4</v>
+        <v>-2.2452118188708799E-6</v>
       </c>
       <c r="Z17" s="8">
-        <v>-1.3505716957335199E-5</v>
+        <v>5.5084366721645302E-5</v>
       </c>
       <c r="AA17" s="8">
-        <v>1.61817515153918E-5</v>
+        <v>-4.66521038580232E-7</v>
       </c>
       <c r="AB17" s="8">
-        <v>-1.4383094386253899E-7</v>
+        <v>-3.85206566010371E-7</v>
       </c>
       <c r="AC17" s="8">
-        <v>7.5524382012530103E-6</v>
+        <v>-1.92370469454462E-7</v>
       </c>
       <c r="AD17" s="8">
-        <v>-2.0810114648482401E-6</v>
+        <v>-1.6105896076746599E-5</v>
       </c>
       <c r="AE17" s="8">
-        <v>9.7167713338926502E-5</v>
-      </c>
-      <c r="AF17" s="8">
-        <v>-3.30926235510124E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-1.74327434238358E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B18" s="8">
-        <v>-0.31910411702290298</v>
+        <v>8.6609891146125106E-2</v>
       </c>
       <c r="C18" s="8">
-        <v>9.0654499959562297E-7</v>
+        <v>-8.2780689322515501E-6</v>
       </c>
       <c r="D18" s="8">
-        <v>-5.4483268097545504E-4</v>
+        <v>-1.8698510442086401E-6</v>
       </c>
       <c r="E18" s="8">
-        <v>1.5896051790660899E-4</v>
+        <v>-4.9240868057766601E-6</v>
       </c>
       <c r="F18" s="8">
-        <v>-1.61917970891495E-4</v>
+        <v>-1.7057351646447302E-5</v>
       </c>
       <c r="G18" s="8">
-        <v>-3.8424220541903001E-4</v>
+        <v>-9.4587375159042708E-6</v>
       </c>
       <c r="H18" s="8">
-        <v>-6.1258261392858502E-4</v>
+        <v>-2.0299650416265399E-6</v>
       </c>
       <c r="I18" s="8">
-        <v>3.70394096792992E-3</v>
+        <v>2.2368717647622999E-5</v>
       </c>
       <c r="J18" s="8">
-        <v>3.6831324902577402E-3</v>
+        <v>1.32228971508395E-5</v>
       </c>
       <c r="K18" s="8">
-        <v>3.6359723438137499E-3</v>
+        <v>1.56302883109403E-6</v>
       </c>
       <c r="L18" s="8">
-        <v>3.6828162446926999E-3</v>
+        <v>1.9511115008202899E-5</v>
       </c>
       <c r="M18" s="8">
-        <v>3.7049814789480301E-3</v>
+        <v>-7.3371464742691503E-7</v>
       </c>
       <c r="N18" s="8">
-        <v>3.5864061330973798E-3</v>
+        <v>2.9332047475643201E-6</v>
       </c>
       <c r="O18" s="8">
-        <v>3.5890105926193799E-3</v>
+        <v>-2.9584728819421901E-5</v>
       </c>
       <c r="P18" s="8">
-        <v>3.6506563494569902E-3</v>
+        <v>3.8754489998824402E-5</v>
       </c>
       <c r="Q18" s="8">
-        <v>3.7277507599967502E-3</v>
+        <v>8.0031535455390605E-5</v>
       </c>
       <c r="R18" s="8">
-        <v>3.6316966273550202E-3</v>
+        <v>1.13645727183976E-4</v>
       </c>
       <c r="S18" s="8">
-        <v>1.08103847681537E-2</v>
+        <v>1.0382522966528899E-3</v>
       </c>
       <c r="T18" s="8">
-        <v>1.9086654806898E-4</v>
+        <v>-5.7121262786169802E-6</v>
       </c>
       <c r="U18" s="8">
-        <v>1.2727920474501299E-4</v>
+        <v>2.02444919915333E-5</v>
       </c>
       <c r="V18" s="8">
-        <v>1.4480244629774599E-4</v>
+        <v>4.0740378426400499E-5</v>
       </c>
       <c r="W18" s="8">
-        <v>1.1134018192666599E-4</v>
+        <v>5.8952562926472798E-5</v>
       </c>
       <c r="X18" s="8">
-        <v>3.8494143341752499E-4</v>
+        <v>8.7215365226699996E-5</v>
       </c>
       <c r="Y18" s="8">
-        <v>-5.1160190503336095E-4</v>
+        <v>4.3593039336208697E-6</v>
       </c>
       <c r="Z18" s="8">
-        <v>-1.8053239998575698E-5</v>
+        <v>1.18728662371079E-5</v>
       </c>
       <c r="AA18" s="8">
-        <v>1.8281612615116899E-5</v>
+        <v>-1.7554585675004099E-7</v>
       </c>
       <c r="AB18" s="8">
-        <v>-8.9271201703801602E-8</v>
+        <v>-2.40755746117661E-6</v>
       </c>
       <c r="AC18" s="8">
-        <v>-1.5751065671979301E-5</v>
+        <v>5.5415978971095695E-7</v>
       </c>
       <c r="AD18" s="8">
-        <v>6.3442488630703199E-6</v>
+        <v>6.6251454878027795E-5</v>
       </c>
       <c r="AE18" s="8">
-        <v>2.7037100275640499E-6</v>
-      </c>
-      <c r="AF18" s="8">
-        <v>-3.6254356706759902E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-4.8300055975499298E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="8">
-        <v>-2.8136273810019902E-4</v>
+        <v>-1.9839525651406099E-3</v>
       </c>
       <c r="C19" s="8">
-        <v>-1.7042693690025399E-4</v>
+        <v>-4.0592578385189901E-5</v>
       </c>
       <c r="D19" s="8">
-        <v>-1.5726936471822299E-4</v>
+        <v>-2.1221594112663101E-5</v>
       </c>
       <c r="E19" s="8">
-        <v>-2.12827260295729E-4</v>
+        <v>3.68857457939547E-5</v>
       </c>
       <c r="F19" s="8">
-        <v>-2.7993404341663698E-5</v>
+        <v>4.3090844192620901E-5</v>
       </c>
       <c r="G19" s="8">
-        <v>-1.90048164124522E-4</v>
+        <v>6.2817937381026402E-5</v>
       </c>
       <c r="H19" s="8">
-        <v>-1.2664173552619299E-4</v>
+        <v>4.2571056359572699E-5</v>
       </c>
       <c r="I19" s="8">
-        <v>7.0466721665522601E-5</v>
+        <v>3.9823040541493802E-5</v>
       </c>
       <c r="J19" s="8">
-        <v>2.9058430210802402E-4</v>
+        <v>3.7981668450014302E-5</v>
       </c>
       <c r="K19" s="8">
-        <v>2.55104704934409E-4</v>
+        <v>4.2835056594919702E-5</v>
       </c>
       <c r="L19" s="8">
-        <v>3.0105057974443901E-4</v>
+        <v>5.7067095962278198E-5</v>
       </c>
       <c r="M19" s="8">
-        <v>1.8924768415587301E-4</v>
+        <v>4.6379169406659901E-5</v>
       </c>
       <c r="N19" s="8">
-        <v>2.1059693020532199E-4</v>
+        <v>4.1272600779181599E-5</v>
       </c>
       <c r="O19" s="8">
-        <v>2.12500321994609E-4</v>
+        <v>4.1433272052927503E-5</v>
       </c>
       <c r="P19" s="8">
-        <v>3.2188948765598201E-4</v>
+        <v>-9.7531415604059697E-5</v>
       </c>
       <c r="Q19" s="8">
-        <v>1.7302794154127501E-4</v>
+        <v>-5.5940677296196703E-5</v>
       </c>
       <c r="R19" s="8">
-        <v>1.7664596266606699E-4</v>
+        <v>-7.1773973147808801E-5</v>
       </c>
       <c r="S19" s="8">
-        <v>1.9086654806898E-4</v>
+        <v>-5.7121262786169802E-6</v>
       </c>
       <c r="T19" s="8">
-        <v>2.1563162627564101E-3</v>
+        <v>8.41823407019094E-4</v>
       </c>
       <c r="U19" s="8">
-        <v>1.5044795638907699E-4</v>
+        <v>2.11976795404442E-5</v>
       </c>
       <c r="V19" s="8">
-        <v>1.69685104190843E-4</v>
+        <v>4.0364142365726502E-5</v>
       </c>
       <c r="W19" s="8">
-        <v>2.2195458470309601E-4</v>
+        <v>5.4400876860029798E-5</v>
       </c>
       <c r="X19" s="8">
-        <v>2.41879342314524E-4</v>
+        <v>5.62125285714999E-5</v>
       </c>
       <c r="Y19" s="8">
-        <v>-5.6890612907485797E-5</v>
+        <v>1.24211277206181E-6</v>
       </c>
       <c r="Z19" s="8">
-        <v>-2.1045161391780598E-5</v>
+        <v>9.3900223970164906E-6</v>
       </c>
       <c r="AA19" s="8">
-        <v>4.3348141485591701E-5</v>
+        <v>-5.4292044381871703E-8</v>
       </c>
       <c r="AB19" s="8">
-        <v>-2.94314048158248E-7</v>
+        <v>-6.3523162173816995E-7</v>
       </c>
       <c r="AC19" s="8">
-        <v>-1.9989521205405801E-5</v>
+        <v>-7.9574462340996304E-7</v>
       </c>
       <c r="AD19" s="8">
-        <v>-4.9519808537223396E-6</v>
+        <v>-9.3157366746979495E-6</v>
       </c>
       <c r="AE19" s="8">
-        <v>2.9485886840635E-6</v>
-      </c>
-      <c r="AF19" s="8">
-        <v>-8.2595513948921604E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-2.9285221741463498E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="8">
-        <v>-1.3540905833991699E-2</v>
+        <v>-1.8711310319162101E-2</v>
       </c>
       <c r="C20" s="8">
-        <v>-1.06933575513096E-4</v>
+        <v>3.9379643112702798E-6</v>
       </c>
       <c r="D20" s="8">
-        <v>-1.7628097143113999E-5</v>
+        <v>3.0996645130731401E-5</v>
       </c>
       <c r="E20" s="8">
-        <v>1.3180405573850801E-4</v>
+        <v>4.1729103326868701E-6</v>
       </c>
       <c r="F20" s="8">
-        <v>3.1765119593700298E-5</v>
+        <v>-6.2880685016332799E-6</v>
       </c>
       <c r="G20" s="8">
-        <v>-8.0763238596518396E-5</v>
+        <v>1.8615676280719099E-5</v>
       </c>
       <c r="H20" s="8">
-        <v>-1.3357685690987399E-5</v>
+        <v>2.1918353506485799E-5</v>
       </c>
       <c r="I20" s="8">
-        <v>-1.65054953361904E-4</v>
+        <v>-6.7536704301496198E-6</v>
       </c>
       <c r="J20" s="8">
-        <v>-5.4928564757134402E-5</v>
+        <v>5.0968749236754097E-6</v>
       </c>
       <c r="K20" s="8">
-        <v>2.29935550132205E-5</v>
+        <v>1.42429998842197E-6</v>
       </c>
       <c r="L20" s="8">
-        <v>8.8777000104614905E-5</v>
+        <v>1.4664818340628501E-5</v>
       </c>
       <c r="M20" s="8">
-        <v>8.8665725766867197E-5</v>
+        <v>-1.9755155230674201E-5</v>
       </c>
       <c r="N20" s="8">
-        <v>7.0933444677157204E-5</v>
+        <v>-3.3705999597703201E-6</v>
       </c>
       <c r="O20" s="8">
-        <v>6.5047175705935901E-5</v>
+        <v>1.67683286339425E-5</v>
       </c>
       <c r="P20" s="8">
-        <v>4.49211348629465E-5</v>
+        <v>-7.8454978079788295E-6</v>
       </c>
       <c r="Q20" s="8">
-        <v>-1.3021485508586301E-4</v>
+        <v>-5.9407540007460198E-5</v>
       </c>
       <c r="R20" s="8">
-        <v>1.35419483380916E-5</v>
+        <v>1.5779516431669299E-5</v>
       </c>
       <c r="S20" s="8">
-        <v>1.2727920474501299E-4</v>
+        <v>2.02444919915333E-5</v>
       </c>
       <c r="T20" s="8">
-        <v>1.5044795638907699E-4</v>
+        <v>2.11976795404442E-5</v>
       </c>
       <c r="U20" s="8">
-        <v>2.7414331718500899E-3</v>
+        <v>9.8888022089552792E-4</v>
       </c>
       <c r="V20" s="8">
-        <v>1.75532650285816E-3</v>
+        <v>5.81317468807532E-4</v>
       </c>
       <c r="W20" s="8">
-        <v>1.7425556298784201E-3</v>
+        <v>5.8165133657198098E-4</v>
       </c>
       <c r="X20" s="8">
-        <v>1.7038493251756799E-3</v>
+        <v>5.8621389328490496E-4</v>
       </c>
       <c r="Y20" s="8">
-        <v>3.5177310421854801E-4</v>
+        <v>8.2176604300124797E-7</v>
       </c>
       <c r="Z20" s="8">
-        <v>-1.5544439150787701E-5</v>
+        <v>-1.78319282383282E-6</v>
       </c>
       <c r="AA20" s="8">
-        <v>-7.7485180559398298E-7</v>
+        <v>2.0830984649913701E-8</v>
       </c>
       <c r="AB20" s="8">
-        <v>5.8901365886500302E-8</v>
+        <v>9.9531707865136996E-7</v>
       </c>
       <c r="AC20" s="8">
-        <v>-6.2973314165602897E-6</v>
+        <v>-3.2592074558167801E-7</v>
       </c>
       <c r="AD20" s="8">
-        <v>-1.1643442175534399E-6</v>
+        <v>-1.4135019686785101E-6</v>
       </c>
       <c r="AE20" s="8">
-        <v>-3.09401121375623E-6</v>
-      </c>
-      <c r="AF20" s="8">
-        <v>-1.41664342203662E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-5.0830524459590995E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="8">
-        <v>-5.8437331079687703E-2</v>
+        <v>-3.6328834021091397E-2</v>
       </c>
       <c r="C21" s="8">
-        <v>1.91159661513898E-6</v>
+        <v>8.3171355284270804E-6</v>
       </c>
       <c r="D21" s="8">
-        <v>-2.35190709147246E-4</v>
+        <v>7.9350084145568799E-5</v>
       </c>
       <c r="E21" s="8">
-        <v>2.8501890220112902E-4</v>
+        <v>2.0962883283508201E-5</v>
       </c>
       <c r="F21" s="8">
-        <v>1.1021180503455699E-4</v>
+        <v>3.7063233851829799E-6</v>
       </c>
       <c r="G21" s="8">
-        <v>-3.1488974456466399E-5</v>
+        <v>4.1551083322488797E-5</v>
       </c>
       <c r="H21" s="8">
-        <v>1.4670503203129001E-4</v>
+        <v>1.8416293187680999E-5</v>
       </c>
       <c r="I21" s="8">
-        <v>-7.9536277947409296E-6</v>
+        <v>1.2937959954825E-5</v>
       </c>
       <c r="J21" s="8">
-        <v>-2.8397989314200902E-6</v>
+        <v>7.2767229358422396E-6</v>
       </c>
       <c r="K21" s="8">
-        <v>1.22323228258313E-4</v>
+        <v>-6.6221732725682299E-6</v>
       </c>
       <c r="L21" s="8">
-        <v>1.16377708589877E-4</v>
+        <v>2.3388040519728401E-5</v>
       </c>
       <c r="M21" s="8">
-        <v>1.10730279763057E-4</v>
+        <v>-2.7764603458460301E-6</v>
       </c>
       <c r="N21" s="8">
-        <v>1.15104077849468E-4</v>
+        <v>6.37494368668692E-7</v>
       </c>
       <c r="O21" s="8">
-        <v>2.8991814827594199E-5</v>
+        <v>1.04724336218278E-5</v>
       </c>
       <c r="P21" s="8">
-        <v>1.02602623044222E-4</v>
+        <v>2.4290310032538301E-5</v>
       </c>
       <c r="Q21" s="8">
-        <v>-3.8916722242940501E-5</v>
+        <v>-1.0782803402241E-4</v>
       </c>
       <c r="R21" s="8">
-        <v>-3.9023475577853197E-5</v>
+        <v>3.6352346873185998E-5</v>
       </c>
       <c r="S21" s="8">
-        <v>1.4480244629774599E-4</v>
+        <v>4.0740378426400499E-5</v>
       </c>
       <c r="T21" s="8">
-        <v>1.69685104190843E-4</v>
+        <v>4.0364142365726502E-5</v>
       </c>
       <c r="U21" s="8">
-        <v>1.75532650285816E-3</v>
+        <v>5.81317468807532E-4</v>
       </c>
       <c r="V21" s="8">
-        <v>2.8750316698433901E-3</v>
+        <v>1.0029711438783999E-3</v>
       </c>
       <c r="W21" s="8">
-        <v>2.0107691173380099E-3</v>
+        <v>6.45302930388035E-4</v>
       </c>
       <c r="X21" s="8">
-        <v>1.9630808947426201E-3</v>
+        <v>6.5218866189764905E-4</v>
       </c>
       <c r="Y21" s="8">
-        <v>4.62752440749351E-4</v>
+        <v>1.5626081936833E-6</v>
       </c>
       <c r="Z21" s="8">
-        <v>-4.3231121222062101E-6</v>
+        <v>-2.3892239740048601E-6</v>
       </c>
       <c r="AA21" s="8">
-        <v>3.55431784952156E-6</v>
+        <v>2.8856063094321E-8</v>
       </c>
       <c r="AB21" s="8">
-        <v>2.5441536155777301E-8</v>
+        <v>6.9973055967448603E-7</v>
       </c>
       <c r="AC21" s="8">
-        <v>-1.89745777961124E-6</v>
+        <v>-4.6478548740327398E-7</v>
       </c>
       <c r="AD21" s="8">
-        <v>3.5107206495501398E-7</v>
+        <v>-2.8050407074725201E-6</v>
       </c>
       <c r="AE21" s="8">
-        <v>5.2607278529689499E-5</v>
-      </c>
-      <c r="AF21" s="8">
-        <v>-2.023016610261E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-5.5009015460508301E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="8">
-        <v>-9.2359153912809702E-2</v>
+        <v>-9.7171783858513494E-2</v>
       </c>
       <c r="C22" s="8">
-        <v>1.17173090250836E-4</v>
+        <v>4.2359405450572197E-5</v>
       </c>
       <c r="D22" s="8">
-        <v>-3.9707618216626098E-4</v>
+        <v>1.4105827746942399E-4</v>
       </c>
       <c r="E22" s="8">
-        <v>3.6482712876218898E-4</v>
+        <v>4.4104427172820198E-5</v>
       </c>
       <c r="F22" s="8">
-        <v>1.75757031507802E-4</v>
+        <v>1.46164008306629E-5</v>
       </c>
       <c r="G22" s="8">
-        <v>2.8661231781060401E-5</v>
+        <v>4.9928669776200099E-5</v>
       </c>
       <c r="H22" s="8">
-        <v>3.0335887083627803E-4</v>
+        <v>3.08288208863186E-5</v>
       </c>
       <c r="I22" s="8">
-        <v>-6.18982082022266E-5</v>
+        <v>1.8937014308333901E-6</v>
       </c>
       <c r="J22" s="8">
-        <v>-7.4528524240565999E-5</v>
+        <v>3.3932315697247498E-6</v>
       </c>
       <c r="K22" s="8">
-        <v>5.59177051410507E-5</v>
+        <v>-1.02458102563469E-5</v>
       </c>
       <c r="L22" s="8">
-        <v>1.03539477613254E-4</v>
+        <v>2.9969985197550901E-5</v>
       </c>
       <c r="M22" s="8">
-        <v>1.89091830047346E-4</v>
+        <v>2.1540222536876999E-6</v>
       </c>
       <c r="N22" s="8">
-        <v>7.7272223311095799E-6</v>
+        <v>-1.2536478976609201E-6</v>
       </c>
       <c r="O22" s="8">
-        <v>-3.4256943672093998E-5</v>
+        <v>2.01425835441656E-5</v>
       </c>
       <c r="P22" s="8">
-        <v>4.3201772531197503E-5</v>
+        <v>7.0165346316770796E-5</v>
       </c>
       <c r="Q22" s="8">
-        <v>-3.6457373039728102E-5</v>
+        <v>-1.4840980140309399E-4</v>
       </c>
       <c r="R22" s="8">
-        <v>-9.1901591422994901E-5</v>
+        <v>5.5365947700756198E-5</v>
       </c>
       <c r="S22" s="8">
-        <v>1.1134018192666599E-4</v>
+        <v>5.8952562926472798E-5</v>
       </c>
       <c r="T22" s="8">
-        <v>2.2195458470309601E-4</v>
+        <v>5.4400876860029798E-5</v>
       </c>
       <c r="U22" s="8">
-        <v>1.7425556298784201E-3</v>
+        <v>5.8165133657198098E-4</v>
       </c>
       <c r="V22" s="8">
-        <v>2.0107691173380099E-3</v>
+        <v>6.45302930388035E-4</v>
       </c>
       <c r="W22" s="8">
-        <v>3.0973622262788301E-3</v>
+        <v>1.0310637481631599E-3</v>
       </c>
       <c r="X22" s="8">
-        <v>2.1647754761515599E-3</v>
+        <v>7.2036765567116598E-4</v>
       </c>
       <c r="Y22" s="8">
-        <v>4.4949877068388601E-4</v>
+        <v>2.5600043925631599E-6</v>
       </c>
       <c r="Z22" s="8">
-        <v>8.1752607270381502E-6</v>
+        <v>-3.3699752045690399E-6</v>
       </c>
       <c r="AA22" s="8">
-        <v>-9.9580742348248902E-7</v>
+        <v>3.8758076920986897E-8</v>
       </c>
       <c r="AB22" s="8">
-        <v>7.8676433748307596E-8</v>
+        <v>1.05914080754865E-6</v>
       </c>
       <c r="AC22" s="8">
-        <v>-1.4038264992738799E-7</v>
+        <v>-1.2237123332555901E-6</v>
       </c>
       <c r="AD22" s="8">
-        <v>-1.5246218719420099E-6</v>
+        <v>-5.42418415515061E-6</v>
       </c>
       <c r="AE22" s="8">
-        <v>-2.30135253225843E-6</v>
-      </c>
-      <c r="AF22" s="8">
-        <v>-2.1170347658758001E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-5.7855919248601603E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="8">
-        <v>-0.11490847119806299</v>
+        <v>-0.13099351771815301</v>
       </c>
       <c r="C23" s="8">
-        <v>2.5661305439669699E-4</v>
+        <v>1.1310542853406799E-4</v>
       </c>
       <c r="D23" s="8">
-        <v>-4.6418451004554001E-4</v>
+        <v>2.3307138367297499E-4</v>
       </c>
       <c r="E23" s="8">
-        <v>3.4535045012430802E-4</v>
+        <v>7.5498205724560394E-5</v>
       </c>
       <c r="F23" s="8">
-        <v>2.32170272959106E-4</v>
+        <v>4.9556502837882102E-5</v>
       </c>
       <c r="G23" s="8">
-        <v>2.5053514890331402E-4</v>
+        <v>1.08346350261165E-4</v>
       </c>
       <c r="H23" s="8">
-        <v>5.6827631859252003E-4</v>
+        <v>6.3945139421550705E-5</v>
       </c>
       <c r="I23" s="8">
-        <v>1.5629925725029999E-4</v>
+        <v>5.0605238158786502E-5</v>
       </c>
       <c r="J23" s="8">
-        <v>1.72442626212721E-4</v>
+        <v>2.5266040376806101E-5</v>
       </c>
       <c r="K23" s="8">
-        <v>3.1058008517539801E-4</v>
+        <v>-2.4041000478841299E-6</v>
       </c>
       <c r="L23" s="8">
-        <v>3.1316394322403299E-4</v>
+        <v>5.8356956344715599E-5</v>
       </c>
       <c r="M23" s="8">
-        <v>3.18350819095063E-4</v>
+        <v>5.8464918096278697E-5</v>
       </c>
       <c r="N23" s="8">
-        <v>2.0951522786930599E-4</v>
+        <v>3.8916144388137498E-5</v>
       </c>
       <c r="O23" s="8">
-        <v>1.44465411850755E-4</v>
+        <v>7.6898295914402893E-5</v>
       </c>
       <c r="P23" s="8">
-        <v>2.72477586967644E-4</v>
+        <v>1.3157493114683699E-4</v>
       </c>
       <c r="Q23" s="8">
-        <v>2.2712555397529099E-4</v>
+        <v>-1.7070011691610099E-4</v>
       </c>
       <c r="R23" s="8">
-        <v>1.7418328243838901E-4</v>
+        <v>6.5183864173259105E-5</v>
       </c>
       <c r="S23" s="8">
-        <v>3.8494143341752499E-4</v>
+        <v>8.7215365226699996E-5</v>
       </c>
       <c r="T23" s="8">
-        <v>2.41879342314524E-4</v>
+        <v>5.62125285714999E-5</v>
       </c>
       <c r="U23" s="8">
-        <v>1.7038493251756799E-3</v>
+        <v>5.8621389328490496E-4</v>
       </c>
       <c r="V23" s="8">
-        <v>1.9630808947426201E-3</v>
+        <v>6.5218866189764905E-4</v>
       </c>
       <c r="W23" s="8">
-        <v>2.1647754761515599E-3</v>
+        <v>7.2036765567116598E-4</v>
       </c>
       <c r="X23" s="8">
-        <v>3.0884208762260701E-3</v>
+        <v>1.10544808444687E-3</v>
       </c>
       <c r="Y23" s="8">
-        <v>3.3943898569653602E-4</v>
+        <v>4.7974937510505502E-6</v>
       </c>
       <c r="Z23" s="8">
-        <v>2.7763091305072701E-6</v>
+        <v>-4.0606313243392302E-6</v>
       </c>
       <c r="AA23" s="8">
-        <v>3.7883514038165999E-6</v>
+        <v>3.4313051256944299E-8</v>
       </c>
       <c r="AB23" s="8">
-        <v>-1.3253464341926199E-9</v>
+        <v>2.29593528240283E-6</v>
       </c>
       <c r="AC23" s="8">
-        <v>-7.9601118039708399E-9</v>
+        <v>-1.7896033229644601E-6</v>
       </c>
       <c r="AD23" s="8">
-        <v>-4.1293388728434297E-6</v>
+        <v>-1.32007956271289E-5</v>
       </c>
       <c r="AE23" s="8">
-        <v>-2.4996167309672399E-5</v>
-      </c>
-      <c r="AF23" s="8">
-        <v>-2.3505563205864898E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-6.9069536585095203E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B24" s="8">
-        <v>1.67744740400946</v>
+        <v>2.8886070233809801E-2</v>
       </c>
       <c r="C24" s="8">
-        <v>-2.2776585886313499E-4</v>
+        <v>3.8098118934446802E-6</v>
       </c>
       <c r="D24" s="8">
-        <v>6.2970740391318899E-4</v>
+        <v>1.1502362711482E-5</v>
       </c>
       <c r="E24" s="8">
-        <v>-2.0417905428785099E-4</v>
+        <v>1.8836165493875299E-6</v>
       </c>
       <c r="F24" s="8">
-        <v>-1.03556653835802E-4</v>
+        <v>2.5089513554834998E-6</v>
       </c>
       <c r="G24" s="8">
-        <v>-1.3187972664026299E-4</v>
+        <v>1.20824045247566E-7</v>
       </c>
       <c r="H24" s="8">
-        <v>-9.2684217219427404E-5</v>
+        <v>2.7648007721724699E-6</v>
       </c>
       <c r="I24" s="8">
-        <v>-5.4451905858729597E-4</v>
+        <v>1.6978409151919101E-6</v>
       </c>
       <c r="J24" s="8">
-        <v>-5.2613947803580301E-4</v>
+        <v>2.9313715455486101E-6</v>
       </c>
       <c r="K24" s="8">
-        <v>4.7062589410381498E-4</v>
+        <v>4.18596249083941E-6</v>
       </c>
       <c r="L24" s="8">
-        <v>1.20153026031496E-4</v>
+        <v>4.6693648620851297E-6</v>
       </c>
       <c r="M24" s="8">
-        <v>-6.7841435865638493E-5</v>
+        <v>3.6520359783675901E-6</v>
       </c>
       <c r="N24" s="8">
-        <v>-2.03739851255387E-5</v>
+        <v>4.75101959656989E-6</v>
       </c>
       <c r="O24" s="8">
-        <v>-1.2989506752020101E-4</v>
+        <v>4.4315271554711699E-6</v>
       </c>
       <c r="P24" s="8">
-        <v>-2.1155386442153201E-4</v>
+        <v>3.7917113160447001E-6</v>
       </c>
       <c r="Q24" s="8">
-        <v>-3.6833839483740697E-4</v>
+        <v>4.0793567108096299E-8</v>
       </c>
       <c r="R24" s="8">
-        <v>-3.5045715914234701E-4</v>
+        <v>-2.2452118188708799E-6</v>
       </c>
       <c r="S24" s="8">
-        <v>-5.1160190503336095E-4</v>
+        <v>4.3593039336208697E-6</v>
       </c>
       <c r="T24" s="8">
-        <v>-5.6890612907485797E-5</v>
+        <v>1.24211277206181E-6</v>
       </c>
       <c r="U24" s="8">
-        <v>3.5177310421854801E-4</v>
+        <v>8.2176604300124797E-7</v>
       </c>
       <c r="V24" s="8">
-        <v>4.62752440749351E-4</v>
+        <v>1.5626081936833E-6</v>
       </c>
       <c r="W24" s="8">
-        <v>4.4949877068388601E-4</v>
+        <v>2.5600043925631599E-6</v>
       </c>
       <c r="X24" s="8">
-        <v>3.3943898569653602E-4</v>
+        <v>4.7974937510505502E-6</v>
       </c>
       <c r="Y24" s="8">
-        <v>2.1353217180365199E-2</v>
+        <v>9.0000178853402292E-6</v>
       </c>
       <c r="Z24" s="8">
-        <v>1.0191418051885299E-5</v>
+        <v>9.7594479553951604E-8</v>
       </c>
       <c r="AA24" s="8">
-        <v>-9.3111197209676402E-5</v>
+        <v>-4.3118766664605099E-9</v>
       </c>
       <c r="AB24" s="8">
-        <v>1.0366058796827001E-6</v>
+        <v>1.50544835564094E-8</v>
       </c>
       <c r="AC24" s="8">
-        <v>-6.7511039266497305E-5</v>
+        <v>-4.8749717131876203E-8</v>
       </c>
       <c r="AD24" s="8">
-        <v>6.6298046674749102E-5</v>
+        <v>4.01314544029872E-7</v>
       </c>
       <c r="AE24" s="8">
-        <v>-5.02039356084404E-5</v>
-      </c>
-      <c r="AF24" s="8">
-        <v>-1.7936134470325799E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-1.3216703652810699E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B25" s="8">
-        <v>2.8439779796908499E-2</v>
+        <v>4.2413202472385302E-2</v>
       </c>
       <c r="C25" s="8">
-        <v>1.7418917226673301E-5</v>
+        <v>2.3186605375299799E-6</v>
       </c>
       <c r="D25" s="8">
-        <v>-2.1762751755166099E-5</v>
+        <v>4.5098950532457102E-6</v>
       </c>
       <c r="E25" s="8">
-        <v>1.7149527807957399E-6</v>
+        <v>1.4540394072156199E-6</v>
       </c>
       <c r="F25" s="8">
-        <v>3.1585411834741901E-6</v>
+        <v>3.79991630210079E-6</v>
       </c>
       <c r="G25" s="8">
-        <v>2.04754450575988E-5</v>
+        <v>4.0937818072402197E-6</v>
       </c>
       <c r="H25" s="8">
-        <v>4.91463903769168E-5</v>
+        <v>3.0291747018516901E-6</v>
       </c>
       <c r="I25" s="8">
-        <v>-3.3986104429208902E-5</v>
+        <v>4.0541324596371204E-6</v>
       </c>
       <c r="J25" s="8">
-        <v>-2.9128536744634601E-5</v>
+        <v>5.2899874033586298E-6</v>
       </c>
       <c r="K25" s="8">
-        <v>-2.38231760912954E-5</v>
+        <v>5.1717440034410497E-6</v>
       </c>
       <c r="L25" s="8">
-        <v>-4.1123282692583602E-5</v>
+        <v>3.3546060489813401E-6</v>
       </c>
       <c r="M25" s="8">
-        <v>-2.7568287042084499E-5</v>
+        <v>3.82789490967876E-6</v>
       </c>
       <c r="N25" s="8">
-        <v>-3.5213531937796298E-5</v>
+        <v>2.02507699844905E-6</v>
       </c>
       <c r="O25" s="8">
-        <v>-3.1161916154452298E-5</v>
+        <v>2.4645913414325602E-6</v>
       </c>
       <c r="P25" s="8">
-        <v>-3.8629289670829497E-5</v>
+        <v>1.1125106328094E-5</v>
       </c>
       <c r="Q25" s="8">
-        <v>-1.5899863080785099E-5</v>
+        <v>-5.2504939103552898E-6</v>
       </c>
       <c r="R25" s="8">
-        <v>-1.3505716957335199E-5</v>
+        <v>5.5084366721645302E-5</v>
       </c>
       <c r="S25" s="8">
-        <v>-1.8053239998575698E-5</v>
+        <v>1.18728662371079E-5</v>
       </c>
       <c r="T25" s="8">
-        <v>-2.1045161391780598E-5</v>
+        <v>9.3900223970164906E-6</v>
       </c>
       <c r="U25" s="8">
-        <v>-1.5544439150787701E-5</v>
+        <v>-1.78319282383282E-6</v>
       </c>
       <c r="V25" s="8">
-        <v>-4.3231121222062101E-6</v>
+        <v>-2.3892239740048601E-6</v>
       </c>
       <c r="W25" s="8">
-        <v>8.1752607270381502E-6</v>
+        <v>-3.3699752045690399E-6</v>
       </c>
       <c r="X25" s="8">
-        <v>2.7763091305072701E-6</v>
+        <v>-4.0606313243392302E-6</v>
       </c>
       <c r="Y25" s="8">
-        <v>1.0191418051885299E-5</v>
+        <v>9.7594479553951604E-8</v>
       </c>
       <c r="Z25" s="8">
-        <v>2.9097044136189399E-5</v>
+        <v>1.14729184850013E-5</v>
       </c>
       <c r="AA25" s="8">
-        <v>-1.1467170946729699E-6</v>
+        <v>-1.08857396665175E-7</v>
       </c>
       <c r="AB25" s="8">
-        <v>-4.2464853157679597E-9</v>
+        <v>-3.52323561291942E-7</v>
       </c>
       <c r="AC25" s="8">
-        <v>1.72407959539562E-6</v>
+        <v>-3.3814954034462999E-7</v>
       </c>
       <c r="AD25" s="8">
-        <v>-5.6509856825766598E-8</v>
+        <v>2.9400583148254502E-7</v>
       </c>
       <c r="AE25" s="8">
-        <v>1.16265602676479E-7</v>
-      </c>
-      <c r="AF25" s="8">
-        <v>-3.1655779212900299E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-2.6492355287693702E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="8">
-        <v>3.44833105647986E-2</v>
+        <v>-6.4330597660827704E-4</v>
       </c>
       <c r="C26" s="8">
-        <v>3.8277125207519503E-5</v>
+        <v>-2.96876384478013E-8</v>
       </c>
       <c r="D26" s="8">
-        <v>-2.26315833790098E-5</v>
+        <v>-1.10974150357213E-7</v>
       </c>
       <c r="E26" s="8">
-        <v>1.68765660797707E-4</v>
+        <v>-2.0871386532620001E-8</v>
       </c>
       <c r="F26" s="8">
-        <v>2.2092207183286601E-5</v>
+        <v>-3.8508510245791399E-8</v>
       </c>
       <c r="G26" s="8">
-        <v>-3.2191950471297599E-6</v>
+        <v>-3.5236699134234201E-8</v>
       </c>
       <c r="H26" s="8">
-        <v>1.36824618717904E-5</v>
+        <v>-2.8249601511346799E-8</v>
       </c>
       <c r="I26" s="8">
-        <v>7.1549796684478098E-6</v>
+        <v>-4.1247948738422799E-8</v>
       </c>
       <c r="J26" s="8">
-        <v>2.4342448627462001E-5</v>
+        <v>-6.1720025210646596E-8</v>
       </c>
       <c r="K26" s="8">
-        <v>8.7678985060418204E-6</v>
+        <v>-6.12287384370235E-8</v>
       </c>
       <c r="L26" s="8">
-        <v>3.0784171367229803E-5</v>
+        <v>-4.4709434046324701E-8</v>
       </c>
       <c r="M26" s="8">
-        <v>2.04241287357682E-5</v>
+        <v>-4.2882555618993997E-8</v>
       </c>
       <c r="N26" s="8">
-        <v>3.1758192246236301E-5</v>
+        <v>-3.5302999281871103E-8</v>
       </c>
       <c r="O26" s="8">
-        <v>3.0056493142876501E-5</v>
+        <v>-2.4497648314825999E-8</v>
       </c>
       <c r="P26" s="8">
-        <v>3.4304687460243302E-5</v>
+        <v>-1.3599779644869E-7</v>
       </c>
       <c r="Q26" s="8">
-        <v>5.3283980456599201E-5</v>
+        <v>1.35152459553038E-8</v>
       </c>
       <c r="R26" s="8">
-        <v>1.61817515153918E-5</v>
+        <v>-4.66521038580232E-7</v>
       </c>
       <c r="S26" s="8">
-        <v>1.8281612615116899E-5</v>
+        <v>-1.7554585675004099E-7</v>
       </c>
       <c r="T26" s="8">
-        <v>4.3348141485591701E-5</v>
+        <v>-5.4292044381871703E-8</v>
       </c>
       <c r="U26" s="8">
-        <v>-7.7485180559398298E-7</v>
+        <v>2.0830984649913701E-8</v>
       </c>
       <c r="V26" s="8">
-        <v>3.55431784952156E-6</v>
+        <v>2.8856063094321E-8</v>
       </c>
       <c r="W26" s="8">
-        <v>-9.9580742348248902E-7</v>
+        <v>3.8758076920986897E-8</v>
       </c>
       <c r="X26" s="8">
-        <v>3.7883514038165999E-6</v>
+        <v>3.4313051256944299E-8</v>
       </c>
       <c r="Y26" s="8">
-        <v>-9.3111197209676402E-5</v>
+        <v>-4.3118766664605099E-9</v>
       </c>
       <c r="Z26" s="8">
-        <v>-1.1467170946729699E-6</v>
+        <v>-1.08857396665175E-7</v>
       </c>
       <c r="AA26" s="8">
-        <v>3.2815396537098903E-5</v>
+        <v>1.08402391177238E-9</v>
       </c>
       <c r="AB26" s="8">
-        <v>-3.0795534846573098E-7</v>
+        <v>6.1210753017434302E-9</v>
       </c>
       <c r="AC26" s="8">
-        <v>-3.80850560200112E-6</v>
+        <v>5.8975396229339404E-9</v>
       </c>
       <c r="AD26" s="8">
-        <v>-1.3507813705517501E-6</v>
+        <v>-1.12901224784365E-8</v>
       </c>
       <c r="AE26" s="8">
-        <v>1.3982340417995101E-5</v>
-      </c>
-      <c r="AF26" s="8">
-        <v>-7.28529333887984E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+        <v>2.32104981362895E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B27" s="8">
-        <v>-5.5002444342896995E-4</v>
+        <v>0.51913686387735403</v>
       </c>
       <c r="C27" s="8">
-        <v>-4.4866372998640298E-7</v>
+        <v>3.1793643979944501E-6</v>
       </c>
       <c r="D27" s="8">
-        <v>1.12089594352502E-7</v>
+        <v>1.78599217928677E-6</v>
       </c>
       <c r="E27" s="8">
-        <v>-1.42675270740487E-6</v>
+        <v>-3.6280323879363201E-6</v>
       </c>
       <c r="F27" s="8">
-        <v>-3.50618630472197E-7</v>
+        <v>-3.1825181167266798E-6</v>
       </c>
       <c r="G27" s="8">
-        <v>-2.4461453760613501E-9</v>
+        <v>-3.0401644107485802E-6</v>
       </c>
       <c r="H27" s="8">
-        <v>-3.2391900034712001E-7</v>
+        <v>-3.8748260008656702E-6</v>
       </c>
       <c r="I27" s="8">
-        <v>-6.9358125359632595E-8</v>
+        <v>-5.1389272628331798E-6</v>
       </c>
       <c r="J27" s="8">
-        <v>-1.83799025828355E-7</v>
+        <v>-5.0673218306440097E-6</v>
       </c>
       <c r="K27" s="8">
-        <v>-4.4605772097792299E-8</v>
+        <v>-4.2648896152328296E-6</v>
       </c>
       <c r="L27" s="8">
-        <v>-2.32806765575063E-7</v>
+        <v>-1.9645808338728002E-6</v>
       </c>
       <c r="M27" s="8">
-        <v>-1.3118006608978299E-7</v>
+        <v>-3.4770945725069898E-6</v>
       </c>
       <c r="N27" s="8">
-        <v>-2.7943379093036902E-7</v>
+        <v>-2.3712226015979299E-6</v>
       </c>
       <c r="O27" s="8">
-        <v>-2.6997151693475101E-7</v>
+        <v>-7.2015279948186899E-7</v>
       </c>
       <c r="P27" s="8">
-        <v>-2.8371600823174798E-7</v>
+        <v>-3.6190391913122701E-7</v>
       </c>
       <c r="Q27" s="8">
-        <v>-4.2294495287388402E-7</v>
+        <v>4.32723605173755E-6</v>
       </c>
       <c r="R27" s="8">
-        <v>-1.4383094386253899E-7</v>
+        <v>-3.85206566010371E-7</v>
       </c>
       <c r="S27" s="8">
-        <v>-8.9271201703801602E-8</v>
+        <v>-2.40755746117661E-6</v>
       </c>
       <c r="T27" s="8">
-        <v>-2.94314048158248E-7</v>
+        <v>-6.3523162173816995E-7</v>
       </c>
       <c r="U27" s="8">
-        <v>5.8901365886500302E-8</v>
+        <v>9.9531707865136996E-7</v>
       </c>
       <c r="V27" s="8">
-        <v>2.5441536155777301E-8</v>
+        <v>6.9973055967448603E-7</v>
       </c>
       <c r="W27" s="8">
-        <v>7.8676433748307596E-8</v>
+        <v>1.05914080754865E-6</v>
       </c>
       <c r="X27" s="8">
-        <v>-1.3253464341926199E-9</v>
+        <v>2.29593528240283E-6</v>
       </c>
       <c r="Y27" s="8">
-        <v>1.0366058796827001E-6</v>
+        <v>1.50544835564094E-8</v>
       </c>
       <c r="Z27" s="8">
-        <v>-4.2464853157679597E-9</v>
+        <v>-3.52323561291942E-7</v>
       </c>
       <c r="AA27" s="8">
-        <v>-3.0795534846573098E-7</v>
+        <v>6.1210753017434302E-9</v>
       </c>
       <c r="AB27" s="8">
-        <v>3.0299693811011099E-9</v>
+        <v>8.6044931768418205E-6</v>
       </c>
       <c r="AC27" s="8">
-        <v>4.0509506026858202E-8</v>
+        <v>4.8400922793545499E-7</v>
       </c>
       <c r="AD27" s="8">
-        <v>1.9480536584234701E-8</v>
+        <v>8.3881869935954499E-6</v>
       </c>
       <c r="AE27" s="8">
-        <v>-1.48020859038985E-7</v>
-      </c>
-      <c r="AF27" s="8">
-        <v>6.3447809961763403E-6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-1.17206090624502E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B28" s="8">
-        <v>0.51434771842252602</v>
+        <v>-5.5512248208991401E-2</v>
       </c>
       <c r="C28" s="8">
-        <v>-2.0624941559523401E-6</v>
+        <v>1.78226410581721E-6</v>
       </c>
       <c r="D28" s="8">
-        <v>1.7858610406278699E-5</v>
+        <v>3.8572680684296296E-6</v>
       </c>
       <c r="E28" s="8">
-        <v>-1.3072422088211801E-5</v>
+        <v>-3.5091664866875298E-7</v>
       </c>
       <c r="F28" s="8">
-        <v>-9.7764234897121507E-6</v>
+        <v>-8.7565731745256198E-7</v>
       </c>
       <c r="G28" s="8">
-        <v>2.1714595934536899E-5</v>
+        <v>-5.6668883152103797E-7</v>
       </c>
       <c r="H28" s="8">
-        <v>1.5800251116395101E-5</v>
+        <v>-1.23893189632272E-6</v>
       </c>
       <c r="I28" s="8">
-        <v>6.6583969087507302E-6</v>
+        <v>-1.11565094254127E-6</v>
       </c>
       <c r="J28" s="8">
-        <v>-2.1884028565649699E-5</v>
+        <v>-2.3905009615432402E-6</v>
       </c>
       <c r="K28" s="8">
-        <v>4.6831607499127103E-6</v>
+        <v>-1.3962082477912201E-6</v>
       </c>
       <c r="L28" s="8">
-        <v>-1.61945059632531E-5</v>
+        <v>-1.8362383144126799E-6</v>
       </c>
       <c r="M28" s="8">
-        <v>-2.7274544463754799E-5</v>
+        <v>-2.1280198036761101E-7</v>
       </c>
       <c r="N28" s="8">
-        <v>-2.5921318177962599E-5</v>
+        <v>-1.14107054237594E-6</v>
       </c>
       <c r="O28" s="8">
-        <v>-1.9356988529694E-5</v>
+        <v>-6.5869545494226599E-7</v>
       </c>
       <c r="P28" s="8">
-        <v>-1.32486692496256E-5</v>
+        <v>1.3826337980897599E-7</v>
       </c>
       <c r="Q28" s="8">
-        <v>-1.5305125523319501E-5</v>
+        <v>-2.0474639855476699E-6</v>
       </c>
       <c r="R28" s="8">
-        <v>7.5524382012530103E-6</v>
+        <v>-1.92370469454462E-7</v>
       </c>
       <c r="S28" s="8">
-        <v>-1.5751065671979301E-5</v>
+        <v>5.5415978971095695E-7</v>
       </c>
       <c r="T28" s="8">
-        <v>-1.9989521205405801E-5</v>
+        <v>-7.9574462340996304E-7</v>
       </c>
       <c r="U28" s="8">
-        <v>-6.2973314165602897E-6</v>
+        <v>-3.2592074558167801E-7</v>
       </c>
       <c r="V28" s="8">
-        <v>-1.89745777961124E-6</v>
+        <v>-4.6478548740327398E-7</v>
       </c>
       <c r="W28" s="8">
-        <v>-1.4038264992738799E-7</v>
+        <v>-1.2237123332555901E-6</v>
       </c>
       <c r="X28" s="8">
-        <v>-7.9601118039708399E-9</v>
+        <v>-1.7896033229644601E-6</v>
       </c>
       <c r="Y28" s="8">
-        <v>-6.7511039266497305E-5</v>
+        <v>-4.8749717131876203E-8</v>
       </c>
       <c r="Z28" s="8">
-        <v>1.72407959539562E-6</v>
+        <v>-3.3814954034462999E-7</v>
       </c>
       <c r="AA28" s="8">
-        <v>-3.80850560200112E-6</v>
+        <v>5.8975396229339404E-9</v>
       </c>
       <c r="AB28" s="8">
-        <v>4.0509506026858202E-8</v>
+        <v>4.8400922793545499E-7</v>
       </c>
       <c r="AC28" s="8">
-        <v>2.38353223919609E-5</v>
+        <v>1.3538114266097801E-6</v>
       </c>
       <c r="AD28" s="8">
-        <v>1.6735431270951999E-6</v>
+        <v>-1.68541188471055E-7</v>
       </c>
       <c r="AE28" s="8">
-        <v>1.7616931975248201E-5</v>
-      </c>
-      <c r="AF28" s="8">
-        <v>-2.8588874847273901E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-7.1271563733205098E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B29" s="8">
-        <v>-4.8851595888663703E-2</v>
+        <v>-0.44871074747336698</v>
       </c>
       <c r="C29" s="8">
-        <v>-9.5378344862199601E-8</v>
+        <v>-3.0175895987922599E-6</v>
       </c>
       <c r="D29" s="8">
-        <v>-5.1376684707118898E-6</v>
+        <v>1.5613719487008001E-5</v>
       </c>
       <c r="E29" s="8">
-        <v>-5.4949633685124295E-7</v>
+        <v>-3.5306746234211701E-6</v>
       </c>
       <c r="F29" s="8">
-        <v>3.3160001429759501E-6</v>
+        <v>-6.3180303899050102E-6</v>
       </c>
       <c r="G29" s="8">
-        <v>5.0993407326699696E-6</v>
+        <v>-1.7288507969710001E-5</v>
       </c>
       <c r="H29" s="8">
-        <v>7.1121667669341403E-6</v>
+        <v>-5.3886009459041703E-6</v>
       </c>
       <c r="I29" s="8">
-        <v>1.15372813028391E-6</v>
+        <v>1.9934169083980701E-6</v>
       </c>
       <c r="J29" s="8">
-        <v>-9.6443425739680201E-7</v>
+        <v>9.8637187167365297E-6</v>
       </c>
       <c r="K29" s="8">
-        <v>5.3646374898221998E-6</v>
+        <v>-2.0619336032878901E-6</v>
       </c>
       <c r="L29" s="8">
-        <v>-9.71923573944943E-7</v>
+        <v>3.0558602225527002E-6</v>
       </c>
       <c r="M29" s="8">
-        <v>-1.3377557896753101E-6</v>
+        <v>-8.67647462065072E-6</v>
       </c>
       <c r="N29" s="8">
-        <v>-1.7770997084841599E-6</v>
+        <v>-6.1454669693396202E-6</v>
       </c>
       <c r="O29" s="8">
-        <v>-3.3297926801775999E-6</v>
+        <v>1.1550375042323801E-5</v>
       </c>
       <c r="P29" s="8">
-        <v>-8.7502828710036599E-7</v>
+        <v>1.9509696246996999E-5</v>
       </c>
       <c r="Q29" s="8">
-        <v>8.4653209894722195E-7</v>
+        <v>1.4837851068342901E-5</v>
       </c>
       <c r="R29" s="8">
-        <v>-2.0810114648482401E-6</v>
+        <v>-1.6105896076746599E-5</v>
       </c>
       <c r="S29" s="8">
-        <v>6.3442488630703199E-6</v>
+        <v>6.6251454878027795E-5</v>
       </c>
       <c r="T29" s="8">
-        <v>-4.9519808537223396E-6</v>
+        <v>-9.3157366746979495E-6</v>
       </c>
       <c r="U29" s="8">
-        <v>-1.1643442175534399E-6</v>
+        <v>-1.4135019686785101E-6</v>
       </c>
       <c r="V29" s="8">
-        <v>3.5107206495501398E-7</v>
+        <v>-2.8050407074725201E-6</v>
       </c>
       <c r="W29" s="8">
-        <v>-1.5246218719420099E-6</v>
+        <v>-5.42418415515061E-6</v>
       </c>
       <c r="X29" s="8">
-        <v>-4.1293388728434297E-6</v>
+        <v>-1.32007956271289E-5</v>
       </c>
       <c r="Y29" s="8">
-        <v>6.6298046674749102E-5</v>
+        <v>4.01314544029872E-7</v>
       </c>
       <c r="Z29" s="8">
-        <v>-5.6509856825766598E-8</v>
+        <v>2.9400583148254502E-7</v>
       </c>
       <c r="AA29" s="8">
-        <v>-1.3507813705517501E-6</v>
+        <v>-1.12901224784365E-8</v>
       </c>
       <c r="AB29" s="8">
-        <v>1.9480536584234701E-8</v>
+        <v>8.3881869935954499E-6</v>
       </c>
       <c r="AC29" s="8">
-        <v>1.6735431270951999E-6</v>
+        <v>-1.68541188471055E-7</v>
       </c>
       <c r="AD29" s="8">
-        <v>3.5327792613185398E-6</v>
+        <v>3.9728325592211798E-4</v>
       </c>
       <c r="AE29" s="8">
-        <v>-2.7442379982238601E-6</v>
-      </c>
-      <c r="AF29" s="8">
-        <v>-1.8190705973703699E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-2.8216205491348497E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B30" s="8">
-        <v>-0.50382008485685903</v>
+        <v>7.6113041729709003</v>
       </c>
       <c r="C30" s="8">
-        <v>3.56806776970703E-5</v>
+        <v>-5.4423565653146603E-4</v>
       </c>
       <c r="D30" s="8">
-        <v>3.2141074307096401E-5</v>
+        <v>-8.3290283417442003E-4</v>
       </c>
       <c r="E30" s="8">
-        <v>4.0434918179314501E-5</v>
+        <v>-9.2716630111859696E-4</v>
       </c>
       <c r="F30" s="8">
-        <v>1.58240065566467E-4</v>
+        <v>-9.8121077930040301E-4</v>
       </c>
       <c r="G30" s="8">
-        <v>-3.59681661507263E-5</v>
+        <v>-1.0252062148062601E-3</v>
       </c>
       <c r="H30" s="8">
-        <v>1.9493443158649301E-5</v>
+        <v>-9.46868246233951E-4</v>
       </c>
       <c r="I30" s="8">
-        <v>9.4318092781603798E-5</v>
+        <v>-9.4153885507760205E-4</v>
       </c>
       <c r="J30" s="8">
-        <v>1.2351654348261799E-4</v>
+        <v>-9.1321204151468096E-4</v>
       </c>
       <c r="K30" s="8">
-        <v>8.7184867609805801E-5</v>
+        <v>-9.7214891034458199E-4</v>
       </c>
       <c r="L30" s="8">
-        <v>1.08484040202177E-4</v>
+        <v>-9.7367395144997305E-4</v>
       </c>
       <c r="M30" s="8">
-        <v>1.5480723694247199E-4</v>
+        <v>-1.01258741841183E-3</v>
       </c>
       <c r="N30" s="8">
-        <v>1.6026663310050399E-4</v>
+        <v>-9.3059806897005605E-4</v>
       </c>
       <c r="O30" s="8">
-        <v>9.9770514449259805E-5</v>
+        <v>-9.9301734847927702E-4</v>
       </c>
       <c r="P30" s="8">
-        <v>1.4781598336841001E-4</v>
+        <v>-6.2722640802023505E-4</v>
       </c>
       <c r="Q30" s="8">
-        <v>1.76127397211751E-4</v>
+        <v>-1.01398648324365E-4</v>
       </c>
       <c r="R30" s="8">
-        <v>9.7167713338926502E-5</v>
+        <v>-1.74327434238358E-3</v>
       </c>
       <c r="S30" s="8">
-        <v>2.7037100275640499E-6</v>
+        <v>-4.8300055975499298E-4</v>
       </c>
       <c r="T30" s="8">
-        <v>2.9485886840635E-6</v>
+        <v>-2.9285221741463498E-4</v>
       </c>
       <c r="U30" s="8">
-        <v>-3.09401121375623E-6</v>
+        <v>-5.0830524459590995E-4</v>
       </c>
       <c r="V30" s="8">
-        <v>5.2607278529689499E-5</v>
+        <v>-5.5009015460508301E-4</v>
       </c>
       <c r="W30" s="8">
-        <v>-2.30135253225843E-6</v>
+        <v>-5.7855919248601603E-4</v>
       </c>
       <c r="X30" s="8">
-        <v>-2.4996167309672399E-5</v>
+        <v>-6.9069536585095203E-4</v>
       </c>
       <c r="Y30" s="8">
-        <v>-5.02039356084404E-5</v>
+        <v>-1.3216703652810699E-4</v>
       </c>
       <c r="Z30" s="8">
-        <v>1.16265602676479E-7</v>
+        <v>-2.6492355287693702E-4</v>
       </c>
       <c r="AA30" s="8">
-        <v>1.3982340417995101E-5</v>
+        <v>2.32104981362895E-6</v>
       </c>
       <c r="AB30" s="8">
-        <v>-1.48020859038985E-7</v>
+        <v>-1.17206090624502E-4</v>
       </c>
       <c r="AC30" s="8">
-        <v>1.7616931975248201E-5</v>
+        <v>-7.1271563733205098E-5</v>
       </c>
       <c r="AD30" s="8">
-        <v>-2.7442379982238601E-6</v>
+        <v>-2.8216205491348497E-4</v>
       </c>
       <c r="AE30" s="8">
-        <v>1.0885576163336701E-3</v>
-      </c>
-      <c r="AF30" s="8">
-        <v>-1.01083119587212E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="8">
-        <v>7.5133035790918301</v>
-      </c>
-      <c r="C31" s="8">
-        <v>-1.8331472171509999E-3</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1.3314311295563701E-4</v>
-      </c>
-      <c r="E31" s="8">
-        <v>-5.4429747032758297E-3</v>
-      </c>
-      <c r="F31" s="8">
-        <v>-9.6146032241205097E-4</v>
-      </c>
-      <c r="G31" s="8">
-        <v>-1.2169697293377901E-3</v>
-      </c>
-      <c r="H31" s="8">
-        <v>-2.16736343368281E-3</v>
-      </c>
-      <c r="I31" s="8">
-        <v>-2.9119904647221199E-3</v>
-      </c>
-      <c r="J31" s="8">
-        <v>-3.0405545572973602E-3</v>
-      </c>
-      <c r="K31" s="8">
-        <v>-3.6637257779822902E-3</v>
-      </c>
-      <c r="L31" s="8">
-        <v>-3.34205043482237E-3</v>
-      </c>
-      <c r="M31" s="8">
-        <v>-3.0863304901270999E-3</v>
-      </c>
-      <c r="N31" s="8">
-        <v>-3.1617315106646999E-3</v>
-      </c>
-      <c r="O31" s="8">
-        <v>-3.04941863417782E-3</v>
-      </c>
-      <c r="P31" s="8">
-        <v>-3.41639667813341E-3</v>
-      </c>
-      <c r="Q31" s="8">
-        <v>-4.2994049611112502E-3</v>
-      </c>
-      <c r="R31" s="8">
-        <v>-3.30926235510124E-3</v>
-      </c>
-      <c r="S31" s="8">
-        <v>-3.6254356706759902E-3</v>
-      </c>
-      <c r="T31" s="8">
-        <v>-8.2595513948921604E-4</v>
-      </c>
-      <c r="U31" s="8">
-        <v>-1.41664342203662E-3</v>
-      </c>
-      <c r="V31" s="8">
-        <v>-2.023016610261E-3</v>
-      </c>
-      <c r="W31" s="8">
-        <v>-2.1170347658758001E-3</v>
-      </c>
-      <c r="X31" s="8">
-        <v>-2.3505563205864898E-3</v>
-      </c>
-      <c r="Y31" s="8">
-        <v>-1.7936134470325799E-3</v>
-      </c>
-      <c r="Z31" s="8">
-        <v>-3.1655779212900299E-4</v>
-      </c>
-      <c r="AA31" s="8">
-        <v>-7.28529333887984E-4</v>
-      </c>
-      <c r="AB31" s="8">
-        <v>6.3447809961763403E-6</v>
-      </c>
-      <c r="AC31" s="8">
-        <v>-2.8588874847273901E-4</v>
-      </c>
-      <c r="AD31" s="8">
-        <v>-1.8190705973703699E-4</v>
-      </c>
-      <c r="AE31" s="8">
-        <v>-1.01083119587212E-3</v>
-      </c>
-      <c r="AF31" s="8">
-        <v>4.3828008715741301E-2</v>
+        <v>1.6358261251644499E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7813,7 +7634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39740585-ECE9-465B-B340-FC9F2AA7D554}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CE9B1D-DDDD-4CC5-B8EB-BE67C12DCD75}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7861,10 +7682,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="8">
-        <v>2.2308687127043498</v>
+        <v>2.76096156880056</v>
       </c>
       <c r="C2" s="8">
-        <v>6.5940278412306597E-2</v>
+        <v>3.1702156572194898E-2</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -7893,13 +7714,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.30192581306493699</v>
+        <v>1.21110374615701E-2</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
       </c>
       <c r="D3" s="8">
-        <v>7.5212452838669494E-2</v>
+        <v>2.0699342854157001E-2</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -7925,7 +7746,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="8">
-        <v>2.2472156436933899</v>
+        <v>2.41968210914537</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
@@ -7934,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <v>0.10969848117255999</v>
+        <v>4.5360562581079497E-2</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -7957,7 +7778,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="8">
-        <v>0.64869909269126902</v>
+        <v>0.32639751224881902</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -7969,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <v>3.2433040660780399E-2</v>
+        <v>1.0677563461392699E-2</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -7989,7 +7810,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="8">
-        <v>0.247487279976882</v>
+        <v>-1.59858668478833E-2</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
@@ -8004,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <v>6.5649095772349397E-2</v>
+        <v>1.9411499770913599E-2</v>
       </c>
       <c r="H6" s="8">
         <v>0</v>
@@ -8021,7 +7842,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="8">
-        <v>0.47342809895626298</v>
+        <v>0.40266992085993503</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
@@ -8039,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>8.2853936821462401E-2</v>
+        <v>2.9237827439913398E-2</v>
       </c>
       <c r="I7" s="8">
         <v>0</v>
@@ -8053,7 +7874,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="8">
-        <v>0.115955640008294</v>
+        <v>-1.0066024348329599E-2</v>
       </c>
       <c r="C8" s="8">
         <v>0</v>
@@ -8074,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>4.3199823340228701E-3</v>
+        <v>2.0598632667642299E-3</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
@@ -8085,7 +7906,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="8">
-        <v>-4.5846181593811902E-2</v>
+        <v>0.10115236592971399</v>
       </c>
       <c r="C9" s="8">
         <v>0</v>
@@ -8109,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="8">
-        <v>5.5223831446959302E-3</v>
+        <v>1.4002819815411599E-3</v>
       </c>
     </row>
   </sheetData>
@@ -8119,7 +7940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCA8CDA-6B32-4591-B626-E528AD0FFA09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECBB36B-232F-4A31-8AEF-9D7CFD3EA13C}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8167,10 +7988,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="8">
-        <v>1.57794483170301</v>
+        <v>1.6728629358760601</v>
       </c>
       <c r="C2" s="8">
-        <v>4.4525432283931202E-2</v>
+        <v>1.88914780318034E-2</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -8199,13 +8020,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.44526296712864499</v>
+        <v>-0.44548319657449997</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
       </c>
       <c r="D3" s="8">
-        <v>3.1298488008007601E-2</v>
+        <v>1.05565532877994E-2</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -8231,7 +8052,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="8">
-        <v>0.95918422877926801</v>
+        <v>0.95169013463812901</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
@@ -8240,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <v>4.0999388247078501E-2</v>
+        <v>1.58763588328691E-2</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -8263,7 +8084,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="8">
-        <v>0.410449201544345</v>
+        <v>0.26998623449775999</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -8275,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <v>2.48672606982888E-2</v>
+        <v>8.6524145528497493E-3</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -8295,7 +8116,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="8">
-        <v>0.51357839382913895</v>
+        <v>0.17229506571213199</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
@@ -8310,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <v>4.6688208376807899E-2</v>
+        <v>1.49355892382081E-2</v>
       </c>
       <c r="H6" s="8">
         <v>0</v>
@@ -8327,7 +8148,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="8">
-        <v>0.90797354812527298</v>
+        <v>0.34862296068892401</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
@@ -8345,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>6.2768857792423097E-2</v>
+        <v>2.1201649772745499E-2</v>
       </c>
       <c r="I7" s="8">
         <v>0</v>
@@ -8359,7 +8180,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="8">
-        <v>6.9757710534505496E-2</v>
+        <v>-0.11917880969466001</v>
       </c>
       <c r="C8" s="8">
         <v>0</v>
@@ -8380,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>4.0833692655597303E-3</v>
+        <v>2.5261878188393501E-3</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
@@ -8391,7 +8212,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="8">
-        <v>-7.9821077067514498E-2</v>
+        <v>7.3629113682714104E-2</v>
       </c>
       <c r="C9" s="8">
         <v>0</v>
@@ -8415,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="8">
-        <v>7.27123173416502E-3</v>
+        <v>1.50493246916382E-3</v>
       </c>
     </row>
   </sheetData>

--- a/input/reg_health_mental.xlsx
+++ b/input/reg_health_mental.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\andy_local\SimPaths project files\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF27609-5500-4E8F-A059-053D7C9F8DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C3380-CD5E-4CD1-ACF9-E641A6DA8744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="UK_HM1_C" sheetId="7" r:id="rId3"/>
     <sheet name="UK_HM2_Males_C" sheetId="8" r:id="rId4"/>
     <sheet name="UK_HM2_Females_C" sheetId="9" r:id="rId5"/>
-    <sheet name="UK_HM1_L" sheetId="25" r:id="rId6"/>
-    <sheet name="UK_HM2_Males_L" sheetId="26" r:id="rId7"/>
-    <sheet name="UK_HM2_Females_L" sheetId="27" r:id="rId8"/>
+    <sheet name="UK_HM1_L" sheetId="28" r:id="rId6"/>
+    <sheet name="UK_HM2_Males_L" sheetId="29" r:id="rId7"/>
+    <sheet name="UK_HM2_Females_L" sheetId="30" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4766,12 +4766,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C367505C-FD84-46B3-9749-6444C1C58A26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B07E775-61C3-430D-8258-82D65BC12AF3}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4879,94 +4877,94 @@
         <v>19</v>
       </c>
       <c r="B2" s="8">
-        <v>5.6069252495916502E-2</v>
+        <v>-1.4141100089417999E-2</v>
       </c>
       <c r="C2" s="8">
-        <v>1.7242242921609999E-3</v>
+        <v>8.3889138948510305E-4</v>
       </c>
       <c r="D2" s="8">
-        <v>1.2249060768207099E-3</v>
+        <v>6.2059027830632804E-4</v>
       </c>
       <c r="E2" s="8">
-        <v>-6.1874977376915003E-4</v>
+        <v>-2.4184797009715401E-4</v>
       </c>
       <c r="F2" s="8">
-        <v>-5.6039354151771702E-4</v>
+        <v>-1.97048473989225E-4</v>
       </c>
       <c r="G2" s="8">
-        <v>-4.8636158035493001E-4</v>
+        <v>-1.9718933182110701E-4</v>
       </c>
       <c r="H2" s="8">
-        <v>-6.3972541248677396E-4</v>
+        <v>-2.5370362656214698E-4</v>
       </c>
       <c r="I2" s="8">
-        <v>-6.9331915164336201E-4</v>
+        <v>-2.0785913015841401E-4</v>
       </c>
       <c r="J2" s="8">
-        <v>-5.0078457317077104E-4</v>
+        <v>-1.9085276034197201E-4</v>
       </c>
       <c r="K2" s="8">
-        <v>-5.3208810089653603E-4</v>
+        <v>-1.79054061223159E-4</v>
       </c>
       <c r="L2" s="8">
-        <v>-5.3880278431581402E-4</v>
+        <v>-1.8839645830621301E-4</v>
       </c>
       <c r="M2" s="8">
-        <v>-4.65112377182801E-4</v>
+        <v>-2.1149324224840001E-4</v>
       </c>
       <c r="N2" s="8">
-        <v>-3.72883661111065E-4</v>
+        <v>-1.80754917887439E-4</v>
       </c>
       <c r="O2" s="8">
-        <v>-4.37032558332609E-4</v>
+        <v>-1.9974283225966099E-4</v>
       </c>
       <c r="P2" s="8">
-        <v>6.3804742647886601E-5</v>
+        <v>-2.4010351196035601E-6</v>
       </c>
       <c r="Q2" s="8">
-        <v>1.00876290308307E-4</v>
+        <v>3.9217845373719101E-5</v>
       </c>
       <c r="R2" s="8">
-        <v>-8.8051519685915694E-5</v>
+        <v>-5.0571529733754801E-5</v>
       </c>
       <c r="S2" s="8">
-        <v>-3.1808198852995001E-5</v>
+        <v>-2.04452024198442E-5</v>
       </c>
       <c r="T2" s="8">
-        <v>-2.6176963639023702E-4</v>
+        <v>-7.0199677212929204E-5</v>
       </c>
       <c r="U2" s="8">
-        <v>-1.22682453199426E-4</v>
+        <v>-1.5722604652204299E-5</v>
       </c>
       <c r="V2" s="8">
-        <v>-5.1328063897944601E-5</v>
+        <v>-6.9643650011300697E-6</v>
       </c>
       <c r="W2" s="8">
-        <v>1.37808615346704E-5</v>
+        <v>5.8518251960003599E-5</v>
       </c>
       <c r="X2" s="8">
-        <v>2.6670464367964402E-4</v>
+        <v>1.6833873673737599E-4</v>
       </c>
       <c r="Y2" s="8">
-        <v>2.2311736444310899E-5</v>
+        <v>6.27295882469606E-6</v>
       </c>
       <c r="Z2" s="8">
-        <v>-9.4898716168457208E-6</v>
+        <v>-6.0825763158936204E-7</v>
       </c>
       <c r="AA2" s="8">
-        <v>4.0925599950415701E-8</v>
+        <v>-1.2141594768232499E-8</v>
       </c>
       <c r="AB2" s="8">
-        <v>2.5991923536983598E-5</v>
+        <v>7.9337080570399408E-6</v>
       </c>
       <c r="AC2" s="8">
-        <v>7.40382263859905E-6</v>
+        <v>3.2846449704331101E-6</v>
       </c>
       <c r="AD2" s="8">
-        <v>-4.8026066892916801E-5</v>
+        <v>4.0860537853751502E-6</v>
       </c>
       <c r="AE2" s="8">
-        <v>-1.3114087070277801E-3</v>
+        <v>-7.1287876915307198E-4</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -4974,94 +4972,94 @@
         <v>20</v>
       </c>
       <c r="B3" s="8">
-        <v>7.5473547908416094E-2</v>
+        <v>1.8167355020509E-2</v>
       </c>
       <c r="C3" s="8">
-        <v>1.2249060768207099E-3</v>
+        <v>6.2059027830632804E-4</v>
       </c>
       <c r="D3" s="8">
-        <v>3.4842597268040301E-3</v>
+        <v>1.8019165946388999E-3</v>
       </c>
       <c r="E3" s="8">
-        <v>-6.5588943879255502E-4</v>
+        <v>-2.1316172943306399E-4</v>
       </c>
       <c r="F3" s="8">
-        <v>-4.1427058968705299E-4</v>
+        <v>-1.12006144958874E-4</v>
       </c>
       <c r="G3" s="8">
-        <v>-3.4362202397918498E-4</v>
+        <v>-1.65128112741122E-4</v>
       </c>
       <c r="H3" s="8">
-        <v>-5.1244344269862701E-4</v>
+        <v>-2.2977440650002E-4</v>
       </c>
       <c r="I3" s="8">
-        <v>-7.2754453798821897E-4</v>
+        <v>-1.93771532572597E-4</v>
       </c>
       <c r="J3" s="8">
-        <v>-5.2287959432338398E-4</v>
+        <v>-1.1172912612671601E-4</v>
       </c>
       <c r="K3" s="8">
-        <v>-4.2703408787423297E-4</v>
+        <v>-1.2819143734883899E-4</v>
       </c>
       <c r="L3" s="8">
-        <v>-3.5904815545663199E-4</v>
+        <v>-1.16694782855193E-4</v>
       </c>
       <c r="M3" s="8">
-        <v>-5.12542980716846E-4</v>
+        <v>-2.2421063978437801E-4</v>
       </c>
       <c r="N3" s="8">
-        <v>-1.58026282325078E-4</v>
+        <v>-1.06437614779812E-4</v>
       </c>
       <c r="O3" s="8">
-        <v>-7.2809303475764801E-4</v>
+        <v>-2.7826830887114001E-4</v>
       </c>
       <c r="P3" s="8">
-        <v>5.8319911090376397E-5</v>
+        <v>2.7670481579976198E-5</v>
       </c>
       <c r="Q3" s="8">
-        <v>2.9892894561407701E-4</v>
+        <v>1.34282433681117E-4</v>
       </c>
       <c r="R3" s="8">
-        <v>1.3495870467713901E-4</v>
+        <v>4.2207251838968602E-5</v>
       </c>
       <c r="S3" s="8">
-        <v>-1.669246459867E-5</v>
+        <v>4.2497471110276798E-7</v>
       </c>
       <c r="T3" s="8">
-        <v>-1.53762168743298E-4</v>
+        <v>-3.3827159877609903E-5</v>
       </c>
       <c r="U3" s="8">
-        <v>-1.5661594761741801E-5</v>
+        <v>1.6383107269788899E-5</v>
       </c>
       <c r="V3" s="8">
-        <v>1.8177208523987001E-4</v>
+        <v>1.10964607404357E-4</v>
       </c>
       <c r="W3" s="8">
-        <v>3.6057120221624198E-4</v>
+        <v>1.95142093180855E-4</v>
       </c>
       <c r="X3" s="8">
-        <v>6.8757980451412504E-4</v>
+        <v>3.5817082168178402E-4</v>
       </c>
       <c r="Y3" s="8">
-        <v>5.7439378178796598E-5</v>
+        <v>2.1377096944512401E-5</v>
       </c>
       <c r="Z3" s="8">
-        <v>2.8524472822873699E-5</v>
+        <v>6.4770889766353103E-6</v>
       </c>
       <c r="AA3" s="8">
-        <v>-5.1436043815626398E-7</v>
+        <v>-1.7817829408908701E-7</v>
       </c>
       <c r="AB3" s="8">
-        <v>2.2496862997745398E-5</v>
+        <v>9.1735317344850293E-6</v>
       </c>
       <c r="AC3" s="8">
-        <v>6.8988713607926301E-6</v>
+        <v>6.3522316421218797E-6</v>
       </c>
       <c r="AD3" s="8">
-        <v>5.77422874847142E-5</v>
+        <v>6.3849330626352093E-5</v>
       </c>
       <c r="AE3" s="8">
-        <v>-2.8149845667864602E-3</v>
+        <v>-1.3776363870632699E-3</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -5069,94 +5067,94 @@
         <v>23</v>
       </c>
       <c r="B4" s="8">
-        <v>-7.5284067388650996E-2</v>
+        <v>-4.56197056228973E-2</v>
       </c>
       <c r="C4" s="8">
-        <v>-6.1874977376915003E-4</v>
+        <v>-2.4184797009715401E-4</v>
       </c>
       <c r="D4" s="8">
-        <v>-6.5588943879255502E-4</v>
+        <v>-2.1316172943306399E-4</v>
       </c>
       <c r="E4" s="8">
-        <v>1.2552883948655899E-2</v>
+        <v>5.6599370435079302E-3</v>
       </c>
       <c r="F4" s="8">
-        <v>4.6586135347700102E-3</v>
+        <v>2.1312890996297898E-3</v>
       </c>
       <c r="G4" s="8">
-        <v>4.6619426744457298E-3</v>
+        <v>2.1362276585956399E-3</v>
       </c>
       <c r="H4" s="8">
-        <v>4.6953924011125204E-3</v>
+        <v>2.1528906214528499E-3</v>
       </c>
       <c r="I4" s="8">
-        <v>4.7295446316709703E-3</v>
+        <v>2.1364554135985098E-3</v>
       </c>
       <c r="J4" s="8">
-        <v>4.5867728662137798E-3</v>
+        <v>2.1252337075487399E-3</v>
       </c>
       <c r="K4" s="8">
-        <v>4.5851698551151602E-3</v>
+        <v>2.1021205105663599E-3</v>
       </c>
       <c r="L4" s="8">
-        <v>4.6522920331823403E-3</v>
+        <v>2.13250247652573E-3</v>
       </c>
       <c r="M4" s="8">
-        <v>4.7474925607503098E-3</v>
+        <v>2.1452678100472599E-3</v>
       </c>
       <c r="N4" s="8">
-        <v>4.6017362528768396E-3</v>
+        <v>2.1186568859645699E-3</v>
       </c>
       <c r="O4" s="8">
-        <v>4.6812021264640404E-3</v>
+        <v>2.1281327417513301E-3</v>
       </c>
       <c r="P4" s="8">
-        <v>-1.14913679032E-4</v>
+        <v>-1.7037789328026998E-5</v>
       </c>
       <c r="Q4" s="8">
-        <v>-5.3075190912500703E-4</v>
+        <v>-1.07813300742823E-4</v>
       </c>
       <c r="R4" s="8">
-        <v>2.1918894876310301E-4</v>
+        <v>1.13950819688749E-4</v>
       </c>
       <c r="S4" s="8">
-        <v>1.00391979662983E-4</v>
+        <v>-1.33412494859593E-5</v>
       </c>
       <c r="T4" s="8">
-        <v>8.0537439077581996E-5</v>
+        <v>8.7357923596709906E-5</v>
       </c>
       <c r="U4" s="8">
-        <v>-2.2737114469953E-4</v>
+        <v>-3.3137318471530998E-5</v>
       </c>
       <c r="V4" s="8">
-        <v>-2.83534469208249E-5</v>
+        <v>1.6335833502343E-5</v>
       </c>
       <c r="W4" s="8">
-        <v>-1.09671859748506E-4</v>
+        <v>-3.3951289233989001E-5</v>
       </c>
       <c r="X4" s="8">
-        <v>1.9093646054300299E-4</v>
+        <v>7.8120095266938494E-5</v>
       </c>
       <c r="Y4" s="8">
-        <v>-3.82994438180937E-5</v>
+        <v>-1.0807812856654201E-6</v>
       </c>
       <c r="Z4" s="8">
-        <v>4.4985635076731103E-6</v>
+        <v>1.72026528093262E-6</v>
       </c>
       <c r="AA4" s="8">
-        <v>-3.7095477023163901E-8</v>
+        <v>-1.20936627277477E-8</v>
       </c>
       <c r="AB4" s="8">
-        <v>8.5625345480353595E-6</v>
+        <v>-1.79756443584957E-6</v>
       </c>
       <c r="AC4" s="8">
-        <v>1.75452746457684E-6</v>
+        <v>-3.0153892788600299E-7</v>
       </c>
       <c r="AD4" s="8">
-        <v>9.7261481075393093E-5</v>
+        <v>-7.0201536215327296E-8</v>
       </c>
       <c r="AE4" s="8">
-        <v>-3.5270488242725899E-3</v>
+        <v>-1.8971268489358E-3</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -5164,94 +5162,94 @@
         <v>24</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.100057026919231</v>
+        <v>-6.6721516325287701E-3</v>
       </c>
       <c r="C5" s="8">
-        <v>-5.6039354151771702E-4</v>
+        <v>-1.97048473989225E-4</v>
       </c>
       <c r="D5" s="8">
-        <v>-4.1427058968705299E-4</v>
+        <v>-1.12006144958874E-4</v>
       </c>
       <c r="E5" s="8">
-        <v>4.6586135347700102E-3</v>
+        <v>2.1312890996297898E-3</v>
       </c>
       <c r="F5" s="8">
-        <v>7.4128544696436503E-3</v>
+        <v>3.6000737869603E-3</v>
       </c>
       <c r="G5" s="8">
-        <v>4.6339836579335101E-3</v>
+        <v>2.1360360742508802E-3</v>
       </c>
       <c r="H5" s="8">
-        <v>4.7040216373928599E-3</v>
+        <v>2.15088154057825E-3</v>
       </c>
       <c r="I5" s="8">
-        <v>4.7040736256787098E-3</v>
+        <v>2.1273302763800302E-3</v>
       </c>
       <c r="J5" s="8">
-        <v>4.5475338527812903E-3</v>
+        <v>2.1202020319854801E-3</v>
       </c>
       <c r="K5" s="8">
-        <v>4.5752739252167699E-3</v>
+        <v>2.10700265608854E-3</v>
       </c>
       <c r="L5" s="8">
-        <v>4.6239097506404802E-3</v>
+        <v>2.1295217721455299E-3</v>
       </c>
       <c r="M5" s="8">
-        <v>4.7021186043901802E-3</v>
+        <v>2.1338491341063399E-3</v>
       </c>
       <c r="N5" s="8">
-        <v>4.5984331081739402E-3</v>
+        <v>2.1182753701739902E-3</v>
       </c>
       <c r="O5" s="8">
-        <v>4.6573226722622704E-3</v>
+        <v>2.1096542334376302E-3</v>
       </c>
       <c r="P5" s="8">
-        <v>-2.0891575928672399E-4</v>
+        <v>-2.8354136717825198E-5</v>
       </c>
       <c r="Q5" s="8">
-        <v>-5.8120856585848696E-4</v>
+        <v>-1.19442002024386E-4</v>
       </c>
       <c r="R5" s="8">
-        <v>3.5894655843644901E-4</v>
+        <v>1.43509910531031E-4</v>
       </c>
       <c r="S5" s="8">
-        <v>-2.3267827529382999E-4</v>
+        <v>-2.25022058159278E-5</v>
       </c>
       <c r="T5" s="8">
-        <v>4.0634834684957598E-4</v>
+        <v>1.2929453956622599E-4</v>
       </c>
       <c r="U5" s="8">
-        <v>-5.5792132208191203E-5</v>
+        <v>-2.23307283178716E-5</v>
       </c>
       <c r="V5" s="8">
-        <v>1.72448859064701E-5</v>
+        <v>3.48929297770763E-6</v>
       </c>
       <c r="W5" s="8">
-        <v>-8.7808865050775895E-5</v>
+        <v>-6.7033401469008096E-5</v>
       </c>
       <c r="X5" s="8">
-        <v>2.0714690065796199E-4</v>
+        <v>4.62586361989621E-5</v>
       </c>
       <c r="Y5" s="8">
-        <v>-3.4986498382821998E-5</v>
+        <v>-1.1233204945237001E-6</v>
       </c>
       <c r="Z5" s="8">
-        <v>3.3794828438001103E-5</v>
+        <v>4.2043130187293904E-6</v>
       </c>
       <c r="AA5" s="8">
-        <v>-2.3690207389474601E-7</v>
+        <v>-3.2700169381612999E-8</v>
       </c>
       <c r="AB5" s="8">
-        <v>-3.5368859764654901E-5</v>
+        <v>-2.3897361588960099E-6</v>
       </c>
       <c r="AC5" s="8">
-        <v>-3.0909265059234698E-7</v>
+        <v>-3.88615187666509E-7</v>
       </c>
       <c r="AD5" s="8">
-        <v>1.53713222151612E-4</v>
+        <v>2.45027310065609E-5</v>
       </c>
       <c r="AE5" s="8">
-        <v>-3.9310536595509897E-3</v>
+        <v>-1.9798701829385501E-3</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -5259,94 +5257,94 @@
         <v>25</v>
       </c>
       <c r="B6" s="8">
-        <v>-5.6538402758405902E-2</v>
+        <v>3.2758496059500403E-2</v>
       </c>
       <c r="C6" s="8">
-        <v>-4.8636158035493001E-4</v>
+        <v>-1.9718933182110701E-4</v>
       </c>
       <c r="D6" s="8">
-        <v>-3.4362202397918498E-4</v>
+        <v>-1.65128112741122E-4</v>
       </c>
       <c r="E6" s="8">
-        <v>4.6619426744457298E-3</v>
+        <v>2.1362276585956399E-3</v>
       </c>
       <c r="F6" s="8">
-        <v>4.6339836579335101E-3</v>
+        <v>2.1360360742508802E-3</v>
       </c>
       <c r="G6" s="8">
-        <v>9.4406822008959706E-3</v>
+        <v>4.1004631259825902E-3</v>
       </c>
       <c r="H6" s="8">
-        <v>4.6437873015212298E-3</v>
+        <v>2.1523702513093E-3</v>
       </c>
       <c r="I6" s="8">
-        <v>4.6905684461153096E-3</v>
+        <v>2.1350834390813801E-3</v>
       </c>
       <c r="J6" s="8">
-        <v>4.55757456725122E-3</v>
+        <v>2.1244861437670699E-3</v>
       </c>
       <c r="K6" s="8">
-        <v>4.5644297121687901E-3</v>
+        <v>2.1011002867267498E-3</v>
       </c>
       <c r="L6" s="8">
-        <v>4.6257181545791603E-3</v>
+        <v>2.13264295415978E-3</v>
       </c>
       <c r="M6" s="8">
-        <v>4.6956156273614798E-3</v>
+        <v>2.1533440232084102E-3</v>
       </c>
       <c r="N6" s="8">
-        <v>4.5761952720187998E-3</v>
+        <v>2.1161354265357901E-3</v>
       </c>
       <c r="O6" s="8">
-        <v>4.6245046333852702E-3</v>
+        <v>2.1264818378835498E-3</v>
       </c>
       <c r="P6" s="8">
-        <v>-6.6421818947092994E-5</v>
+        <v>-1.38252151595258E-5</v>
       </c>
       <c r="Q6" s="8">
-        <v>-3.6131142327128901E-4</v>
+        <v>-1.1649828463951399E-4</v>
       </c>
       <c r="R6" s="8">
-        <v>4.3739155051898199E-4</v>
+        <v>1.4659249331550601E-4</v>
       </c>
       <c r="S6" s="8">
-        <v>-9.2169724172065905E-5</v>
+        <v>-1.27257191704216E-5</v>
       </c>
       <c r="T6" s="8">
-        <v>3.0757428213766801E-4</v>
+        <v>1.54710089175207E-4</v>
       </c>
       <c r="U6" s="8">
-        <v>3.3486641410969298E-5</v>
+        <v>2.33814936779014E-5</v>
       </c>
       <c r="V6" s="8">
-        <v>1.71640398250429E-4</v>
+        <v>6.2837108079390105E-5</v>
       </c>
       <c r="W6" s="8">
-        <v>1.09688348883064E-4</v>
+        <v>-1.2482240525413001E-5</v>
       </c>
       <c r="X6" s="8">
-        <v>4.1452257141545799E-4</v>
+        <v>1.42974664234928E-4</v>
       </c>
       <c r="Y6" s="8">
-        <v>-2.0452982035959601E-5</v>
+        <v>-4.7316740355551402E-6</v>
       </c>
       <c r="Z6" s="8">
-        <v>2.5187695891426099E-5</v>
+        <v>7.0794417037842997E-6</v>
       </c>
       <c r="AA6" s="8">
-        <v>-1.93505974880005E-7</v>
+        <v>-4.80267493739946E-8</v>
       </c>
       <c r="AB6" s="8">
-        <v>1.28039239555633E-5</v>
+        <v>-1.7148892956757501E-6</v>
       </c>
       <c r="AC6" s="8">
-        <v>1.78258937571622E-7</v>
+        <v>-2.3188260005998501E-7</v>
       </c>
       <c r="AD6" s="8">
-        <v>1.5001784691466401E-4</v>
+        <v>-4.7921027584321103E-7</v>
       </c>
       <c r="AE6" s="8">
-        <v>-4.8546487627397104E-3</v>
+        <v>-2.0944408631292499E-3</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -5354,94 +5352,94 @@
         <v>26</v>
       </c>
       <c r="B7" s="8">
-        <v>-0.117502551825893</v>
+        <v>-1.79204981407395E-2</v>
       </c>
       <c r="C7" s="8">
-        <v>-6.3972541248677396E-4</v>
+        <v>-2.5370362656214698E-4</v>
       </c>
       <c r="D7" s="8">
-        <v>-5.1244344269862701E-4</v>
+        <v>-2.2977440650002E-4</v>
       </c>
       <c r="E7" s="8">
-        <v>4.6953924011125204E-3</v>
+        <v>2.1528906214528499E-3</v>
       </c>
       <c r="F7" s="8">
-        <v>4.7040216373928599E-3</v>
+        <v>2.15088154057825E-3</v>
       </c>
       <c r="G7" s="8">
-        <v>4.6437873015212298E-3</v>
+        <v>2.1523702513093E-3</v>
       </c>
       <c r="H7" s="8">
-        <v>7.7316708530574497E-3</v>
+        <v>3.8863586408557499E-3</v>
       </c>
       <c r="I7" s="8">
-        <v>4.7439120806390097E-3</v>
+        <v>2.1499644031916102E-3</v>
       </c>
       <c r="J7" s="8">
-        <v>4.5792839866289599E-3</v>
+        <v>2.1327757039681099E-3</v>
       </c>
       <c r="K7" s="8">
-        <v>4.5860629768034603E-3</v>
+        <v>2.1116195604991002E-3</v>
       </c>
       <c r="L7" s="8">
-        <v>4.6365435666318204E-3</v>
+        <v>2.13769172012456E-3</v>
       </c>
       <c r="M7" s="8">
-        <v>4.7587965252627604E-3</v>
+        <v>2.1539157886738499E-3</v>
       </c>
       <c r="N7" s="8">
-        <v>4.6195962738988603E-3</v>
+        <v>2.1252677104359099E-3</v>
       </c>
       <c r="O7" s="8">
-        <v>4.6773788542485801E-3</v>
+        <v>2.1358679502658799E-3</v>
       </c>
       <c r="P7" s="8">
-        <v>-1.17807499792607E-4</v>
+        <v>-2.32777282772399E-5</v>
       </c>
       <c r="Q7" s="8">
-        <v>-5.1041861966306099E-4</v>
+        <v>-1.3700660582025701E-4</v>
       </c>
       <c r="R7" s="8">
-        <v>3.7754694188945698E-4</v>
+        <v>1.2300909366517901E-4</v>
       </c>
       <c r="S7" s="8">
-        <v>-7.8217718445876006E-5</v>
+        <v>-4.11370601891983E-5</v>
       </c>
       <c r="T7" s="8">
-        <v>3.6700038165785401E-4</v>
+        <v>1.21607868768078E-4</v>
       </c>
       <c r="U7" s="8">
-        <v>1.2556181927753901E-4</v>
+        <v>4.3274020808593597E-5</v>
       </c>
       <c r="V7" s="8">
-        <v>1.8676267231375299E-4</v>
+        <v>5.35101324539209E-5</v>
       </c>
       <c r="W7" s="8">
-        <v>1.7356712356975999E-4</v>
+        <v>-9.6335773015190695E-6</v>
       </c>
       <c r="X7" s="8">
-        <v>4.1377265378225302E-4</v>
+        <v>1.06908328277264E-4</v>
       </c>
       <c r="Y7" s="8">
-        <v>-4.2004722811816402E-5</v>
+        <v>-1.26525985135806E-6</v>
       </c>
       <c r="Z7" s="8">
-        <v>4.3697872708440899E-5</v>
+        <v>5.9386016177061498E-6</v>
       </c>
       <c r="AA7" s="8">
-        <v>-3.3135657783265498E-7</v>
+        <v>-3.6023205734222201E-8</v>
       </c>
       <c r="AB7" s="8">
-        <v>-1.6995276677975299E-5</v>
+        <v>-3.2855902062928398E-6</v>
       </c>
       <c r="AC7" s="8">
-        <v>-4.4141257197855896E-6</v>
+        <v>-1.21047078488267E-6</v>
       </c>
       <c r="AD7" s="8">
-        <v>1.6233967290569601E-4</v>
+        <v>1.51025693278794E-5</v>
       </c>
       <c r="AE7" s="8">
-        <v>-4.2973740799262796E-3</v>
+        <v>-1.9829665444681399E-3</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -5449,94 +5447,94 @@
         <v>27</v>
       </c>
       <c r="B8" s="8">
-        <v>-0.12781623506305101</v>
+        <v>-5.14633988078117E-3</v>
       </c>
       <c r="C8" s="8">
-        <v>-6.9331915164336201E-4</v>
+        <v>-2.0785913015841401E-4</v>
       </c>
       <c r="D8" s="8">
-        <v>-7.2754453798821897E-4</v>
+        <v>-1.93771532572597E-4</v>
       </c>
       <c r="E8" s="8">
-        <v>4.7295446316709703E-3</v>
+        <v>2.1364554135985098E-3</v>
       </c>
       <c r="F8" s="8">
-        <v>4.7040736256787098E-3</v>
+        <v>2.1273302763800302E-3</v>
       </c>
       <c r="G8" s="8">
-        <v>4.6905684461153096E-3</v>
+        <v>2.1350834390813801E-3</v>
       </c>
       <c r="H8" s="8">
-        <v>4.7439120806390097E-3</v>
+        <v>2.1499644031916102E-3</v>
       </c>
       <c r="I8" s="8">
-        <v>8.3504719071305408E-3</v>
+        <v>3.9341152153632604E-3</v>
       </c>
       <c r="J8" s="8">
-        <v>4.5946867809288699E-3</v>
+        <v>2.1202078323906701E-3</v>
       </c>
       <c r="K8" s="8">
-        <v>4.5988479791327502E-3</v>
+        <v>2.1038438373184101E-3</v>
       </c>
       <c r="L8" s="8">
-        <v>4.6805481706372097E-3</v>
+        <v>2.1306245380910598E-3</v>
       </c>
       <c r="M8" s="8">
-        <v>4.7824037941729602E-3</v>
+        <v>2.1410534744441098E-3</v>
       </c>
       <c r="N8" s="8">
-        <v>4.6229094517746903E-3</v>
+        <v>2.1168208004995102E-3</v>
       </c>
       <c r="O8" s="8">
-        <v>4.7184704429830198E-3</v>
+        <v>2.1210959993412902E-3</v>
       </c>
       <c r="P8" s="8">
-        <v>-1.02206279997925E-4</v>
+        <v>-4.1312262441768601E-5</v>
       </c>
       <c r="Q8" s="8">
-        <v>-6.7517206836876001E-4</v>
+        <v>-1.3221709879819899E-4</v>
       </c>
       <c r="R8" s="8">
-        <v>4.8733699352116898E-4</v>
+        <v>1.17189836531391E-4</v>
       </c>
       <c r="S8" s="8">
-        <v>-4.6526879257784102E-6</v>
+        <v>3.1854969412923298E-5</v>
       </c>
       <c r="T8" s="8">
-        <v>2.6750090122797701E-4</v>
+        <v>1.1708803057914E-4</v>
       </c>
       <c r="U8" s="8">
-        <v>1.3420596268146401E-4</v>
+        <v>-2.4899052156578901E-5</v>
       </c>
       <c r="V8" s="8">
-        <v>1.55704907262598E-4</v>
+        <v>1.00300197941591E-5</v>
       </c>
       <c r="W8" s="8">
-        <v>2.1338973945518101E-4</v>
+        <v>-7.1859500453834099E-5</v>
       </c>
       <c r="X8" s="8">
-        <v>3.9750400907008102E-4</v>
+        <v>5.2375990767446098E-5</v>
       </c>
       <c r="Y8" s="8">
-        <v>-2.2889505325565101E-5</v>
+        <v>2.45067646426853E-6</v>
       </c>
       <c r="Z8" s="8">
-        <v>4.4470806058258903E-5</v>
+        <v>7.8823449682141794E-6</v>
       </c>
       <c r="AA8" s="8">
-        <v>-3.3994716566817798E-7</v>
+        <v>-6.4956239531837597E-8</v>
       </c>
       <c r="AB8" s="8">
-        <v>-3.7121733156405898E-5</v>
+        <v>-4.5702167930177404E-6</v>
       </c>
       <c r="AC8" s="8">
-        <v>-3.67931621768857E-6</v>
+        <v>-1.4213917339336701E-6</v>
       </c>
       <c r="AD8" s="8">
-        <v>2.38231632399397E-4</v>
+        <v>2.0753690207359398E-5</v>
       </c>
       <c r="AE8" s="8">
-        <v>-4.3130890938787303E-3</v>
+        <v>-2.0069919606887799E-3</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -5544,94 +5542,94 @@
         <v>28</v>
       </c>
       <c r="B9" s="8">
-        <v>-0.202805310355131</v>
+        <v>-7.3560890672297305E-2</v>
       </c>
       <c r="C9" s="8">
-        <v>-5.0078457317077104E-4</v>
+        <v>-1.9085276034197201E-4</v>
       </c>
       <c r="D9" s="8">
-        <v>-5.2287959432338398E-4</v>
+        <v>-1.1172912612671601E-4</v>
       </c>
       <c r="E9" s="8">
-        <v>4.5867728662137798E-3</v>
+        <v>2.1252337075487399E-3</v>
       </c>
       <c r="F9" s="8">
-        <v>4.5475338527812903E-3</v>
+        <v>2.1202020319854801E-3</v>
       </c>
       <c r="G9" s="8">
-        <v>4.55757456725122E-3</v>
+        <v>2.1244861437670699E-3</v>
       </c>
       <c r="H9" s="8">
-        <v>4.5792839866289599E-3</v>
+        <v>2.1327757039681099E-3</v>
       </c>
       <c r="I9" s="8">
-        <v>4.5946867809288699E-3</v>
+        <v>2.1202078323906701E-3</v>
       </c>
       <c r="J9" s="8">
-        <v>7.0002106613082198E-3</v>
+        <v>3.6077174262590201E-3</v>
       </c>
       <c r="K9" s="8">
-        <v>4.4636439109215602E-3</v>
+        <v>2.1012454959415802E-3</v>
       </c>
       <c r="L9" s="8">
-        <v>4.5258677708644099E-3</v>
+        <v>2.1236111070629601E-3</v>
       </c>
       <c r="M9" s="8">
-        <v>4.6315425947815901E-3</v>
+        <v>2.12208378312637E-3</v>
       </c>
       <c r="N9" s="8">
-        <v>4.5085763256857399E-3</v>
+        <v>2.1069334748101201E-3</v>
       </c>
       <c r="O9" s="8">
-        <v>4.5399577460164698E-3</v>
+        <v>2.0874293317515E-3</v>
       </c>
       <c r="P9" s="8">
-        <v>-9.8718637540858606E-5</v>
+        <v>-1.00452627965609E-5</v>
       </c>
       <c r="Q9" s="8">
-        <v>-4.6551734133147701E-4</v>
+        <v>-1.0159275600406701E-4</v>
       </c>
       <c r="R9" s="8">
-        <v>3.6778044567765798E-4</v>
+        <v>1.62192796528434E-4</v>
       </c>
       <c r="S9" s="8">
-        <v>-3.37249260528351E-5</v>
+        <v>1.0520136401525601E-5</v>
       </c>
       <c r="T9" s="8">
-        <v>2.8550608575869798E-4</v>
+        <v>1.01658791779406E-4</v>
       </c>
       <c r="U9" s="8">
-        <v>1.2358016961150101E-4</v>
+        <v>1.05353903186232E-7</v>
       </c>
       <c r="V9" s="8">
-        <v>1.5746092611000601E-4</v>
+        <v>2.2931315785050101E-5</v>
       </c>
       <c r="W9" s="8">
-        <v>4.0396697694156298E-5</v>
+        <v>-7.9249906656757998E-5</v>
       </c>
       <c r="X9" s="8">
-        <v>2.6402111972485403E-4</v>
+        <v>2.3101857373560899E-5</v>
       </c>
       <c r="Y9" s="8">
-        <v>-3.8244696355540303E-5</v>
+        <v>2.3439807507563799E-6</v>
       </c>
       <c r="Z9" s="8">
-        <v>4.4865453907970602E-5</v>
+        <v>9.7897819421496705E-6</v>
       </c>
       <c r="AA9" s="8">
-        <v>-3.8726745970202101E-7</v>
+        <v>-1.03357813150562E-7</v>
       </c>
       <c r="AB9" s="8">
-        <v>-3.1013955799169801E-5</v>
+        <v>-4.6863778379838098E-6</v>
       </c>
       <c r="AC9" s="8">
-        <v>-4.1506026425287101E-6</v>
+        <v>-2.02453231861958E-6</v>
       </c>
       <c r="AD9" s="8">
-        <v>2.1077922406536901E-4</v>
+        <v>5.5681111169946103E-5</v>
       </c>
       <c r="AE9" s="8">
-        <v>-4.0646696534893502E-3</v>
+        <v>-2.0356955705889E-3</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -5639,94 +5637,94 @@
         <v>29</v>
       </c>
       <c r="B10" s="8">
-        <v>-9.6672545223256606E-2</v>
+        <v>1.8334507229837999E-3</v>
       </c>
       <c r="C10" s="8">
-        <v>-5.3208810089653603E-4</v>
+        <v>-1.79054061223159E-4</v>
       </c>
       <c r="D10" s="8">
-        <v>-4.2703408787423297E-4</v>
+        <v>-1.2819143734883899E-4</v>
       </c>
       <c r="E10" s="8">
-        <v>4.5851698551151602E-3</v>
+        <v>2.1021205105663599E-3</v>
       </c>
       <c r="F10" s="8">
-        <v>4.5752739252167699E-3</v>
+        <v>2.10700265608854E-3</v>
       </c>
       <c r="G10" s="8">
-        <v>4.5644297121687901E-3</v>
+        <v>2.1011002867267498E-3</v>
       </c>
       <c r="H10" s="8">
-        <v>4.5860629768034603E-3</v>
+        <v>2.1116195604991002E-3</v>
       </c>
       <c r="I10" s="8">
-        <v>4.5988479791327502E-3</v>
+        <v>2.1038438373184101E-3</v>
       </c>
       <c r="J10" s="8">
-        <v>4.4636439109215602E-3</v>
+        <v>2.1012454959415802E-3</v>
       </c>
       <c r="K10" s="8">
-        <v>6.2044272674097196E-3</v>
+        <v>3.0663180058607799E-3</v>
       </c>
       <c r="L10" s="8">
-        <v>4.5503494587941003E-3</v>
+        <v>2.1060822411544501E-3</v>
       </c>
       <c r="M10" s="8">
-        <v>4.6536226548409502E-3</v>
+        <v>2.10160273289059E-3</v>
       </c>
       <c r="N10" s="8">
-        <v>4.5618234636934703E-3</v>
+        <v>2.0999107165794199E-3</v>
       </c>
       <c r="O10" s="8">
-        <v>4.5439775616713E-3</v>
+        <v>2.0693646690355498E-3</v>
       </c>
       <c r="P10" s="8">
-        <v>-1.4258418278965501E-4</v>
+        <v>-2.6671715825304701E-5</v>
       </c>
       <c r="Q10" s="8">
-        <v>-4.5023443574356399E-4</v>
+        <v>-9.3569434382585604E-5</v>
       </c>
       <c r="R10" s="8">
-        <v>3.8471512394693197E-4</v>
+        <v>1.4164761677463799E-4</v>
       </c>
       <c r="S10" s="8">
-        <v>-1.08659360487395E-4</v>
+        <v>-2.7460233060179799E-5</v>
       </c>
       <c r="T10" s="8">
-        <v>2.9271780352915203E-4</v>
+        <v>1.13585013309716E-4</v>
       </c>
       <c r="U10" s="8">
-        <v>7.0169636342636094E-5</v>
+        <v>-5.5314213204879498E-6</v>
       </c>
       <c r="V10" s="8">
-        <v>2.50149592917106E-5</v>
+        <v>-3.1686293745564502E-5</v>
       </c>
       <c r="W10" s="8">
-        <v>-6.5653464212292402E-5</v>
+        <v>-1.14132422756214E-4</v>
       </c>
       <c r="X10" s="8">
-        <v>1.4479221834593601E-4</v>
+        <v>-4.1854991414743002E-5</v>
       </c>
       <c r="Y10" s="8">
-        <v>-3.7604194075758998E-5</v>
+        <v>1.2567953086961E-6</v>
       </c>
       <c r="Z10" s="8">
-        <v>4.57039339330066E-5</v>
+        <v>9.1952708450504492E-6</v>
       </c>
       <c r="AA10" s="8">
-        <v>-3.9140830297956302E-7</v>
+        <v>-8.8747076161687504E-8</v>
       </c>
       <c r="AB10" s="8">
-        <v>-2.78108207754154E-5</v>
+        <v>-4.5969752791279003E-6</v>
       </c>
       <c r="AC10" s="8">
-        <v>-5.0610266882774496E-6</v>
+        <v>-1.9506254430222101E-6</v>
       </c>
       <c r="AD10" s="8">
-        <v>1.5778377551462199E-4</v>
+        <v>1.1892785385430099E-5</v>
       </c>
       <c r="AE10" s="8">
-        <v>-3.9748938863043504E-3</v>
+        <v>-1.9510839125115799E-3</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -5734,94 +5732,94 @@
         <v>30</v>
       </c>
       <c r="B11" s="8">
-        <v>-8.0314668105884807E-2</v>
+        <v>-5.9158251592066301E-3</v>
       </c>
       <c r="C11" s="8">
-        <v>-5.3880278431581402E-4</v>
+        <v>-1.8839645830621301E-4</v>
       </c>
       <c r="D11" s="8">
-        <v>-3.5904815545663199E-4</v>
+        <v>-1.16694782855193E-4</v>
       </c>
       <c r="E11" s="8">
-        <v>4.6522920331823403E-3</v>
+        <v>2.13250247652573E-3</v>
       </c>
       <c r="F11" s="8">
-        <v>4.6239097506404802E-3</v>
+        <v>2.1295217721455299E-3</v>
       </c>
       <c r="G11" s="8">
-        <v>4.6257181545791603E-3</v>
+        <v>2.13264295415978E-3</v>
       </c>
       <c r="H11" s="8">
-        <v>4.6365435666318204E-3</v>
+        <v>2.13769172012456E-3</v>
       </c>
       <c r="I11" s="8">
-        <v>4.6805481706372097E-3</v>
+        <v>2.1306245380910598E-3</v>
       </c>
       <c r="J11" s="8">
-        <v>4.5258677708644099E-3</v>
+        <v>2.1236111070629601E-3</v>
       </c>
       <c r="K11" s="8">
-        <v>4.5503494587941003E-3</v>
+        <v>2.1060822411544501E-3</v>
       </c>
       <c r="L11" s="8">
-        <v>7.24020014164672E-3</v>
+        <v>3.7250075769452002E-3</v>
       </c>
       <c r="M11" s="8">
-        <v>4.6929919021581404E-3</v>
+        <v>2.12928632639987E-3</v>
       </c>
       <c r="N11" s="8">
-        <v>4.58434977699765E-3</v>
+        <v>2.1178962411331401E-3</v>
       </c>
       <c r="O11" s="8">
-        <v>4.6062291872849097E-3</v>
+        <v>2.1051582920085499E-3</v>
       </c>
       <c r="P11" s="8">
-        <v>-1.3435656663387499E-4</v>
+        <v>-3.8225763573531302E-5</v>
       </c>
       <c r="Q11" s="8">
-        <v>-5.3084061903522302E-4</v>
+        <v>-1.09326017383788E-4</v>
       </c>
       <c r="R11" s="8">
-        <v>4.6235248202280499E-4</v>
+        <v>1.5300816652109601E-4</v>
       </c>
       <c r="S11" s="8">
-        <v>-1.11429842498554E-4</v>
+        <v>7.8278362417397796E-7</v>
       </c>
       <c r="T11" s="8">
-        <v>4.4397278691085299E-4</v>
+        <v>1.29648958316032E-4</v>
       </c>
       <c r="U11" s="8">
-        <v>1.11464236300414E-4</v>
+        <v>2.7308804137173499E-5</v>
       </c>
       <c r="V11" s="8">
-        <v>1.56321080429449E-4</v>
+        <v>4.4694273484034101E-5</v>
       </c>
       <c r="W11" s="8">
-        <v>7.98168599170357E-5</v>
+        <v>-2.8296537360550101E-5</v>
       </c>
       <c r="X11" s="8">
-        <v>3.5776160519099601E-4</v>
+        <v>7.8048755757266998E-5</v>
       </c>
       <c r="Y11" s="8">
-        <v>-3.9897153704502299E-5</v>
+        <v>1.10714792866634E-6</v>
       </c>
       <c r="Z11" s="8">
-        <v>5.1317099986123802E-5</v>
+        <v>5.2696887768476399E-6</v>
       </c>
       <c r="AA11" s="8">
-        <v>-4.1336233720227401E-7</v>
+        <v>-4.9291278452789698E-8</v>
       </c>
       <c r="AB11" s="8">
-        <v>-1.5050465125816501E-5</v>
+        <v>2.9807231880155201E-6</v>
       </c>
       <c r="AC11" s="8">
-        <v>-3.4540333228986501E-6</v>
+        <v>-1.2863764664793999E-6</v>
       </c>
       <c r="AD11" s="8">
-        <v>2.1274685301022001E-4</v>
+        <v>4.6107821035007801E-5</v>
       </c>
       <c r="AE11" s="8">
-        <v>-4.5534873646774004E-3</v>
+        <v>-2.0735060290005998E-3</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -5829,94 +5827,94 @@
         <v>31</v>
       </c>
       <c r="B12" s="8">
-        <v>-3.7866369865852803E-2</v>
+        <v>5.1844638076772802E-2</v>
       </c>
       <c r="C12" s="8">
-        <v>-4.65112377182801E-4</v>
+        <v>-2.1149324224840001E-4</v>
       </c>
       <c r="D12" s="8">
-        <v>-5.12542980716846E-4</v>
+        <v>-2.2421063978437801E-4</v>
       </c>
       <c r="E12" s="8">
-        <v>4.7474925607503098E-3</v>
+        <v>2.1452678100472599E-3</v>
       </c>
       <c r="F12" s="8">
-        <v>4.7021186043901802E-3</v>
+        <v>2.1338491341063399E-3</v>
       </c>
       <c r="G12" s="8">
-        <v>4.6956156273614798E-3</v>
+        <v>2.1533440232084102E-3</v>
       </c>
       <c r="H12" s="8">
-        <v>4.7587965252627604E-3</v>
+        <v>2.1539157886738499E-3</v>
       </c>
       <c r="I12" s="8">
-        <v>4.7824037941729602E-3</v>
+        <v>2.1410534744441098E-3</v>
       </c>
       <c r="J12" s="8">
-        <v>4.6315425947815901E-3</v>
+        <v>2.12208378312637E-3</v>
       </c>
       <c r="K12" s="8">
-        <v>4.6536226548409502E-3</v>
+        <v>2.10160273289059E-3</v>
       </c>
       <c r="L12" s="8">
-        <v>4.6929919021581404E-3</v>
+        <v>2.12928632639987E-3</v>
       </c>
       <c r="M12" s="8">
-        <v>1.31357060877366E-2</v>
+        <v>4.4806838423479397E-3</v>
       </c>
       <c r="N12" s="8">
-        <v>4.6213022801124097E-3</v>
+        <v>2.1194007720665101E-3</v>
       </c>
       <c r="O12" s="8">
-        <v>4.6924022896410603E-3</v>
+        <v>2.1390839978836398E-3</v>
       </c>
       <c r="P12" s="8">
-        <v>-5.3372605941057797E-5</v>
+        <v>-4.1945497256132299E-5</v>
       </c>
       <c r="Q12" s="8">
-        <v>-6.6211331224123697E-4</v>
+        <v>-1.29193424991294E-4</v>
       </c>
       <c r="R12" s="8">
-        <v>1.0325659136683301E-3</v>
+        <v>1.0754734845337E-4</v>
       </c>
       <c r="S12" s="8">
-        <v>4.7919923180192E-5</v>
+        <v>-3.5455143832836197E-5</v>
       </c>
       <c r="T12" s="8">
-        <v>2.48939172184444E-4</v>
+        <v>1.08903529645033E-4</v>
       </c>
       <c r="U12" s="8">
-        <v>-1.51675858598852E-4</v>
+        <v>-3.0329800418010999E-5</v>
       </c>
       <c r="V12" s="8">
-        <v>-2.9559364974210999E-5</v>
+        <v>6.4406986063780997E-6</v>
       </c>
       <c r="W12" s="8">
-        <v>-8.2044600952654599E-5</v>
+        <v>-5.9677889897836801E-5</v>
       </c>
       <c r="X12" s="8">
-        <v>2.3955425578765099E-4</v>
+        <v>6.7230714710597906E-5</v>
       </c>
       <c r="Y12" s="8">
-        <v>-1.9339000536294E-5</v>
+        <v>-1.47201354289067E-6</v>
       </c>
       <c r="Z12" s="8">
-        <v>9.2545590245435199E-5</v>
+        <v>6.9796523458505402E-6</v>
       </c>
       <c r="AA12" s="8">
-        <v>-7.5420500605248499E-7</v>
+        <v>-4.35731711153052E-8</v>
       </c>
       <c r="AB12" s="8">
-        <v>-2.2610561517657399E-5</v>
+        <v>-6.4550813409830502E-6</v>
       </c>
       <c r="AC12" s="8">
-        <v>-1.0130633931063E-7</v>
+        <v>1.3208408467425E-6</v>
       </c>
       <c r="AD12" s="8">
-        <v>2.2969195168983701E-4</v>
+        <v>2.0606947717685002E-5</v>
       </c>
       <c r="AE12" s="8">
-        <v>-6.0942464371640404E-3</v>
+        <v>-2.07528194585525E-3</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -5924,94 +5922,94 @@
         <v>32</v>
       </c>
       <c r="B13" s="8">
-        <v>-5.5438436330447899E-2</v>
+        <v>-8.0797584987095702E-2</v>
       </c>
       <c r="C13" s="8">
-        <v>-3.72883661111065E-4</v>
+        <v>-1.80754917887439E-4</v>
       </c>
       <c r="D13" s="8">
-        <v>-1.58026282325078E-4</v>
+        <v>-1.06437614779812E-4</v>
       </c>
       <c r="E13" s="8">
-        <v>4.6017362528768396E-3</v>
+        <v>2.1186568859645699E-3</v>
       </c>
       <c r="F13" s="8">
-        <v>4.5984331081739402E-3</v>
+        <v>2.1182753701739902E-3</v>
       </c>
       <c r="G13" s="8">
-        <v>4.5761952720187998E-3</v>
+        <v>2.1161354265357901E-3</v>
       </c>
       <c r="H13" s="8">
-        <v>4.6195962738988603E-3</v>
+        <v>2.1252677104359099E-3</v>
       </c>
       <c r="I13" s="8">
-        <v>4.6229094517746903E-3</v>
+        <v>2.1168208004995102E-3</v>
       </c>
       <c r="J13" s="8">
-        <v>4.5085763256857399E-3</v>
+        <v>2.1069334748101201E-3</v>
       </c>
       <c r="K13" s="8">
-        <v>4.5618234636934703E-3</v>
+        <v>2.0999107165794199E-3</v>
       </c>
       <c r="L13" s="8">
-        <v>4.58434977699765E-3</v>
+        <v>2.1178962411331401E-3</v>
       </c>
       <c r="M13" s="8">
-        <v>4.6213022801124097E-3</v>
+        <v>2.1194007720665101E-3</v>
       </c>
       <c r="N13" s="8">
-        <v>9.6275680887160792E-3</v>
+        <v>3.7551250828214999E-3</v>
       </c>
       <c r="O13" s="8">
-        <v>4.5791215824155396E-3</v>
+        <v>2.10023976584762E-3</v>
       </c>
       <c r="P13" s="8">
-        <v>-1.67857133624813E-4</v>
+        <v>-4.0837742826247801E-5</v>
       </c>
       <c r="Q13" s="8">
-        <v>-5.4745476505908104E-4</v>
+        <v>-1.2766693914221901E-4</v>
       </c>
       <c r="R13" s="8">
-        <v>2.5507047357712802E-4</v>
+        <v>2.4712679144947199E-5</v>
       </c>
       <c r="S13" s="8">
-        <v>-2.4007612806709901E-4</v>
+        <v>-5.9539394549702101E-5</v>
       </c>
       <c r="T13" s="8">
-        <v>2.2081113337179899E-4</v>
+        <v>7.9182256203810204E-5</v>
       </c>
       <c r="U13" s="8">
-        <v>-5.6234941144648201E-5</v>
+        <v>-3.7474161609562803E-5</v>
       </c>
       <c r="V13" s="8">
-        <v>-9.0408377853806504E-5</v>
+        <v>-4.4096353333459197E-5</v>
       </c>
       <c r="W13" s="8">
-        <v>-1.85044920229045E-4</v>
+        <v>-1.21968351705804E-4</v>
       </c>
       <c r="X13" s="8">
-        <v>1.6683581296006201E-4</v>
+        <v>-3.2920581509252999E-6</v>
       </c>
       <c r="Y13" s="8">
-        <v>-2.1964002949837601E-5</v>
+        <v>7.9522963592716698E-7</v>
       </c>
       <c r="Z13" s="8">
-        <v>1.9132547138385999E-5</v>
+        <v>-3.2191571921367702E-6</v>
       </c>
       <c r="AA13" s="8">
-        <v>-1.5228414308471601E-7</v>
+        <v>2.14931425770394E-8</v>
       </c>
       <c r="AB13" s="8">
-        <v>5.0566289404939798E-6</v>
+        <v>-3.1330506037005701E-7</v>
       </c>
       <c r="AC13" s="8">
-        <v>-1.3863126759049801E-6</v>
+        <v>8.9177924212498105E-7</v>
       </c>
       <c r="AD13" s="8">
-        <v>1.07030937656175E-4</v>
+        <v>5.1103465309000903E-6</v>
       </c>
       <c r="AE13" s="8">
-        <v>-4.0630029790011696E-3</v>
+        <v>-1.77760543240374E-3</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -6019,94 +6017,94 @@
         <v>33</v>
       </c>
       <c r="B14" s="8">
-        <v>-0.31971391799535798</v>
+        <v>-0.24116118209295201</v>
       </c>
       <c r="C14" s="8">
-        <v>-4.37032558332609E-4</v>
+        <v>-1.9974283225966099E-4</v>
       </c>
       <c r="D14" s="8">
-        <v>-7.2809303475764801E-4</v>
+        <v>-2.7826830887114001E-4</v>
       </c>
       <c r="E14" s="8">
-        <v>4.6812021264640404E-3</v>
+        <v>2.1281327417513301E-3</v>
       </c>
       <c r="F14" s="8">
-        <v>4.6573226722622704E-3</v>
+        <v>2.1096542334376302E-3</v>
       </c>
       <c r="G14" s="8">
-        <v>4.6245046333852702E-3</v>
+        <v>2.1264818378835498E-3</v>
       </c>
       <c r="H14" s="8">
-        <v>4.6773788542485801E-3</v>
+        <v>2.1358679502658799E-3</v>
       </c>
       <c r="I14" s="8">
-        <v>4.7184704429830198E-3</v>
+        <v>2.1210959993412902E-3</v>
       </c>
       <c r="J14" s="8">
-        <v>4.5399577460164698E-3</v>
+        <v>2.0874293317515E-3</v>
       </c>
       <c r="K14" s="8">
-        <v>4.5439775616713E-3</v>
+        <v>2.0693646690355498E-3</v>
       </c>
       <c r="L14" s="8">
-        <v>4.6062291872849097E-3</v>
+        <v>2.1051582920085499E-3</v>
       </c>
       <c r="M14" s="8">
-        <v>4.6924022896410603E-3</v>
+        <v>2.1390839978836398E-3</v>
       </c>
       <c r="N14" s="8">
-        <v>4.5791215824155396E-3</v>
+        <v>2.10023976584762E-3</v>
       </c>
       <c r="O14" s="8">
-        <v>1.4476673660923801E-2</v>
+        <v>4.5576352923532302E-3</v>
       </c>
       <c r="P14" s="8">
-        <v>-1.72886599949718E-4</v>
+        <v>-7.2543708176363295E-5</v>
       </c>
       <c r="Q14" s="8">
-        <v>-6.5980354108986197E-4</v>
+        <v>-9.6078908129407703E-5</v>
       </c>
       <c r="R14" s="8">
-        <v>1.23138896392694E-4</v>
+        <v>-3.6482750931556101E-5</v>
       </c>
       <c r="S14" s="8">
-        <v>-2.8251685128063601E-4</v>
+        <v>-7.2610146282736803E-5</v>
       </c>
       <c r="T14" s="8">
-        <v>2.7217038121784702E-4</v>
+        <v>8.3069174004786302E-5</v>
       </c>
       <c r="U14" s="8">
-        <v>2.5458435466619997E-4</v>
+        <v>4.9597389102587803E-5</v>
       </c>
       <c r="V14" s="8">
-        <v>2.36169593408335E-4</v>
+        <v>5.8044518970858003E-5</v>
       </c>
       <c r="W14" s="8">
-        <v>1.47296158392432E-4</v>
+        <v>7.0184400754908702E-6</v>
       </c>
       <c r="X14" s="8">
-        <v>4.8766945431540798E-4</v>
+        <v>1.35467421540183E-4</v>
       </c>
       <c r="Y14" s="8">
-        <v>-2.6794691721633299E-5</v>
+        <v>4.9830316215726405E-7</v>
       </c>
       <c r="Z14" s="8">
-        <v>1.8423051342490199E-5</v>
+        <v>-4.8929109464163202E-7</v>
       </c>
       <c r="AA14" s="8">
-        <v>-5.5499427766562402E-8</v>
+        <v>3.8254926751776301E-8</v>
       </c>
       <c r="AB14" s="8">
-        <v>-2.5208575074361601E-5</v>
+        <v>-8.0637636944728701E-6</v>
       </c>
       <c r="AC14" s="8">
-        <v>1.0487845794638701E-5</v>
+        <v>2.4865679186050101E-6</v>
       </c>
       <c r="AD14" s="8">
-        <v>5.2957405081868802E-7</v>
+        <v>1.9918112710641799E-5</v>
       </c>
       <c r="AE14" s="8">
-        <v>-4.5002541772588799E-3</v>
+        <v>-2.0037373811052899E-3</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -6114,94 +6112,94 @@
         <v>34</v>
       </c>
       <c r="B15" s="8">
-        <v>0.15200989687963301</v>
+        <v>0.18448157238634599</v>
       </c>
       <c r="C15" s="8">
-        <v>6.3804742647886601E-5</v>
+        <v>-2.4010351196035601E-6</v>
       </c>
       <c r="D15" s="8">
-        <v>5.8319911090376397E-5</v>
+        <v>2.7670481579976198E-5</v>
       </c>
       <c r="E15" s="8">
-        <v>-1.14913679032E-4</v>
+        <v>-1.7037789328026998E-5</v>
       </c>
       <c r="F15" s="8">
-        <v>-2.0891575928672399E-4</v>
+        <v>-2.8354136717825198E-5</v>
       </c>
       <c r="G15" s="8">
-        <v>-6.6421818947092994E-5</v>
+        <v>-1.38252151595258E-5</v>
       </c>
       <c r="H15" s="8">
-        <v>-1.17807499792607E-4</v>
+        <v>-2.32777282772399E-5</v>
       </c>
       <c r="I15" s="8">
-        <v>-1.02206279997925E-4</v>
+        <v>-4.1312262441768601E-5</v>
       </c>
       <c r="J15" s="8">
-        <v>-9.8718637540858606E-5</v>
+        <v>-1.00452627965609E-5</v>
       </c>
       <c r="K15" s="8">
-        <v>-1.4258418278965501E-4</v>
+        <v>-2.6671715825304701E-5</v>
       </c>
       <c r="L15" s="8">
-        <v>-1.3435656663387499E-4</v>
+        <v>-3.8225763573531302E-5</v>
       </c>
       <c r="M15" s="8">
-        <v>-5.3372605941057797E-5</v>
+        <v>-4.1945497256132299E-5</v>
       </c>
       <c r="N15" s="8">
-        <v>-1.67857133624813E-4</v>
+        <v>-4.0837742826247801E-5</v>
       </c>
       <c r="O15" s="8">
-        <v>-1.72886599949718E-4</v>
+        <v>-7.2543708176363295E-5</v>
       </c>
       <c r="P15" s="8">
-        <v>1.5157567595481701E-3</v>
+        <v>7.2260191928611502E-4</v>
       </c>
       <c r="Q15" s="8">
-        <v>-8.72099016357545E-5</v>
+        <v>-3.7108874958438002E-5</v>
       </c>
       <c r="R15" s="8">
-        <v>4.8507231855980898E-4</v>
+        <v>1.63785675999854E-4</v>
       </c>
       <c r="S15" s="8">
-        <v>1.7379090929626399E-4</v>
+        <v>6.7409612116022994E-5</v>
       </c>
       <c r="T15" s="8">
-        <v>-3.87505459933383E-4</v>
+        <v>-1.5835039168110601E-4</v>
       </c>
       <c r="U15" s="8">
-        <v>-1.3517918330719299E-4</v>
+        <v>1.16793129607998E-7</v>
       </c>
       <c r="V15" s="8">
-        <v>-4.5860129205188301E-5</v>
+        <v>3.1758458411847303E-5</v>
       </c>
       <c r="W15" s="8">
-        <v>1.87842739536983E-4</v>
+        <v>1.19378062123664E-4</v>
       </c>
       <c r="X15" s="8">
-        <v>3.1962367565496503E-4</v>
+        <v>2.04904940545325E-4</v>
       </c>
       <c r="Y15" s="8">
-        <v>1.9772562492767699E-5</v>
+        <v>7.4306436106973496E-6</v>
       </c>
       <c r="Z15" s="8">
-        <v>4.90632899913266E-5</v>
+        <v>2.02477144949614E-5</v>
       </c>
       <c r="AA15" s="8">
-        <v>-5.63315086948683E-7</v>
+        <v>-2.4383139546038598E-7</v>
       </c>
       <c r="AB15" s="8">
-        <v>1.15285388801926E-5</v>
+        <v>7.6777483686681103E-7</v>
       </c>
       <c r="AC15" s="8">
-        <v>2.0022474940849E-7</v>
+        <v>1.67691284835667E-7</v>
       </c>
       <c r="AD15" s="8">
-        <v>7.8746906126219096E-5</v>
+        <v>3.4514745446138203E-5</v>
       </c>
       <c r="AE15" s="8">
-        <v>-2.3610714720251401E-3</v>
+        <v>-1.01610123344913E-3</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -6209,94 +6207,94 @@
         <v>51</v>
       </c>
       <c r="B16" s="8">
-        <v>-0.36824257932494597</v>
+        <v>-0.40339737191530001</v>
       </c>
       <c r="C16" s="8">
-        <v>1.00876290308307E-4</v>
+        <v>3.9217845373719101E-5</v>
       </c>
       <c r="D16" s="8">
-        <v>2.9892894561407701E-4</v>
+        <v>1.34282433681117E-4</v>
       </c>
       <c r="E16" s="8">
-        <v>-5.3075190912500703E-4</v>
+        <v>-1.07813300742823E-4</v>
       </c>
       <c r="F16" s="8">
-        <v>-5.8120856585848696E-4</v>
+        <v>-1.19442002024386E-4</v>
       </c>
       <c r="G16" s="8">
-        <v>-3.6131142327128901E-4</v>
+        <v>-1.1649828463951399E-4</v>
       </c>
       <c r="H16" s="8">
-        <v>-5.1041861966306099E-4</v>
+        <v>-1.3700660582025701E-4</v>
       </c>
       <c r="I16" s="8">
-        <v>-6.7517206836876001E-4</v>
+        <v>-1.3221709879819899E-4</v>
       </c>
       <c r="J16" s="8">
-        <v>-4.6551734133147701E-4</v>
+        <v>-1.0159275600406701E-4</v>
       </c>
       <c r="K16" s="8">
-        <v>-4.5023443574356399E-4</v>
+        <v>-9.3569434382585604E-5</v>
       </c>
       <c r="L16" s="8">
-        <v>-5.3084061903522302E-4</v>
+        <v>-1.09326017383788E-4</v>
       </c>
       <c r="M16" s="8">
-        <v>-6.6211331224123697E-4</v>
+        <v>-1.29193424991294E-4</v>
       </c>
       <c r="N16" s="8">
-        <v>-5.4745476505908104E-4</v>
+        <v>-1.2766693914221901E-4</v>
       </c>
       <c r="O16" s="8">
-        <v>-6.5980354108986197E-4</v>
+        <v>-9.6078908129407703E-5</v>
       </c>
       <c r="P16" s="8">
-        <v>-8.72099016357545E-5</v>
+        <v>-3.7108874958438002E-5</v>
       </c>
       <c r="Q16" s="8">
-        <v>2.46271263361724E-3</v>
+        <v>1.1475229243029801E-3</v>
       </c>
       <c r="R16" s="8">
-        <v>-6.7727749857465194E-5</v>
+        <v>4.0441035924005003E-5</v>
       </c>
       <c r="S16" s="8">
-        <v>3.1825643819842801E-4</v>
+        <v>1.1775100265274799E-4</v>
       </c>
       <c r="T16" s="8">
-        <v>-1.5900647852027099E-4</v>
+        <v>-7.6107684844990106E-5</v>
       </c>
       <c r="U16" s="8">
-        <v>-5.1123552812945002E-5</v>
+        <v>-9.2549605900146907E-5</v>
       </c>
       <c r="V16" s="8">
-        <v>-3.2667234141214499E-4</v>
+        <v>-1.5987797061632199E-4</v>
       </c>
       <c r="W16" s="8">
-        <v>-5.0881424142339398E-4</v>
+        <v>-2.3421729287682801E-4</v>
       </c>
       <c r="X16" s="8">
-        <v>-5.7523419281928895E-4</v>
+        <v>-2.5036893369748299E-4</v>
       </c>
       <c r="Y16" s="8">
-        <v>-2.3392786639677001E-5</v>
+        <v>-1.63130005102796E-6</v>
       </c>
       <c r="Z16" s="8">
-        <v>-2.0375575511255301E-5</v>
+        <v>-8.3983144104017698E-6</v>
       </c>
       <c r="AA16" s="8">
-        <v>7.7803698616034002E-8</v>
+        <v>2.8641178170521899E-8</v>
       </c>
       <c r="AB16" s="8">
-        <v>3.2946140489506902E-5</v>
+        <v>5.9705636930666204E-6</v>
       </c>
       <c r="AC16" s="8">
-        <v>-7.46671580140853E-6</v>
+        <v>-3.3799294060712399E-6</v>
       </c>
       <c r="AD16" s="8">
-        <v>6.2007918261008902E-5</v>
+        <v>3.45542649400255E-5</v>
       </c>
       <c r="AE16" s="8">
-        <v>-1.0819653516032401E-4</v>
+        <v>-2.44201847484999E-4</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -6304,94 +6302,94 @@
         <v>52</v>
       </c>
       <c r="B17" s="8">
-        <v>0.17275100177917599</v>
+        <v>0.184653751499781</v>
       </c>
       <c r="C17" s="8">
-        <v>-8.8051519685915694E-5</v>
+        <v>-5.0571529733754801E-5</v>
       </c>
       <c r="D17" s="8">
-        <v>1.3495870467713901E-4</v>
+        <v>4.2207251838968602E-5</v>
       </c>
       <c r="E17" s="8">
-        <v>2.1918894876310301E-4</v>
+        <v>1.13950819688749E-4</v>
       </c>
       <c r="F17" s="8">
-        <v>3.5894655843644901E-4</v>
+        <v>1.43509910531031E-4</v>
       </c>
       <c r="G17" s="8">
-        <v>4.3739155051898199E-4</v>
+        <v>1.4659249331550601E-4</v>
       </c>
       <c r="H17" s="8">
-        <v>3.7754694188945698E-4</v>
+        <v>1.2300909366517901E-4</v>
       </c>
       <c r="I17" s="8">
-        <v>4.8733699352116898E-4</v>
+        <v>1.17189836531391E-4</v>
       </c>
       <c r="J17" s="8">
-        <v>3.6778044567765798E-4</v>
+        <v>1.62192796528434E-4</v>
       </c>
       <c r="K17" s="8">
-        <v>3.8471512394693197E-4</v>
+        <v>1.4164761677463799E-4</v>
       </c>
       <c r="L17" s="8">
-        <v>4.6235248202280499E-4</v>
+        <v>1.5300816652109601E-4</v>
       </c>
       <c r="M17" s="8">
-        <v>1.0325659136683301E-3</v>
+        <v>1.0754734845337E-4</v>
       </c>
       <c r="N17" s="8">
-        <v>2.5507047357712802E-4</v>
+        <v>2.4712679144947199E-5</v>
       </c>
       <c r="O17" s="8">
-        <v>1.23138896392694E-4</v>
+        <v>-3.6482750931556101E-5</v>
       </c>
       <c r="P17" s="8">
-        <v>4.8507231855980898E-4</v>
+        <v>1.63785675999854E-4</v>
       </c>
       <c r="Q17" s="8">
-        <v>-6.7727749857465194E-5</v>
+        <v>4.0441035924005003E-5</v>
       </c>
       <c r="R17" s="8">
-        <v>4.1498970342714898E-3</v>
+        <v>1.8410554145455E-3</v>
       </c>
       <c r="S17" s="8">
-        <v>3.19338489304387E-4</v>
+        <v>1.67200008909008E-4</v>
       </c>
       <c r="T17" s="8">
-        <v>-2.4655955176100601E-4</v>
+        <v>-9.7817238729369595E-5</v>
       </c>
       <c r="U17" s="8">
-        <v>1.8057245597323101E-4</v>
+        <v>4.6544007186776199E-5</v>
       </c>
       <c r="V17" s="8">
-        <v>3.4347119074027902E-4</v>
+        <v>1.00580145262716E-4</v>
       </c>
       <c r="W17" s="8">
-        <v>5.1647441917057602E-4</v>
+        <v>1.4173506748138499E-4</v>
       </c>
       <c r="X17" s="8">
-        <v>4.3677476528932601E-4</v>
+        <v>1.41744350822698E-4</v>
       </c>
       <c r="Y17" s="8">
-        <v>4.6739706083266199E-6</v>
+        <v>-3.6959111990187399E-6</v>
       </c>
       <c r="Z17" s="8">
-        <v>2.2507723154183601E-4</v>
+        <v>9.2115164831997899E-5</v>
       </c>
       <c r="AA17" s="8">
-        <v>-1.9169430934189101E-6</v>
+        <v>-7.8092000510230702E-7</v>
       </c>
       <c r="AB17" s="8">
-        <v>-3.7641510449400098E-6</v>
+        <v>4.7867918555168996E-6</v>
       </c>
       <c r="AC17" s="8">
-        <v>-1.8781613042605E-6</v>
+        <v>-4.0175026370691698E-7</v>
       </c>
       <c r="AD17" s="8">
-        <v>9.1834849694763106E-5</v>
+        <v>-1.6838241300965398E-5</v>
       </c>
       <c r="AE17" s="8">
-        <v>-7.4990084814649301E-3</v>
+        <v>-3.0280508107170699E-3</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -6399,94 +6397,94 @@
         <v>53</v>
       </c>
       <c r="B18" s="8">
-        <v>2.69305135531397E-2</v>
+        <v>0.105662877992906</v>
       </c>
       <c r="C18" s="8">
-        <v>-3.1808198852995001E-5</v>
+        <v>-2.04452024198442E-5</v>
       </c>
       <c r="D18" s="8">
-        <v>-1.669246459867E-5</v>
+        <v>4.2497471110276798E-7</v>
       </c>
       <c r="E18" s="8">
-        <v>1.00391979662983E-4</v>
+        <v>-1.33412494859593E-5</v>
       </c>
       <c r="F18" s="8">
-        <v>-2.3267827529382999E-4</v>
+        <v>-2.25022058159278E-5</v>
       </c>
       <c r="G18" s="8">
-        <v>-9.2169724172065905E-5</v>
+        <v>-1.27257191704216E-5</v>
       </c>
       <c r="H18" s="8">
-        <v>-7.8217718445876006E-5</v>
+        <v>-4.11370601891983E-5</v>
       </c>
       <c r="I18" s="8">
-        <v>-4.6526879257784102E-6</v>
+        <v>3.1854969412923298E-5</v>
       </c>
       <c r="J18" s="8">
-        <v>-3.37249260528351E-5</v>
+        <v>1.0520136401525601E-5</v>
       </c>
       <c r="K18" s="8">
-        <v>-1.08659360487395E-4</v>
+        <v>-2.7460233060179799E-5</v>
       </c>
       <c r="L18" s="8">
-        <v>-1.11429842498554E-4</v>
+        <v>7.8278362417397796E-7</v>
       </c>
       <c r="M18" s="8">
-        <v>4.7919923180192E-5</v>
+        <v>-3.5455143832836197E-5</v>
       </c>
       <c r="N18" s="8">
-        <v>-2.4007612806709901E-4</v>
+        <v>-5.9539394549702101E-5</v>
       </c>
       <c r="O18" s="8">
-        <v>-2.8251685128063601E-4</v>
+        <v>-7.2610146282736803E-5</v>
       </c>
       <c r="P18" s="8">
-        <v>1.7379090929626399E-4</v>
+        <v>6.7409612116022994E-5</v>
       </c>
       <c r="Q18" s="8">
-        <v>3.1825643819842801E-4</v>
+        <v>1.1775100265274799E-4</v>
       </c>
       <c r="R18" s="8">
-        <v>3.19338489304387E-4</v>
+        <v>1.67200008909008E-4</v>
       </c>
       <c r="S18" s="8">
-        <v>2.8485954857367401E-3</v>
+        <v>1.52877267896568E-3</v>
       </c>
       <c r="T18" s="8">
-        <v>-5.3345889575927601E-5</v>
+        <v>7.7253167910261301E-7</v>
       </c>
       <c r="U18" s="8">
-        <v>6.5931382929637695E-5</v>
+        <v>4.5734234053220299E-5</v>
       </c>
       <c r="V18" s="8">
-        <v>1.32176915490165E-4</v>
+        <v>8.2273003198758495E-5</v>
       </c>
       <c r="W18" s="8">
-        <v>2.2768379689142899E-4</v>
+        <v>9.9133474726233599E-5</v>
       </c>
       <c r="X18" s="8">
-        <v>2.9966941519071402E-4</v>
+        <v>1.5892112633962099E-4</v>
       </c>
       <c r="Y18" s="8">
-        <v>6.5584630574713697E-6</v>
+        <v>6.8402372023494699E-6</v>
       </c>
       <c r="Z18" s="8">
-        <v>3.3900225066220798E-5</v>
+        <v>2.0186849786505699E-5</v>
       </c>
       <c r="AA18" s="8">
-        <v>-5.0378692838769298E-7</v>
+        <v>-2.8404316990179098E-7</v>
       </c>
       <c r="AB18" s="8">
-        <v>2.9117752851039301E-7</v>
+        <v>-1.45778804956134E-6</v>
       </c>
       <c r="AC18" s="8">
-        <v>5.6802974003689501E-6</v>
+        <v>5.6523973226016101E-7</v>
       </c>
       <c r="AD18" s="8">
-        <v>2.0784403889541499E-4</v>
+        <v>1.23720738751091E-4</v>
       </c>
       <c r="AE18" s="8">
-        <v>-1.61211490268085E-3</v>
+        <v>-8.0244105623445002E-4</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -6494,94 +6492,94 @@
         <v>16</v>
       </c>
       <c r="B19" s="8">
-        <v>-2.4902749365253399E-2</v>
+        <v>-4.97326209949236E-2</v>
       </c>
       <c r="C19" s="8">
-        <v>-2.6176963639023702E-4</v>
+        <v>-7.0199677212929204E-5</v>
       </c>
       <c r="D19" s="8">
-        <v>-1.53762168743298E-4</v>
+        <v>-3.3827159877609903E-5</v>
       </c>
       <c r="E19" s="8">
-        <v>8.0537439077581996E-5</v>
+        <v>8.7357923596709906E-5</v>
       </c>
       <c r="F19" s="8">
-        <v>4.0634834684957598E-4</v>
+        <v>1.2929453956622599E-4</v>
       </c>
       <c r="G19" s="8">
-        <v>3.0757428213766801E-4</v>
+        <v>1.54710089175207E-4</v>
       </c>
       <c r="H19" s="8">
-        <v>3.6700038165785401E-4</v>
+        <v>1.21607868768078E-4</v>
       </c>
       <c r="I19" s="8">
-        <v>2.6750090122797701E-4</v>
+        <v>1.1708803057914E-4</v>
       </c>
       <c r="J19" s="8">
-        <v>2.8550608575869798E-4</v>
+        <v>1.01658791779406E-4</v>
       </c>
       <c r="K19" s="8">
-        <v>2.9271780352915203E-4</v>
+        <v>1.13585013309716E-4</v>
       </c>
       <c r="L19" s="8">
-        <v>4.4397278691085299E-4</v>
+        <v>1.29648958316032E-4</v>
       </c>
       <c r="M19" s="8">
-        <v>2.48939172184444E-4</v>
+        <v>1.08903529645033E-4</v>
       </c>
       <c r="N19" s="8">
-        <v>2.2081113337179899E-4</v>
+        <v>7.9182256203810204E-5</v>
       </c>
       <c r="O19" s="8">
-        <v>2.7217038121784702E-4</v>
+        <v>8.3069174004786302E-5</v>
       </c>
       <c r="P19" s="8">
-        <v>-3.87505459933383E-4</v>
+        <v>-1.5835039168110601E-4</v>
       </c>
       <c r="Q19" s="8">
-        <v>-1.5900647852027099E-4</v>
+        <v>-7.6107684844990106E-5</v>
       </c>
       <c r="R19" s="8">
-        <v>-2.4655955176100601E-4</v>
+        <v>-9.7817238729369595E-5</v>
       </c>
       <c r="S19" s="8">
-        <v>-5.3345889575927601E-5</v>
+        <v>7.7253167910261301E-7</v>
       </c>
       <c r="T19" s="8">
-        <v>2.7813388441253902E-3</v>
+        <v>1.40886813007618E-3</v>
       </c>
       <c r="U19" s="8">
-        <v>2.4519102840085601E-4</v>
+        <v>5.8966288110869002E-5</v>
       </c>
       <c r="V19" s="8">
-        <v>2.5271235672727997E-4</v>
+        <v>5.99299443502695E-5</v>
       </c>
       <c r="W19" s="8">
-        <v>2.9043772160630298E-4</v>
+        <v>8.1140787581409905E-5</v>
       </c>
       <c r="X19" s="8">
-        <v>2.8642769858823399E-4</v>
+        <v>1.1900980433357199E-4</v>
       </c>
       <c r="Y19" s="8">
-        <v>-1.43664513990799E-5</v>
+        <v>3.0734829101172602E-6</v>
       </c>
       <c r="Z19" s="8">
-        <v>4.4352496490171199E-5</v>
+        <v>9.3478861210861897E-6</v>
       </c>
       <c r="AA19" s="8">
-        <v>-2.6619085507972503E-7</v>
+        <v>-3.3024460092481697E-8</v>
       </c>
       <c r="AB19" s="8">
-        <v>-3.1262552035122699E-5</v>
+        <v>-3.12350297190597E-6</v>
       </c>
       <c r="AC19" s="8">
-        <v>-6.3965576374768197E-6</v>
+        <v>-1.7784185281796001E-6</v>
       </c>
       <c r="AD19" s="8">
-        <v>-7.3842093483555802E-6</v>
+        <v>-2.6856644618656E-6</v>
       </c>
       <c r="AE19" s="8">
-        <v>-8.4121578678384205E-4</v>
+        <v>-3.7646697853325301E-4</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -6589,94 +6587,94 @@
         <v>36</v>
       </c>
       <c r="B20" s="8">
-        <v>-7.2532388765864696E-3</v>
+        <v>2.16586606793925E-2</v>
       </c>
       <c r="C20" s="8">
-        <v>-1.22682453199426E-4</v>
+        <v>-1.5722604652204299E-5</v>
       </c>
       <c r="D20" s="8">
-        <v>-1.5661594761741801E-5</v>
+        <v>1.6383107269788899E-5</v>
       </c>
       <c r="E20" s="8">
-        <v>-2.2737114469953E-4</v>
+        <v>-3.3137318471530998E-5</v>
       </c>
       <c r="F20" s="8">
-        <v>-5.5792132208191203E-5</v>
+        <v>-2.23307283178716E-5</v>
       </c>
       <c r="G20" s="8">
-        <v>3.3486641410969298E-5</v>
+        <v>2.33814936779014E-5</v>
       </c>
       <c r="H20" s="8">
-        <v>1.2556181927753901E-4</v>
+        <v>4.3274020808593597E-5</v>
       </c>
       <c r="I20" s="8">
-        <v>1.3420596268146401E-4</v>
+        <v>-2.4899052156578901E-5</v>
       </c>
       <c r="J20" s="8">
-        <v>1.2358016961150101E-4</v>
+        <v>1.05353903186232E-7</v>
       </c>
       <c r="K20" s="8">
-        <v>7.0169636342636094E-5</v>
+        <v>-5.5314213204879498E-6</v>
       </c>
       <c r="L20" s="8">
-        <v>1.11464236300414E-4</v>
+        <v>2.7308804137173499E-5</v>
       </c>
       <c r="M20" s="8">
-        <v>-1.51675858598852E-4</v>
+        <v>-3.0329800418010999E-5</v>
       </c>
       <c r="N20" s="8">
-        <v>-5.6234941144648201E-5</v>
+        <v>-3.7474161609562803E-5</v>
       </c>
       <c r="O20" s="8">
-        <v>2.5458435466619997E-4</v>
+        <v>4.9597389102587803E-5</v>
       </c>
       <c r="P20" s="8">
-        <v>-1.3517918330719299E-4</v>
+        <v>1.16793129607998E-7</v>
       </c>
       <c r="Q20" s="8">
-        <v>-5.1123552812945002E-5</v>
+        <v>-9.2549605900146907E-5</v>
       </c>
       <c r="R20" s="8">
-        <v>1.8057245597323101E-4</v>
+        <v>4.6544007186776199E-5</v>
       </c>
       <c r="S20" s="8">
-        <v>6.5931382929637695E-5</v>
+        <v>4.5734234053220299E-5</v>
       </c>
       <c r="T20" s="8">
-        <v>2.4519102840085601E-4</v>
+        <v>5.8966288110869002E-5</v>
       </c>
       <c r="U20" s="8">
-        <v>3.40977753780993E-3</v>
+        <v>1.56555084714146E-3</v>
       </c>
       <c r="V20" s="8">
-        <v>2.2410414108183299E-3</v>
+        <v>9.6418487327182105E-4</v>
       </c>
       <c r="W20" s="8">
-        <v>2.2385691406754502E-3</v>
+        <v>9.7565878634562199E-4</v>
       </c>
       <c r="X20" s="8">
-        <v>2.1817657934399401E-3</v>
+        <v>9.7087190246344197E-4</v>
       </c>
       <c r="Y20" s="8">
-        <v>-1.43772382047475E-5</v>
+        <v>-1.08233279261583E-6</v>
       </c>
       <c r="Z20" s="8">
-        <v>7.6478268761163497E-6</v>
+        <v>7.0870760238444298E-7</v>
       </c>
       <c r="AA20" s="8">
-        <v>2.8830653596794502E-9</v>
+        <v>7.7338218424803792E-9</v>
       </c>
       <c r="AB20" s="8">
-        <v>-8.6704005843760001E-6</v>
+        <v>1.1644826807421401E-6</v>
       </c>
       <c r="AC20" s="8">
-        <v>-3.8144947964685899E-6</v>
+        <v>-3.8626871304849599E-7</v>
       </c>
       <c r="AD20" s="8">
-        <v>1.9057031304725001E-5</v>
+        <v>-9.0450218288173408E-6</v>
       </c>
       <c r="AE20" s="8">
-        <v>-1.9832797107782602E-3</v>
+        <v>-9.1017853611125401E-4</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -6684,94 +6682,94 @@
         <v>37</v>
       </c>
       <c r="B21" s="8">
-        <v>-9.4496986876251299E-2</v>
+        <v>-4.4430199992376601E-2</v>
       </c>
       <c r="C21" s="8">
-        <v>-5.1328063897944601E-5</v>
+        <v>-6.9643650011300697E-6</v>
       </c>
       <c r="D21" s="8">
-        <v>1.8177208523987001E-4</v>
+        <v>1.10964607404357E-4</v>
       </c>
       <c r="E21" s="8">
-        <v>-2.83534469208249E-5</v>
+        <v>1.6335833502343E-5</v>
       </c>
       <c r="F21" s="8">
-        <v>1.72448859064701E-5</v>
+        <v>3.48929297770763E-6</v>
       </c>
       <c r="G21" s="8">
-        <v>1.71640398250429E-4</v>
+        <v>6.2837108079390105E-5</v>
       </c>
       <c r="H21" s="8">
-        <v>1.8676267231375299E-4</v>
+        <v>5.35101324539209E-5</v>
       </c>
       <c r="I21" s="8">
-        <v>1.55704907262598E-4</v>
+        <v>1.00300197941591E-5</v>
       </c>
       <c r="J21" s="8">
-        <v>1.5746092611000601E-4</v>
+        <v>2.2931315785050101E-5</v>
       </c>
       <c r="K21" s="8">
-        <v>2.50149592917106E-5</v>
+        <v>-3.1686293745564502E-5</v>
       </c>
       <c r="L21" s="8">
-        <v>1.56321080429449E-4</v>
+        <v>4.4694273484034101E-5</v>
       </c>
       <c r="M21" s="8">
-        <v>-2.9559364974210999E-5</v>
+        <v>6.4406986063780997E-6</v>
       </c>
       <c r="N21" s="8">
-        <v>-9.0408377853806504E-5</v>
+        <v>-4.4096353333459197E-5</v>
       </c>
       <c r="O21" s="8">
-        <v>2.36169593408335E-4</v>
+        <v>5.8044518970858003E-5</v>
       </c>
       <c r="P21" s="8">
-        <v>-4.5860129205188301E-5</v>
+        <v>3.1758458411847303E-5</v>
       </c>
       <c r="Q21" s="8">
-        <v>-3.2667234141214499E-4</v>
+        <v>-1.5987797061632199E-4</v>
       </c>
       <c r="R21" s="8">
-        <v>3.4347119074027902E-4</v>
+        <v>1.00580145262716E-4</v>
       </c>
       <c r="S21" s="8">
-        <v>1.32176915490165E-4</v>
+        <v>8.2273003198758495E-5</v>
       </c>
       <c r="T21" s="8">
-        <v>2.5271235672727997E-4</v>
+        <v>5.99299443502695E-5</v>
       </c>
       <c r="U21" s="8">
-        <v>2.2410414108183299E-3</v>
+        <v>9.6418487327182105E-4</v>
       </c>
       <c r="V21" s="8">
-        <v>3.56757793241688E-3</v>
+        <v>1.59231644990298E-3</v>
       </c>
       <c r="W21" s="8">
-        <v>2.5638426675269402E-3</v>
+        <v>1.0751901505208501E-3</v>
       </c>
       <c r="X21" s="8">
-        <v>2.48091810430411E-3</v>
+        <v>1.0648249739772201E-3</v>
       </c>
       <c r="Y21" s="8">
-        <v>4.2225664681111201E-7</v>
+        <v>1.38948538405172E-6</v>
       </c>
       <c r="Z21" s="8">
-        <v>1.2428868764528301E-5</v>
+        <v>4.33830646078016E-9</v>
       </c>
       <c r="AA21" s="8">
-        <v>-3.3990391284824898E-8</v>
+        <v>1.66514841183483E-8</v>
       </c>
       <c r="AB21" s="8">
-        <v>-5.2253166969438403E-7</v>
+        <v>2.5986646406314701E-6</v>
       </c>
       <c r="AC21" s="8">
-        <v>-2.2037858423240101E-6</v>
+        <v>-2.0331896452513901E-7</v>
       </c>
       <c r="AD21" s="8">
-        <v>8.5782145321438097E-5</v>
+        <v>1.4009468663160801E-6</v>
       </c>
       <c r="AE21" s="8">
-        <v>-2.6982551204772199E-3</v>
+        <v>-1.04361842120397E-3</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -6779,94 +6777,94 @@
         <v>39</v>
       </c>
       <c r="B22" s="8">
-        <v>-0.112476767151477</v>
+        <v>-7.4692938144295298E-2</v>
       </c>
       <c r="C22" s="8">
-        <v>1.37808615346704E-5</v>
+        <v>5.8518251960003599E-5</v>
       </c>
       <c r="D22" s="8">
-        <v>3.6057120221624198E-4</v>
+        <v>1.95142093180855E-4</v>
       </c>
       <c r="E22" s="8">
-        <v>-1.09671859748506E-4</v>
+        <v>-3.3951289233989001E-5</v>
       </c>
       <c r="F22" s="8">
-        <v>-8.7808865050775895E-5</v>
+        <v>-6.7033401469008096E-5</v>
       </c>
       <c r="G22" s="8">
-        <v>1.09688348883064E-4</v>
+        <v>-1.2482240525413001E-5</v>
       </c>
       <c r="H22" s="8">
-        <v>1.7356712356975999E-4</v>
+        <v>-9.6335773015190695E-6</v>
       </c>
       <c r="I22" s="8">
-        <v>2.1338973945518101E-4</v>
+        <v>-7.1859500453834099E-5</v>
       </c>
       <c r="J22" s="8">
-        <v>4.0396697694156298E-5</v>
+        <v>-7.9249906656757998E-5</v>
       </c>
       <c r="K22" s="8">
-        <v>-6.5653464212292402E-5</v>
+        <v>-1.14132422756214E-4</v>
       </c>
       <c r="L22" s="8">
-        <v>7.98168599170357E-5</v>
+        <v>-2.8296537360550101E-5</v>
       </c>
       <c r="M22" s="8">
-        <v>-8.2044600952654599E-5</v>
+        <v>-5.9677889897836801E-5</v>
       </c>
       <c r="N22" s="8">
-        <v>-1.85044920229045E-4</v>
+        <v>-1.21968351705804E-4</v>
       </c>
       <c r="O22" s="8">
-        <v>1.47296158392432E-4</v>
+        <v>7.0184400754908702E-6</v>
       </c>
       <c r="P22" s="8">
-        <v>1.87842739536983E-4</v>
+        <v>1.19378062123664E-4</v>
       </c>
       <c r="Q22" s="8">
-        <v>-5.0881424142339398E-4</v>
+        <v>-2.3421729287682801E-4</v>
       </c>
       <c r="R22" s="8">
-        <v>5.1647441917057602E-4</v>
+        <v>1.4173506748138499E-4</v>
       </c>
       <c r="S22" s="8">
-        <v>2.2768379689142899E-4</v>
+        <v>9.9133474726233599E-5</v>
       </c>
       <c r="T22" s="8">
-        <v>2.9043772160630298E-4</v>
+        <v>8.1140787581409905E-5</v>
       </c>
       <c r="U22" s="8">
-        <v>2.2385691406754502E-3</v>
+        <v>9.7565878634562199E-4</v>
       </c>
       <c r="V22" s="8">
-        <v>2.5638426675269402E-3</v>
+        <v>1.0751901505208501E-3</v>
       </c>
       <c r="W22" s="8">
-        <v>3.8306822409799601E-3</v>
+        <v>1.6741207208524401E-3</v>
       </c>
       <c r="X22" s="8">
-        <v>2.73751557320012E-3</v>
+        <v>1.1940185452315199E-3</v>
       </c>
       <c r="Y22" s="8">
-        <v>1.71157883522571E-5</v>
+        <v>3.1010362463191099E-6</v>
       </c>
       <c r="Z22" s="8">
-        <v>1.5466329563506301E-5</v>
+        <v>-1.9054647346324001E-6</v>
       </c>
       <c r="AA22" s="8">
-        <v>-6.84626953266624E-8</v>
+        <v>3.6033366288262597E-8</v>
       </c>
       <c r="AB22" s="8">
-        <v>3.9565577872333896E-6</v>
+        <v>4.51099411612155E-6</v>
       </c>
       <c r="AC22" s="8">
-        <v>-4.7159729258686503E-6</v>
+        <v>-1.5007597930025801E-6</v>
       </c>
       <c r="AD22" s="8">
-        <v>5.6801925958415799E-5</v>
+        <v>-5.4613928529796603E-6</v>
       </c>
       <c r="AE22" s="8">
-        <v>-3.0962587631466298E-3</v>
+        <v>-1.03428383805936E-3</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -6874,94 +6872,94 @@
         <v>40</v>
       </c>
       <c r="B23" s="8">
-        <v>-0.161010158606473</v>
+        <v>-0.107205581867788</v>
       </c>
       <c r="C23" s="8">
-        <v>2.6670464367964402E-4</v>
+        <v>1.6833873673737599E-4</v>
       </c>
       <c r="D23" s="8">
-        <v>6.8757980451412504E-4</v>
+        <v>3.5817082168178402E-4</v>
       </c>
       <c r="E23" s="8">
-        <v>1.9093646054300299E-4</v>
+        <v>7.8120095266938494E-5</v>
       </c>
       <c r="F23" s="8">
-        <v>2.0714690065796199E-4</v>
+        <v>4.62586361989621E-5</v>
       </c>
       <c r="G23" s="8">
-        <v>4.1452257141545799E-4</v>
+        <v>1.42974664234928E-4</v>
       </c>
       <c r="H23" s="8">
-        <v>4.1377265378225302E-4</v>
+        <v>1.06908328277264E-4</v>
       </c>
       <c r="I23" s="8">
-        <v>3.9750400907008102E-4</v>
+        <v>5.2375990767446098E-5</v>
       </c>
       <c r="J23" s="8">
-        <v>2.6402111972485403E-4</v>
+        <v>2.3101857373560899E-5</v>
       </c>
       <c r="K23" s="8">
-        <v>1.4479221834593601E-4</v>
+        <v>-4.1854991414743002E-5</v>
       </c>
       <c r="L23" s="8">
-        <v>3.5776160519099601E-4</v>
+        <v>7.8048755757266998E-5</v>
       </c>
       <c r="M23" s="8">
-        <v>2.3955425578765099E-4</v>
+        <v>6.7230714710597906E-5</v>
       </c>
       <c r="N23" s="8">
-        <v>1.6683581296006201E-4</v>
+        <v>-3.2920581509252999E-6</v>
       </c>
       <c r="O23" s="8">
-        <v>4.8766945431540798E-4</v>
+        <v>1.35467421540183E-4</v>
       </c>
       <c r="P23" s="8">
-        <v>3.1962367565496503E-4</v>
+        <v>2.04904940545325E-4</v>
       </c>
       <c r="Q23" s="8">
-        <v>-5.7523419281928895E-4</v>
+        <v>-2.5036893369748299E-4</v>
       </c>
       <c r="R23" s="8">
-        <v>4.3677476528932601E-4</v>
+        <v>1.41744350822698E-4</v>
       </c>
       <c r="S23" s="8">
-        <v>2.9966941519071402E-4</v>
+        <v>1.5892112633962099E-4</v>
       </c>
       <c r="T23" s="8">
-        <v>2.8642769858823399E-4</v>
+        <v>1.1900980433357199E-4</v>
       </c>
       <c r="U23" s="8">
-        <v>2.1817657934399401E-3</v>
+        <v>9.7087190246344197E-4</v>
       </c>
       <c r="V23" s="8">
-        <v>2.48091810430411E-3</v>
+        <v>1.0648249739772201E-3</v>
       </c>
       <c r="W23" s="8">
-        <v>2.73751557320012E-3</v>
+        <v>1.1940185452315199E-3</v>
       </c>
       <c r="X23" s="8">
-        <v>3.7743225970113198E-3</v>
+        <v>1.7481006815951901E-3</v>
       </c>
       <c r="Y23" s="8">
-        <v>1.10848542735282E-5</v>
+        <v>7.5992390641386799E-6</v>
       </c>
       <c r="Z23" s="8">
-        <v>1.4178425208033201E-5</v>
+        <v>-3.41045555268123E-6</v>
       </c>
       <c r="AA23" s="8">
-        <v>-9.8588443623185394E-8</v>
+        <v>2.84727262997401E-8</v>
       </c>
       <c r="AB23" s="8">
-        <v>4.6883855760179402E-6</v>
+        <v>4.9149084357175804E-6</v>
       </c>
       <c r="AC23" s="8">
-        <v>-7.6268194260970204E-6</v>
+        <v>-2.8271785483945699E-6</v>
       </c>
       <c r="AD23" s="8">
-        <v>2.4376716060478E-5</v>
+        <v>-1.5923795458484499E-5</v>
       </c>
       <c r="AE23" s="8">
-        <v>-3.1777611495323998E-3</v>
+        <v>-1.21340909252411E-3</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -6969,94 +6967,94 @@
         <v>38</v>
       </c>
       <c r="B24" s="8">
-        <v>2.9527355353348401E-2</v>
+        <v>3.6672229834380198E-2</v>
       </c>
       <c r="C24" s="8">
-        <v>2.2311736444310899E-5</v>
+        <v>6.27295882469606E-6</v>
       </c>
       <c r="D24" s="8">
-        <v>5.7439378178796598E-5</v>
+        <v>2.1377096944512401E-5</v>
       </c>
       <c r="E24" s="8">
-        <v>-3.82994438180937E-5</v>
+        <v>-1.0807812856654201E-6</v>
       </c>
       <c r="F24" s="8">
-        <v>-3.4986498382821998E-5</v>
+        <v>-1.1233204945237001E-6</v>
       </c>
       <c r="G24" s="8">
-        <v>-2.0452982035959601E-5</v>
+        <v>-4.7316740355551402E-6</v>
       </c>
       <c r="H24" s="8">
-        <v>-4.2004722811816402E-5</v>
+        <v>-1.26525985135806E-6</v>
       </c>
       <c r="I24" s="8">
-        <v>-2.2889505325565101E-5</v>
+        <v>2.45067646426853E-6</v>
       </c>
       <c r="J24" s="8">
-        <v>-3.8244696355540303E-5</v>
+        <v>2.3439807507563799E-6</v>
       </c>
       <c r="K24" s="8">
-        <v>-3.7604194075758998E-5</v>
+        <v>1.2567953086961E-6</v>
       </c>
       <c r="L24" s="8">
-        <v>-3.9897153704502299E-5</v>
+        <v>1.10714792866634E-6</v>
       </c>
       <c r="M24" s="8">
-        <v>-1.9339000536294E-5</v>
+        <v>-1.47201354289067E-6</v>
       </c>
       <c r="N24" s="8">
-        <v>-2.1964002949837601E-5</v>
+        <v>7.9522963592716698E-7</v>
       </c>
       <c r="O24" s="8">
-        <v>-2.6794691721633299E-5</v>
+        <v>4.9830316215726405E-7</v>
       </c>
       <c r="P24" s="8">
-        <v>1.9772562492767699E-5</v>
+        <v>7.4306436106973496E-6</v>
       </c>
       <c r="Q24" s="8">
-        <v>-2.3392786639677001E-5</v>
+        <v>-1.63130005102796E-6</v>
       </c>
       <c r="R24" s="8">
-        <v>4.6739706083266199E-6</v>
+        <v>-3.6959111990187399E-6</v>
       </c>
       <c r="S24" s="8">
-        <v>6.5584630574713697E-6</v>
+        <v>6.8402372023494699E-6</v>
       </c>
       <c r="T24" s="8">
-        <v>-1.43664513990799E-5</v>
+        <v>3.0734829101172602E-6</v>
       </c>
       <c r="U24" s="8">
-        <v>-1.43772382047475E-5</v>
+        <v>-1.08233279261583E-6</v>
       </c>
       <c r="V24" s="8">
-        <v>4.2225664681111201E-7</v>
+        <v>1.38948538405172E-6</v>
       </c>
       <c r="W24" s="8">
-        <v>1.71157883522571E-5</v>
+        <v>3.1010362463191099E-6</v>
       </c>
       <c r="X24" s="8">
-        <v>1.10848542735282E-5</v>
+        <v>7.5992390641386799E-6</v>
       </c>
       <c r="Y24" s="8">
-        <v>3.0699232814009897E-5</v>
+        <v>1.39674374506146E-5</v>
       </c>
       <c r="Z24" s="8">
-        <v>-1.9998044292343899E-6</v>
+        <v>-1.35677349606854E-7</v>
       </c>
       <c r="AA24" s="8">
-        <v>1.8380501427824601E-9</v>
+        <v>-5.2107147387849897E-9</v>
       </c>
       <c r="AB24" s="8">
-        <v>2.1337350776016201E-6</v>
+        <v>-1.2281466162351799E-7</v>
       </c>
       <c r="AC24" s="8">
-        <v>3.99198813375145E-8</v>
+        <v>7.0742928682889798E-8</v>
       </c>
       <c r="AD24" s="8">
-        <v>1.3964968192175099E-6</v>
+        <v>2.25825502080435E-6</v>
       </c>
       <c r="AE24" s="8">
-        <v>-3.3848296783398199E-4</v>
+        <v>-1.98633710603177E-4</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -7064,94 +7062,94 @@
         <v>48</v>
       </c>
       <c r="B25" s="8">
-        <v>4.6221602675515797E-2</v>
+        <v>4.2446046772333497E-2</v>
       </c>
       <c r="C25" s="8">
-        <v>-9.4898716168457208E-6</v>
+        <v>-6.0825763158936204E-7</v>
       </c>
       <c r="D25" s="8">
-        <v>2.8524472822873699E-5</v>
+        <v>6.4770889766353103E-6</v>
       </c>
       <c r="E25" s="8">
-        <v>4.4985635076731103E-6</v>
+        <v>1.72026528093262E-6</v>
       </c>
       <c r="F25" s="8">
-        <v>3.3794828438001103E-5</v>
+        <v>4.2043130187293904E-6</v>
       </c>
       <c r="G25" s="8">
-        <v>2.5187695891426099E-5</v>
+        <v>7.0794417037842997E-6</v>
       </c>
       <c r="H25" s="8">
-        <v>4.3697872708440899E-5</v>
+        <v>5.9386016177061498E-6</v>
       </c>
       <c r="I25" s="8">
-        <v>4.4470806058258903E-5</v>
+        <v>7.8823449682141794E-6</v>
       </c>
       <c r="J25" s="8">
-        <v>4.4865453907970602E-5</v>
+        <v>9.7897819421496705E-6</v>
       </c>
       <c r="K25" s="8">
-        <v>4.57039339330066E-5</v>
+        <v>9.1952708450504492E-6</v>
       </c>
       <c r="L25" s="8">
-        <v>5.1317099986123802E-5</v>
+        <v>5.2696887768476399E-6</v>
       </c>
       <c r="M25" s="8">
-        <v>9.2545590245435199E-5</v>
+        <v>6.9796523458505402E-6</v>
       </c>
       <c r="N25" s="8">
-        <v>1.9132547138385999E-5</v>
+        <v>-3.2191571921367702E-6</v>
       </c>
       <c r="O25" s="8">
-        <v>1.8423051342490199E-5</v>
+        <v>-4.8929109464163202E-7</v>
       </c>
       <c r="P25" s="8">
-        <v>4.90632899913266E-5</v>
+        <v>2.02477144949614E-5</v>
       </c>
       <c r="Q25" s="8">
-        <v>-2.0375575511255301E-5</v>
+        <v>-8.3983144104017698E-6</v>
       </c>
       <c r="R25" s="8">
-        <v>2.2507723154183601E-4</v>
+        <v>9.2115164831997899E-5</v>
       </c>
       <c r="S25" s="8">
-        <v>3.3900225066220798E-5</v>
+        <v>2.0186849786505699E-5</v>
       </c>
       <c r="T25" s="8">
-        <v>4.4352496490171199E-5</v>
+        <v>9.3478861210861897E-6</v>
       </c>
       <c r="U25" s="8">
-        <v>7.6478268761163497E-6</v>
+        <v>7.0870760238444298E-7</v>
       </c>
       <c r="V25" s="8">
-        <v>1.2428868764528301E-5</v>
+        <v>4.33830646078016E-9</v>
       </c>
       <c r="W25" s="8">
-        <v>1.5466329563506301E-5</v>
+        <v>-1.9054647346324001E-6</v>
       </c>
       <c r="X25" s="8">
-        <v>1.4178425208033201E-5</v>
+        <v>-3.41045555268123E-6</v>
       </c>
       <c r="Y25" s="8">
-        <v>-1.9998044292343899E-6</v>
+        <v>-1.35677349606854E-7</v>
       </c>
       <c r="Z25" s="8">
-        <v>4.2632751870482203E-5</v>
+        <v>1.9365706065183E-5</v>
       </c>
       <c r="AA25" s="8">
-        <v>-3.9515841732911299E-7</v>
+        <v>-1.8206699967408299E-7</v>
       </c>
       <c r="AB25" s="8">
-        <v>-3.7123067398777002E-6</v>
+        <v>-6.5223233531347499E-7</v>
       </c>
       <c r="AC25" s="8">
-        <v>-1.7179438057105301E-6</v>
+        <v>-6.2597805291552702E-7</v>
       </c>
       <c r="AD25" s="8">
-        <v>2.1273421699361599E-5</v>
+        <v>6.32391516244313E-7</v>
       </c>
       <c r="AE25" s="8">
-        <v>-9.9664994795096106E-4</v>
+        <v>-4.4798838519337602E-4</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -7159,94 +7157,94 @@
         <v>49</v>
       </c>
       <c r="B26" s="8">
-        <v>-6.86606951369517E-4</v>
+        <v>-6.4803824136122601E-4</v>
       </c>
       <c r="C26" s="8">
-        <v>4.0925599950415701E-8</v>
+        <v>-1.2141594768232499E-8</v>
       </c>
       <c r="D26" s="8">
-        <v>-5.1436043815626398E-7</v>
+        <v>-1.7817829408908701E-7</v>
       </c>
       <c r="E26" s="8">
-        <v>-3.7095477023163901E-8</v>
+        <v>-1.20936627277477E-8</v>
       </c>
       <c r="F26" s="8">
-        <v>-2.3690207389474601E-7</v>
+        <v>-3.2700169381612999E-8</v>
       </c>
       <c r="G26" s="8">
-        <v>-1.93505974880005E-7</v>
+        <v>-4.80267493739946E-8</v>
       </c>
       <c r="H26" s="8">
-        <v>-3.3135657783265498E-7</v>
+        <v>-3.6023205734222201E-8</v>
       </c>
       <c r="I26" s="8">
-        <v>-3.3994716566817798E-7</v>
+        <v>-6.4956239531837597E-8</v>
       </c>
       <c r="J26" s="8">
-        <v>-3.8726745970202101E-7</v>
+        <v>-1.03357813150562E-7</v>
       </c>
       <c r="K26" s="8">
-        <v>-3.9140830297956302E-7</v>
+        <v>-8.8747076161687504E-8</v>
       </c>
       <c r="L26" s="8">
-        <v>-4.1336233720227401E-7</v>
+        <v>-4.9291278452789698E-8</v>
       </c>
       <c r="M26" s="8">
-        <v>-7.5420500605248499E-7</v>
+        <v>-4.35731711153052E-8</v>
       </c>
       <c r="N26" s="8">
-        <v>-1.5228414308471601E-7</v>
+        <v>2.14931425770394E-8</v>
       </c>
       <c r="O26" s="8">
-        <v>-5.5499427766562402E-8</v>
+        <v>3.8254926751776301E-8</v>
       </c>
       <c r="P26" s="8">
-        <v>-5.63315086948683E-7</v>
+        <v>-2.4383139546038598E-7</v>
       </c>
       <c r="Q26" s="8">
-        <v>7.7803698616034002E-8</v>
+        <v>2.8641178170521899E-8</v>
       </c>
       <c r="R26" s="8">
-        <v>-1.9169430934189101E-6</v>
+        <v>-7.8092000510230702E-7</v>
       </c>
       <c r="S26" s="8">
-        <v>-5.0378692838769298E-7</v>
+        <v>-2.8404316990179098E-7</v>
       </c>
       <c r="T26" s="8">
-        <v>-2.6619085507972503E-7</v>
+        <v>-3.3024460092481697E-8</v>
       </c>
       <c r="U26" s="8">
-        <v>2.8830653596794502E-9</v>
+        <v>7.7338218424803792E-9</v>
       </c>
       <c r="V26" s="8">
-        <v>-3.3990391284824898E-8</v>
+        <v>1.66514841183483E-8</v>
       </c>
       <c r="W26" s="8">
-        <v>-6.84626953266624E-8</v>
+        <v>3.6033366288262597E-8</v>
       </c>
       <c r="X26" s="8">
-        <v>-9.8588443623185394E-8</v>
+        <v>2.84727262997401E-8</v>
       </c>
       <c r="Y26" s="8">
-        <v>1.8380501427824601E-9</v>
+        <v>-5.2107147387849897E-9</v>
       </c>
       <c r="Z26" s="8">
-        <v>-3.9515841732911299E-7</v>
+        <v>-1.8206699967408299E-7</v>
       </c>
       <c r="AA26" s="8">
-        <v>3.8289055883269798E-9</v>
+        <v>1.7916916150636E-9</v>
       </c>
       <c r="AB26" s="8">
-        <v>3.9808241967133103E-8</v>
+        <v>1.03764999882051E-8</v>
       </c>
       <c r="AC26" s="8">
-        <v>2.3741115434956502E-8</v>
+        <v>9.7233803307038898E-9</v>
       </c>
       <c r="AD26" s="8">
-        <v>-2.1684165839640399E-7</v>
+        <v>-2.7069288365153099E-8</v>
       </c>
       <c r="AE26" s="8">
-        <v>8.6458425788635301E-6</v>
+        <v>3.9261203290600004E-6</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -7254,94 +7252,94 @@
         <v>18</v>
       </c>
       <c r="B27" s="8">
-        <v>0.526057048058441</v>
+        <v>0.52212613423398002</v>
       </c>
       <c r="C27" s="8">
-        <v>2.5991923536983598E-5</v>
+        <v>7.9337080570399408E-6</v>
       </c>
       <c r="D27" s="8">
-        <v>2.2496862997745398E-5</v>
+        <v>9.1735317344850293E-6</v>
       </c>
       <c r="E27" s="8">
-        <v>8.5625345480353595E-6</v>
+        <v>-1.79756443584957E-6</v>
       </c>
       <c r="F27" s="8">
-        <v>-3.5368859764654901E-5</v>
+        <v>-2.3897361588960099E-6</v>
       </c>
       <c r="G27" s="8">
-        <v>1.28039239555633E-5</v>
+        <v>-1.7148892956757501E-6</v>
       </c>
       <c r="H27" s="8">
-        <v>-1.6995276677975299E-5</v>
+        <v>-3.2855902062928398E-6</v>
       </c>
       <c r="I27" s="8">
-        <v>-3.7121733156405898E-5</v>
+        <v>-4.5702167930177404E-6</v>
       </c>
       <c r="J27" s="8">
-        <v>-3.1013955799169801E-5</v>
+        <v>-4.6863778379838098E-6</v>
       </c>
       <c r="K27" s="8">
-        <v>-2.78108207754154E-5</v>
+        <v>-4.5969752791279003E-6</v>
       </c>
       <c r="L27" s="8">
-        <v>-1.5050465125816501E-5</v>
+        <v>2.9807231880155201E-6</v>
       </c>
       <c r="M27" s="8">
-        <v>-2.2610561517657399E-5</v>
+        <v>-6.4550813409830502E-6</v>
       </c>
       <c r="N27" s="8">
-        <v>5.0566289404939798E-6</v>
+        <v>-3.1330506037005701E-7</v>
       </c>
       <c r="O27" s="8">
-        <v>-2.5208575074361601E-5</v>
+        <v>-8.0637636944728701E-6</v>
       </c>
       <c r="P27" s="8">
-        <v>1.15285388801926E-5</v>
+        <v>7.6777483686681103E-7</v>
       </c>
       <c r="Q27" s="8">
-        <v>3.2946140489506902E-5</v>
+        <v>5.9705636930666204E-6</v>
       </c>
       <c r="R27" s="8">
-        <v>-3.7641510449400098E-6</v>
+        <v>4.7867918555168996E-6</v>
       </c>
       <c r="S27" s="8">
-        <v>2.9117752851039301E-7</v>
+        <v>-1.45778804956134E-6</v>
       </c>
       <c r="T27" s="8">
-        <v>-3.1262552035122699E-5</v>
+        <v>-3.12350297190597E-6</v>
       </c>
       <c r="U27" s="8">
-        <v>-8.6704005843760001E-6</v>
+        <v>1.1644826807421401E-6</v>
       </c>
       <c r="V27" s="8">
-        <v>-5.2253166969438403E-7</v>
+        <v>2.5986646406314701E-6</v>
       </c>
       <c r="W27" s="8">
-        <v>3.9565577872333896E-6</v>
+        <v>4.51099411612155E-6</v>
       </c>
       <c r="X27" s="8">
-        <v>4.6883855760179402E-6</v>
+        <v>4.9149084357175804E-6</v>
       </c>
       <c r="Y27" s="8">
-        <v>2.1337350776016201E-6</v>
+        <v>-1.2281466162351799E-7</v>
       </c>
       <c r="Z27" s="8">
-        <v>-3.7123067398777002E-6</v>
+        <v>-6.5223233531347499E-7</v>
       </c>
       <c r="AA27" s="8">
-        <v>3.9808241967133103E-8</v>
+        <v>1.03764999882051E-8</v>
       </c>
       <c r="AB27" s="8">
-        <v>3.0475755629161901E-5</v>
+        <v>1.3970579215674901E-5</v>
       </c>
       <c r="AC27" s="8">
-        <v>1.9907806098561198E-6</v>
+        <v>8.3545708632907099E-7</v>
       </c>
       <c r="AD27" s="8">
-        <v>2.3221912121004099E-5</v>
+        <v>1.50469872237207E-5</v>
       </c>
       <c r="AE27" s="8">
-        <v>-4.0515264223235702E-4</v>
+        <v>-1.9651754734328699E-4</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
@@ -7349,94 +7347,94 @@
         <v>50</v>
       </c>
       <c r="B28" s="8">
-        <v>-5.6516321748449401E-2</v>
+        <v>-5.4381655105978602E-2</v>
       </c>
       <c r="C28" s="8">
-        <v>7.40382263859905E-6</v>
+        <v>3.2846449704331101E-6</v>
       </c>
       <c r="D28" s="8">
-        <v>6.8988713607926301E-6</v>
+        <v>6.3522316421218797E-6</v>
       </c>
       <c r="E28" s="8">
-        <v>1.75452746457684E-6</v>
+        <v>-3.0153892788600299E-7</v>
       </c>
       <c r="F28" s="8">
-        <v>-3.0909265059234698E-7</v>
+        <v>-3.88615187666509E-7</v>
       </c>
       <c r="G28" s="8">
-        <v>1.78258937571622E-7</v>
+        <v>-2.3188260005998501E-7</v>
       </c>
       <c r="H28" s="8">
-        <v>-4.4141257197855896E-6</v>
+        <v>-1.21047078488267E-6</v>
       </c>
       <c r="I28" s="8">
-        <v>-3.67931621768857E-6</v>
+        <v>-1.4213917339336701E-6</v>
       </c>
       <c r="J28" s="8">
-        <v>-4.1506026425287101E-6</v>
+        <v>-2.02453231861958E-6</v>
       </c>
       <c r="K28" s="8">
-        <v>-5.0610266882774496E-6</v>
+        <v>-1.9506254430222101E-6</v>
       </c>
       <c r="L28" s="8">
-        <v>-3.4540333228986501E-6</v>
+        <v>-1.2863764664793999E-6</v>
       </c>
       <c r="M28" s="8">
-        <v>-1.0130633931063E-7</v>
+        <v>1.3208408467425E-6</v>
       </c>
       <c r="N28" s="8">
-        <v>-1.3863126759049801E-6</v>
+        <v>8.9177924212498105E-7</v>
       </c>
       <c r="O28" s="8">
-        <v>1.0487845794638701E-5</v>
+        <v>2.4865679186050101E-6</v>
       </c>
       <c r="P28" s="8">
-        <v>2.0022474940849E-7</v>
+        <v>1.67691284835667E-7</v>
       </c>
       <c r="Q28" s="8">
-        <v>-7.46671580140853E-6</v>
+        <v>-3.3799294060712399E-6</v>
       </c>
       <c r="R28" s="8">
-        <v>-1.8781613042605E-6</v>
+        <v>-4.0175026370691698E-7</v>
       </c>
       <c r="S28" s="8">
-        <v>5.6802974003689501E-6</v>
+        <v>5.6523973226016101E-7</v>
       </c>
       <c r="T28" s="8">
-        <v>-6.3965576374768197E-6</v>
+        <v>-1.7784185281796001E-6</v>
       </c>
       <c r="U28" s="8">
-        <v>-3.8144947964685899E-6</v>
+        <v>-3.8626871304849599E-7</v>
       </c>
       <c r="V28" s="8">
-        <v>-2.2037858423240101E-6</v>
+        <v>-2.0331896452513901E-7</v>
       </c>
       <c r="W28" s="8">
-        <v>-4.7159729258686503E-6</v>
+        <v>-1.5007597930025801E-6</v>
       </c>
       <c r="X28" s="8">
-        <v>-7.6268194260970204E-6</v>
+        <v>-2.8271785483945699E-6</v>
       </c>
       <c r="Y28" s="8">
-        <v>3.99198813375145E-8</v>
+        <v>7.0742928682889798E-8</v>
       </c>
       <c r="Z28" s="8">
-        <v>-1.7179438057105301E-6</v>
+        <v>-6.2597805291552702E-7</v>
       </c>
       <c r="AA28" s="8">
-        <v>2.3741115434956502E-8</v>
+        <v>9.7233803307038898E-9</v>
       </c>
       <c r="AB28" s="8">
-        <v>1.9907806098561198E-6</v>
+        <v>8.3545708632907099E-7</v>
       </c>
       <c r="AC28" s="8">
-        <v>4.26427895494281E-6</v>
+        <v>2.0770443961828099E-6</v>
       </c>
       <c r="AD28" s="8">
-        <v>-4.4892553353969296E-6</v>
+        <v>-6.9074774881950596E-7</v>
       </c>
       <c r="AE28" s="8">
-        <v>-2.11891036359431E-4</v>
+        <v>-1.1030413592568999E-4</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
@@ -7444,94 +7442,94 @@
         <v>4</v>
       </c>
       <c r="B29" s="8">
-        <v>-0.49544866460460202</v>
+        <v>-0.44578415220562201</v>
       </c>
       <c r="C29" s="8">
-        <v>-4.8026066892916801E-5</v>
+        <v>4.0860537853751502E-6</v>
       </c>
       <c r="D29" s="8">
-        <v>5.77422874847142E-5</v>
+        <v>6.3849330626352093E-5</v>
       </c>
       <c r="E29" s="8">
-        <v>9.7261481075393093E-5</v>
+        <v>-7.0201536215327296E-8</v>
       </c>
       <c r="F29" s="8">
-        <v>1.53713222151612E-4</v>
+        <v>2.45027310065609E-5</v>
       </c>
       <c r="G29" s="8">
-        <v>1.5001784691466401E-4</v>
+        <v>-4.7921027584321103E-7</v>
       </c>
       <c r="H29" s="8">
-        <v>1.6233967290569601E-4</v>
+        <v>1.51025693278794E-5</v>
       </c>
       <c r="I29" s="8">
-        <v>2.38231632399397E-4</v>
+        <v>2.0753690207359398E-5</v>
       </c>
       <c r="J29" s="8">
-        <v>2.1077922406536901E-4</v>
+        <v>5.5681111169946103E-5</v>
       </c>
       <c r="K29" s="8">
-        <v>1.5778377551462199E-4</v>
+        <v>1.1892785385430099E-5</v>
       </c>
       <c r="L29" s="8">
-        <v>2.1274685301022001E-4</v>
+        <v>4.6107821035007801E-5</v>
       </c>
       <c r="M29" s="8">
-        <v>2.2969195168983701E-4</v>
+        <v>2.0606947717685002E-5</v>
       </c>
       <c r="N29" s="8">
-        <v>1.07030937656175E-4</v>
+        <v>5.1103465309000903E-6</v>
       </c>
       <c r="O29" s="8">
-        <v>5.2957405081868802E-7</v>
+        <v>1.9918112710641799E-5</v>
       </c>
       <c r="P29" s="8">
-        <v>7.8746906126219096E-5</v>
+        <v>3.4514745446138203E-5</v>
       </c>
       <c r="Q29" s="8">
-        <v>6.2007918261008902E-5</v>
+        <v>3.45542649400255E-5</v>
       </c>
       <c r="R29" s="8">
-        <v>9.1834849694763106E-5</v>
+        <v>-1.6838241300965398E-5</v>
       </c>
       <c r="S29" s="8">
-        <v>2.0784403889541499E-4</v>
+        <v>1.23720738751091E-4</v>
       </c>
       <c r="T29" s="8">
-        <v>-7.3842093483555802E-6</v>
+        <v>-2.6856644618656E-6</v>
       </c>
       <c r="U29" s="8">
-        <v>1.9057031304725001E-5</v>
+        <v>-9.0450218288173408E-6</v>
       </c>
       <c r="V29" s="8">
-        <v>8.5782145321438097E-5</v>
+        <v>1.4009468663160801E-6</v>
       </c>
       <c r="W29" s="8">
-        <v>5.6801925958415799E-5</v>
+        <v>-5.4613928529796603E-6</v>
       </c>
       <c r="X29" s="8">
-        <v>2.4376716060478E-5</v>
+        <v>-1.5923795458484499E-5</v>
       </c>
       <c r="Y29" s="8">
-        <v>1.3964968192175099E-6</v>
+        <v>2.25825502080435E-6</v>
       </c>
       <c r="Z29" s="8">
-        <v>2.1273421699361599E-5</v>
+        <v>6.32391516244313E-7</v>
       </c>
       <c r="AA29" s="8">
-        <v>-2.1684165839640399E-7</v>
+        <v>-2.7069288365153099E-8</v>
       </c>
       <c r="AB29" s="8">
-        <v>2.3221912121004099E-5</v>
+        <v>1.50469872237207E-5</v>
       </c>
       <c r="AC29" s="8">
-        <v>-4.4892553353969296E-6</v>
+        <v>-6.9074774881950596E-7</v>
       </c>
       <c r="AD29" s="8">
-        <v>1.33355987347836E-3</v>
+        <v>6.4040362504805097E-4</v>
       </c>
       <c r="AE29" s="8">
-        <v>-1.4332835738693199E-3</v>
+        <v>-5.0248957896740099E-4</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -7539,94 +7537,94 @@
         <v>8</v>
       </c>
       <c r="B30" s="8">
-        <v>7.7225735958606903</v>
+        <v>7.5500908851499799</v>
       </c>
       <c r="C30" s="8">
-        <v>-1.3114087070277801E-3</v>
+        <v>-7.1287876915307198E-4</v>
       </c>
       <c r="D30" s="8">
-        <v>-2.8149845667864602E-3</v>
+        <v>-1.3776363870632699E-3</v>
       </c>
       <c r="E30" s="8">
-        <v>-3.5270488242725899E-3</v>
+        <v>-1.8971268489358E-3</v>
       </c>
       <c r="F30" s="8">
-        <v>-3.9310536595509897E-3</v>
+        <v>-1.9798701829385501E-3</v>
       </c>
       <c r="G30" s="8">
-        <v>-4.8546487627397104E-3</v>
+        <v>-2.0944408631292499E-3</v>
       </c>
       <c r="H30" s="8">
-        <v>-4.2973740799262796E-3</v>
+        <v>-1.9829665444681399E-3</v>
       </c>
       <c r="I30" s="8">
-        <v>-4.3130890938787303E-3</v>
+        <v>-2.0069919606887799E-3</v>
       </c>
       <c r="J30" s="8">
-        <v>-4.0646696534893502E-3</v>
+        <v>-2.0356955705889E-3</v>
       </c>
       <c r="K30" s="8">
-        <v>-3.9748938863043504E-3</v>
+        <v>-1.9510839125115799E-3</v>
       </c>
       <c r="L30" s="8">
-        <v>-4.5534873646774004E-3</v>
+        <v>-2.0735060290005998E-3</v>
       </c>
       <c r="M30" s="8">
-        <v>-6.0942464371640404E-3</v>
+        <v>-2.07528194585525E-3</v>
       </c>
       <c r="N30" s="8">
-        <v>-4.0630029790011696E-3</v>
+        <v>-1.77760543240374E-3</v>
       </c>
       <c r="O30" s="8">
-        <v>-4.5002541772588799E-3</v>
+        <v>-2.0037373811052899E-3</v>
       </c>
       <c r="P30" s="8">
-        <v>-2.3610714720251401E-3</v>
+        <v>-1.01610123344913E-3</v>
       </c>
       <c r="Q30" s="8">
-        <v>-1.0819653516032401E-4</v>
+        <v>-2.44201847484999E-4</v>
       </c>
       <c r="R30" s="8">
-        <v>-7.4990084814649301E-3</v>
+        <v>-3.0280508107170699E-3</v>
       </c>
       <c r="S30" s="8">
-        <v>-1.61211490268085E-3</v>
+        <v>-8.0244105623445002E-4</v>
       </c>
       <c r="T30" s="8">
-        <v>-8.4121578678384205E-4</v>
+        <v>-3.7646697853325301E-4</v>
       </c>
       <c r="U30" s="8">
-        <v>-1.9832797107782602E-3</v>
+        <v>-9.1017853611125401E-4</v>
       </c>
       <c r="V30" s="8">
-        <v>-2.6982551204772199E-3</v>
+        <v>-1.04361842120397E-3</v>
       </c>
       <c r="W30" s="8">
-        <v>-3.0962587631466298E-3</v>
+        <v>-1.03428383805936E-3</v>
       </c>
       <c r="X30" s="8">
-        <v>-3.1777611495323998E-3</v>
+        <v>-1.21340909252411E-3</v>
       </c>
       <c r="Y30" s="8">
-        <v>-3.3848296783398199E-4</v>
+        <v>-1.98633710603177E-4</v>
       </c>
       <c r="Z30" s="8">
-        <v>-9.9664994795096106E-4</v>
+        <v>-4.4798838519337602E-4</v>
       </c>
       <c r="AA30" s="8">
-        <v>8.6458425788635301E-6</v>
+        <v>3.9261203290600004E-6</v>
       </c>
       <c r="AB30" s="8">
-        <v>-4.0515264223235702E-4</v>
+        <v>-1.9651754734328699E-4</v>
       </c>
       <c r="AC30" s="8">
-        <v>-2.11891036359431E-4</v>
+        <v>-1.1030413592568999E-4</v>
       </c>
       <c r="AD30" s="8">
-        <v>-1.4332835738693199E-3</v>
+        <v>-5.0248957896740099E-4</v>
       </c>
       <c r="AE30" s="8">
-        <v>5.70983634775485E-2</v>
+        <v>2.7239691518930999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7636,7 +7634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90524CD9-FC25-43D3-A993-DE235AB6CC61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9BB856-A366-48FA-9A70-4E5734B39415}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7684,10 +7682,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="8">
-        <v>2.35467496679941</v>
+        <v>2.7222222492909798</v>
       </c>
       <c r="C2" s="8">
-        <v>6.9069456464306803E-2</v>
+        <v>3.94719085410246E-2</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -7716,13 +7714,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.24198337491288899</v>
+        <v>-1.7079766625217901E-2</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
       </c>
       <c r="D3" s="8">
-        <v>7.5403388623418305E-2</v>
+        <v>3.5541498876907503E-2</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -7748,7 +7746,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="8">
-        <v>2.2243870676080899</v>
+        <v>2.4013141669203599</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
@@ -7757,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <v>0.120428313054354</v>
+        <v>5.8786133478466902E-2</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -7780,7 +7778,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="8">
-        <v>0.46931929008701301</v>
+        <v>0.36161188437495401</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -7792,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <v>3.7609571473982903E-2</v>
+        <v>1.6722061778859602E-2</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -7812,7 +7810,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="8">
-        <v>0.32963971401742198</v>
+        <v>0.121141130642483</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
@@ -7827,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <v>7.8868177962366004E-2</v>
+        <v>3.4074050489809701E-2</v>
       </c>
       <c r="H6" s="8">
         <v>0</v>
@@ -7844,7 +7842,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="8">
-        <v>0.50881870912696703</v>
+        <v>0.51305986225025402</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
@@ -7862,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>9.6615858761655807E-2</v>
+        <v>4.5744889688968199E-2</v>
       </c>
       <c r="I7" s="8">
         <v>0</v>
@@ -7876,7 +7874,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="8">
-        <v>-4.8297154669191801E-2</v>
+        <v>5.3114819414516498E-2</v>
       </c>
       <c r="C8" s="8">
         <v>0</v>
@@ -7897,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>6.2309351345657699E-3</v>
+        <v>2.5251741702224102E-3</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
@@ -7908,7 +7906,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="8">
-        <v>9.3530220184674898E-2</v>
+        <v>0.125129272533404</v>
       </c>
       <c r="C9" s="8">
         <v>0</v>
@@ -7932,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="8">
-        <v>4.7043339317226502E-3</v>
+        <v>2.0830384564292101E-3</v>
       </c>
     </row>
   </sheetData>
@@ -7942,7 +7940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC91F47-2228-4CD9-A074-8E6E16867A5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7294C86-7EC7-44BE-B78A-2B0AC1388044}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7990,10 +7988,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="8">
-        <v>1.5139328433578501</v>
+        <v>1.6599294326113301</v>
       </c>
       <c r="C2" s="8">
-        <v>4.7236552700516299E-2</v>
+        <v>2.7266773640823E-2</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -8022,13 +8020,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.48073948127084398</v>
+        <v>-0.54144114962821499</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
       </c>
       <c r="D3" s="8">
-        <v>3.7014332213409301E-2</v>
+        <v>1.6765061259292498E-2</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -8054,7 +8052,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="8">
-        <v>1.01828935240596</v>
+        <v>0.97680075676524003</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
@@ -8063,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <v>4.4210426742189599E-2</v>
+        <v>2.2485990488377499E-2</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -8086,7 +8084,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="8">
-        <v>0.27098592511367098</v>
+        <v>0.34340869988233602</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -8098,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <v>2.73448397678396E-2</v>
+        <v>1.37341231339879E-2</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -8118,7 +8116,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="8">
-        <v>0.57419350826948201</v>
+        <v>0.298430905919982</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
@@ -8133,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <v>5.4247573191936703E-2</v>
+        <v>2.5419191110764301E-2</v>
       </c>
       <c r="H6" s="8">
         <v>0</v>
@@ -8150,7 +8148,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="8">
-        <v>0.89789769015377296</v>
+        <v>0.42901094741365497</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
@@ -8168,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>6.9945951727442598E-2</v>
+        <v>3.4951030493840199E-2</v>
       </c>
       <c r="I7" s="8">
         <v>0</v>
@@ -8182,7 +8180,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="8">
-        <v>-0.17522919144738</v>
+        <v>-0.163231858890097</v>
       </c>
       <c r="C8" s="8">
         <v>0</v>
@@ -8203,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>7.5243458978919804E-3</v>
+        <v>4.3219952737746899E-3</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
@@ -8214,7 +8212,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="8">
-        <v>3.6751492737489899E-2</v>
+        <v>4.8458504336649E-2</v>
       </c>
       <c r="C9" s="8">
         <v>0</v>
@@ -8238,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="8">
-        <v>4.4853158471408801E-3</v>
+        <v>2.33464261354773E-3</v>
       </c>
     </row>
   </sheetData>
